--- a/data/polid_data/instrumental_variable_est.xlsx
+++ b/data/polid_data/instrumental_variable_est.xlsx
@@ -7,13 +7,14 @@
   </sheets>
   <definedNames>
     <definedName localSheetId="0" name="instrumental_variable_wealth_par_1">Sheet1!$A$1:$M$263</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$Q$263</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1791">
   <si>
     <t>polid</t>
   </si>
@@ -543,7 +544,7 @@
     <t>1909502,9492</t>
   </si>
   <si>
-    <t>1889-10-13</t>
+    <t>1899-10-13</t>
   </si>
   <si>
     <t>https://www.genealogieonline.nl/genealogie-koek/I16601.php</t>
@@ -1830,9 +1831,6 @@
     <t>https://www.geni.com/people/Grietje-Elizabeth-Dijkhuizen/6000000014243925870</t>
   </si>
   <si>
-    <t>Schildwode</t>
-  </si>
-  <si>
     <t>00498</t>
   </si>
   <si>
@@ -1995,9 +1993,6 @@
     <t>Hilversum</t>
   </si>
   <si>
-    <t>370891,86</t>
-  </si>
-  <si>
     <t>00540</t>
   </si>
   <si>
@@ -2025,6 +2020,9 @@
     <t>https://www.geni.com/people/Gerrit-Heeres/6000000028183973127</t>
   </si>
   <si>
+    <t>1910-03-12</t>
+  </si>
+  <si>
     <t>00553</t>
   </si>
   <si>
@@ -2154,9 +2152,6 @@
     <t>https://nl.wikipedia.org/wiki/Jan_Samuel_Fran%C3%A7ois_van_Hoogstraten</t>
   </si>
   <si>
-    <t>1899-10-13</t>
-  </si>
-  <si>
     <t>https://www.genealogieonline.nl/west-europese-adel/I250609.php</t>
   </si>
   <si>
@@ -4311,6 +4306,9 @@
     <t>https://www.openarch.nl/rzh:ffe47998-07f0-48fe-900e-d620b977a529</t>
   </si>
   <si>
+    <t>kantoor Schiedam ZH?</t>
+  </si>
+  <si>
     <t>01246</t>
   </si>
   <si>
@@ -4566,6 +4564,21 @@
     <t>365691,4057</t>
   </si>
   <si>
+    <t>1864-08-08</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/west-europese-adel/I245949.php</t>
+  </si>
+  <si>
+    <t>Werkendam (Gld)</t>
+  </si>
+  <si>
+    <t>1864-01-22</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/west-europese-adel/I245948.php</t>
+  </si>
+  <si>
     <t>01374</t>
   </si>
   <si>
@@ -4578,6 +4591,15 @@
     <t>621115,0185</t>
   </si>
   <si>
+    <t>1880-09-24</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/nha:d8482406-fe22-43fb-beb4-13d8bb300ae5</t>
+  </si>
+  <si>
+    <t>148934.19</t>
+  </si>
+  <si>
     <t>01375</t>
   </si>
   <si>
@@ -4590,6 +4612,21 @@
     <t>53244,7764</t>
   </si>
   <si>
+    <t>1887-02-06</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Jacobus-Pieter-Treub/6000000025941553970</t>
+  </si>
+  <si>
+    <t>1898-01-08</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Marie-Louise-Cornaz/6000000074696249900</t>
+  </si>
+  <si>
+    <t>5164.47</t>
+  </si>
+  <si>
     <t>01376</t>
   </si>
   <si>
@@ -4602,6 +4639,24 @@
     <t>6642,7788</t>
   </si>
   <si>
+    <t>1906-01-30</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-griffioen-koster/I277631.php</t>
+  </si>
+  <si>
+    <t>Leeuwarden</t>
+  </si>
+  <si>
+    <t>1871-05-12</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-griffioen-koster/I174918.php</t>
+  </si>
+  <si>
+    <t>Stiens (Leeuwarden)</t>
+  </si>
+  <si>
     <t>01384</t>
   </si>
   <si>
@@ -4614,6 +4669,18 @@
     <t>949172,8702</t>
   </si>
   <si>
+    <t>1906-04-10</t>
+  </si>
+  <si>
+    <t>https://nl.wikipedia.org/wiki/Meinard_Tydeman_(1827-1906)</t>
+  </si>
+  <si>
+    <t>1856</t>
+  </si>
+  <si>
+    <t>1002914.27</t>
+  </si>
+  <si>
     <t>01385</t>
   </si>
   <si>
@@ -4635,6 +4702,21 @@
     <t>12651,3721</t>
   </si>
   <si>
+    <t>1894-04-11</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/ade:62477d00-4025-11e5-ad3e-67ad27d554f9</t>
+  </si>
+  <si>
+    <t>1864-06-13</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/rhl:6e451f94-e831-4325-8bc8-3c3b5a27e45d</t>
+  </si>
+  <si>
+    <t>Roosteren</t>
+  </si>
+  <si>
     <t>01391</t>
   </si>
   <si>
@@ -4647,6 +4729,15 @@
     <t>47809,3650</t>
   </si>
   <si>
+    <t>1884-04-18</t>
+  </si>
+  <si>
+    <t>https://www.parlement.com/id/vg09lm063au5/d_veegens</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Anna-Maria-van-Baalen/6000000018080341349</t>
+  </si>
+  <si>
     <t>01392</t>
   </si>
   <si>
@@ -4659,6 +4750,21 @@
     <t>92058,5637</t>
   </si>
   <si>
+    <t>1892-01-06</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-griffioen-koster/I280700.php</t>
+  </si>
+  <si>
+    <t>Lemsterland (Fr)</t>
+  </si>
+  <si>
+    <t>1912-07-02</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-griffioen-koster/I313611.php</t>
+  </si>
+  <si>
     <t>01400</t>
   </si>
   <si>
@@ -4671,7 +4777,13 @@
     <t>301151,7266</t>
   </si>
   <si>
-    <t>https://www.openarch.nl/search.php?top&amp;name=Ernest+van+de+Velde&amp;number_show=10&amp;sort=4&amp;start=40</t>
+    <t>1863-07-31</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Ernest-van-de-Velde/6000000025229867388</t>
+  </si>
+  <si>
+    <t>1903-12-08</t>
   </si>
   <si>
     <t>01404</t>
@@ -4686,6 +4798,18 @@
     <t>181410,5326</t>
   </si>
   <si>
+    <t>1896-04-03</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Simon-van-Velzen/6000000018795497819</t>
+  </si>
+  <si>
+    <t>1837</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Johanna-Maria-Wilhelmina-de-Moen/6000000032443436042</t>
+  </si>
+  <si>
     <t>01405</t>
   </si>
   <si>
@@ -4698,6 +4822,15 @@
     <t>48096,1323</t>
   </si>
   <si>
+    <t>https://www.openarch.nl/frl:0b3aa144-0c00-6daf-964f-aee8114cd8c8</t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/frl:5482f800-70a6-222e-04d8-d5d25048b679</t>
+  </si>
+  <si>
     <t>01411</t>
   </si>
   <si>
@@ -4710,6 +4843,21 @@
     <t>12621,6737</t>
   </si>
   <si>
+    <t>1897-07-12</t>
+  </si>
+  <si>
+    <t>https://gw.geneanet.org/vanwijnen28?lang=en&amp;n=verheij&amp;oc=0&amp;p=bastiaan+adrianus</t>
+  </si>
+  <si>
+    <t>Giessendam</t>
+  </si>
+  <si>
+    <t>1898-11-23</t>
+  </si>
+  <si>
+    <t>https://gw.geneanet.org/vanwijnen28?lang=en&amp;iz=18&amp;p=maria&amp;n=verdoorn&amp;oc=2</t>
+  </si>
+  <si>
     <t>01414</t>
   </si>
   <si>
@@ -4722,6 +4870,27 @@
     <t>86847,5857</t>
   </si>
   <si>
+    <t>1851-08-22</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/familie-visser-genealogie/I1589.php</t>
+  </si>
+  <si>
+    <t>Loon op Zand</t>
+  </si>
+  <si>
+    <t>1868-05-21</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/familie-visser-genealogie/I377.php</t>
+  </si>
+  <si>
+    <t>vrouw overleden 1893</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/familie-visser-genealogie/I1597.php</t>
+  </si>
+  <si>
     <t>01422</t>
   </si>
   <si>
@@ -4734,6 +4903,18 @@
     <t>58959,4628</t>
   </si>
   <si>
+    <t>1886-10-18</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-driessen/I52652.php</t>
+  </si>
+  <si>
+    <t>1911-09-18</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/hga:1B201688-C102-4E17-8CBD-4DE2CD9DD246</t>
+  </si>
+  <si>
     <t>01424</t>
   </si>
   <si>
@@ -4746,6 +4927,18 @@
     <t>252181,1698</t>
   </si>
   <si>
+    <t>1886-03-03</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-rutgers-van-der-loeff/I709.php</t>
+  </si>
+  <si>
+    <t>1889-07-01</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-rutgers-van-der-loeff/I724.php</t>
+  </si>
+  <si>
     <t>01437</t>
   </si>
   <si>
@@ -4785,6 +4978,18 @@
     <t>317411,1734</t>
   </si>
   <si>
+    <t>1875-02-20</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/van-der-waal-stamboom/I242858.php</t>
+  </si>
+  <si>
+    <t>1903-12-01</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/van-der-waal-stamboom/I94454.php</t>
+  </si>
+  <si>
     <t>01446</t>
   </si>
   <si>
@@ -4797,6 +5002,12 @@
     <t>31294,4832</t>
   </si>
   <si>
+    <t>http://heinbruins.nl/Annemarie.html</t>
+  </si>
+  <si>
+    <t>Vlissingen</t>
+  </si>
+  <si>
     <t>01451</t>
   </si>
   <si>
@@ -4806,6 +5017,37 @@
     <t>1947-06-29</t>
   </si>
   <si>
+    <t>1890-12-26</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-den-elzen/I30346.php</t>
+  </si>
+  <si>
+    <t>Gulpen</t>
+  </si>
+  <si>
+    <t>1867-11-11</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-den-elzen/I13086.php</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Inventarisnummer 247: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.archieven.nl/mi/1540/?mivast=1540&amp;mizig=100&amp;miadt=38&amp;milang=nl&amp;misort=dt%7Cdesc&amp;miview=tbl&amp;mip1=vliegen&amp;mib1=215&amp;mif1=215&amp;mif2=Overledene</t>
+    </r>
+  </si>
+  <si>
+    <t>Moeder niet in personen Limburg, voor 1877 overleden</t>
+  </si>
+  <si>
     <t>01454</t>
   </si>
   <si>
@@ -4836,6 +5078,24 @@
     <t>753,9477</t>
   </si>
   <si>
+    <t>1868-01-06</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-van-verseveld/I5564.php</t>
+  </si>
+  <si>
+    <t>Naarden</t>
+  </si>
+  <si>
+    <t>1862-08-03</t>
+  </si>
+  <si>
+    <t>zus doodgegaan 1913</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-van-verseveld/I297.php</t>
+  </si>
+  <si>
     <t>01460</t>
   </si>
   <si>
@@ -4848,6 +5108,15 @@
     <t>110230,9754</t>
   </si>
   <si>
+    <t>https://www.genealogieonline.nl/families-klein-ree-ea/I131637.php</t>
+  </si>
+  <si>
+    <t>1906-11-02</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/families-klein-ree-ea/I131619.php</t>
+  </si>
+  <si>
     <t>01470</t>
   </si>
   <si>
@@ -4869,6 +5138,24 @@
     <t>261447,2069</t>
   </si>
   <si>
+    <t>1872-03-07</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-ocken/I05184.php</t>
+  </si>
+  <si>
+    <t>1876-01-16</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-ocken/I05182.php</t>
+  </si>
+  <si>
+    <t>zus overleden 1882</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-ocken/I03927.php</t>
+  </si>
+  <si>
     <t>01494</t>
   </si>
   <si>
@@ -4881,6 +5168,15 @@
     <t>33061,8547</t>
   </si>
   <si>
+    <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwj_1dPW6r7wAhWV7qQKHXu_BCgQFjAGegQICRAD&amp;url=https%3A%2F%2Fdspace.library.uu.nl%2Fbitstream%2Fhandle%2F1874%2F212452%2FHEEM_1978-02_3.pdf%3Fsequence%3D1&amp;usg=AOvVaw3qSU_youVoYuy6j0biFJbf</t>
+  </si>
+  <si>
+    <t>Oudenbosch</t>
+  </si>
+  <si>
+    <t>1901-11-17</t>
+  </si>
+  <si>
     <t>01507</t>
   </si>
   <si>
@@ -4893,6 +5189,18 @@
     <t>14338,5300</t>
   </si>
   <si>
+    <t>1877-04-17</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Rudolphus-Joannes-Nepomucenus-Walter/6000000083358296276</t>
+  </si>
+  <si>
+    <t>Grave</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Maria-Joanna-Anna-Janssens/6000000083358847011</t>
+  </si>
+  <si>
     <t>01509</t>
   </si>
   <si>
@@ -4905,6 +5213,18 @@
     <t>490328,3326</t>
   </si>
   <si>
+    <t>1858-02-22</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-baris/I27734.php</t>
+  </si>
+  <si>
+    <t>1858-01-11</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/stamboom-baris/I27735.php</t>
+  </si>
+  <si>
     <t>01510</t>
   </si>
   <si>
@@ -4941,6 +5261,21 @@
     <t>66403,8152</t>
   </si>
   <si>
+    <t>1881-07-26</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-driessen/I78733.php</t>
+  </si>
+  <si>
+    <t>Zevenbergen</t>
+  </si>
+  <si>
+    <t>1856-09-22</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-driessen/I78734.php</t>
+  </si>
+  <si>
     <t>01538</t>
   </si>
   <si>
@@ -4962,6 +5297,24 @@
     <t>772969,8975</t>
   </si>
   <si>
+    <t>1861-02-15</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/west-europese-adel/I7459.php</t>
+  </si>
+  <si>
+    <t>1859-08-13</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/west-europese-adel/I7458.php</t>
+  </si>
+  <si>
+    <t>vrouw overleden 1877 den haag</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/west-europese-adel/I7454.php</t>
+  </si>
+  <si>
     <t>01572</t>
   </si>
   <si>
@@ -5019,6 +5372,12 @@
     <t>156458,2225</t>
   </si>
   <si>
+    <t>https://www.genealogieonline.nl/en/berkemeijer-genealogie/I102967.php</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
     <t>01613</t>
   </si>
   <si>
@@ -5029,6 +5388,15 @@
   </si>
   <si>
     <t>63219,2497</t>
+  </si>
+  <si>
+    <t>1888-01-07</t>
+  </si>
+  <si>
+    <t>https://nl.wikipedia.org/wiki/Klaas_Zijp_Mz.</t>
+  </si>
+  <si>
+    <t>Twisk</t>
   </si>
 </sst>
 </file>
@@ -5040,7 +5408,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -5060,7 +5428,6 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -5068,8 +5435,19 @@
     <font>
       <u/>
       <sz val="12.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
+      <u/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5086,7 +5464,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5109,21 +5487,30 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6071,7 +6458,7 @@
       <c r="E24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="6" t="s">
         <v>176</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -6081,6 +6468,9 @@
         <v>178</v>
       </c>
       <c r="I24" s="1"/>
+      <c r="L24" s="2">
+        <v>90928.7</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
@@ -6290,7 +6680,7 @@
       <c r="J31" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6441,6 +6831,9 @@
       <c r="K36" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="M36" s="2">
+        <v>808.88</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
@@ -7972,40 +8365,40 @@
       <c r="J87" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>605</v>
+      <c r="K87" s="6" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I88" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="J88" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>613</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>124</v>
@@ -8013,34 +8406,34 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I89" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="J89" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>621</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>211</v>
@@ -8051,72 +8444,72 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="H90" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="J90" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="K90" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>637</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I91" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="J91" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="K91" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="L91" s="4">
         <v>12147.62</v>
@@ -8124,16 +8517,16 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>31</v>
@@ -8142,34 +8535,34 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="J93" s="4" t="s">
         <v>651</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>652</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>317</v>
@@ -8177,48 +8570,48 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>655</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>656</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>178</v>
       </c>
       <c r="I94" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J94" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="K94" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>660</v>
+      <c r="M94" s="2">
+        <v>370891.86</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>31</v>
@@ -8227,69 +8620,72 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="G96" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>669</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96" s="6" t="s">
         <v>668</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="L96" s="2">
+        <v>5854.44</v>
+      </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="I97" s="1"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>31</v>
@@ -8298,16 +8694,16 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>31</v>
@@ -8316,45 +8712,45 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="F100" s="4">
         <v>1823.0</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>238</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>31</v>
@@ -8363,69 +8759,69 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="I102" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="O102" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="O102" s="4" t="s">
+      <c r="P102" s="8" t="s">
         <v>696</v>
-      </c>
-      <c r="P102" s="9" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>699</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="F103" s="4">
         <v>1853.0</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>158</v>
       </c>
       <c r="I103" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="J103" s="4" t="s">
         <v>703</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>704</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>158</v>
@@ -8436,16 +8832,16 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>31</v>
@@ -8454,31 +8850,31 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="F105" s="4">
         <v>1875.0</v>
       </c>
       <c r="G105" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J105" s="4" t="s">
         <v>712</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>714</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>124</v>
@@ -8489,130 +8885,130 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="G106" s="4" t="s">
         <v>718</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="G107" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="I107" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="J107" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>732</v>
-      </c>
       <c r="K107" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="G108" s="4" t="s">
         <v>736</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>738</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J108" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="K108" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="L108" s="4">
         <v>83735.58</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>31</v>
@@ -8621,37 +9017,37 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="G110" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>750</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I110" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="L110" s="4">
         <v>169512.84</v>
@@ -8659,51 +9055,51 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="I111" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="J111" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="K111" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>31</v>
@@ -8712,37 +9108,37 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="G113" s="4" t="s">
         <v>769</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>771</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>500</v>
       </c>
       <c r="I113" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="K113" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="M113" s="4">
         <v>127368.77</v>
@@ -8750,34 +9146,34 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F114" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="G114" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>779</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>780</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>124</v>
@@ -8786,118 +9182,118 @@
         <v>3491.84</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="I115" s="1"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="G116" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="I116" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="J116" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="I116" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>798</v>
-      </c>
       <c r="K116" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F117" s="4">
         <v>1907.0</v>
       </c>
       <c r="G117" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="J117" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="I117" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>805</v>
-      </c>
       <c r="K117" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>31</v>
@@ -8906,66 +9302,66 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F119" s="4">
         <v>1847.0</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="G120" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="H120" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="I120" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="J120" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>822</v>
-      </c>
       <c r="K120" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="L120" s="4">
         <v>14697.36</v>
@@ -8973,86 +9369,86 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D121" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="G121" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="I121" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="J121" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>831</v>
-      </c>
       <c r="K121" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="G122" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="I122" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="J122" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>840</v>
-      </c>
       <c r="K122" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>31</v>
@@ -9061,34 +9457,34 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="G124" s="4" t="s">
         <v>846</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>848</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>124</v>
@@ -9099,16 +9495,16 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>31</v>
@@ -9117,37 +9513,37 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="G126" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="I126" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="J126" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>862</v>
-      </c>
       <c r="K126" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="M126" s="4">
         <v>53898.67</v>
@@ -9155,25 +9551,25 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="J127" s="4" t="s">
         <v>866</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>868</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>158</v>
@@ -9184,89 +9580,89 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D128" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="G128" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="H128" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="G128" s="4" t="s">
+      <c r="I128" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="J128" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="K128" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D129" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="G129" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="I129" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="J129" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="I129" s="1" t="s">
+      <c r="K129" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="J129" s="4" t="s">
+      <c r="O129" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="K129" s="4" t="s">
+      <c r="P129" s="4" t="s">
         <v>886</v>
-      </c>
-      <c r="O129" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="P129" s="4" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>31</v>
@@ -9275,16 +9671,16 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>31</v>
@@ -9293,16 +9689,16 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>31</v>
@@ -9311,34 +9707,34 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="G133" s="4" t="s">
         <v>901</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>903</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>211</v>
@@ -9349,16 +9745,16 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>31</v>
@@ -9367,16 +9763,16 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>31</v>
@@ -9385,34 +9781,34 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D136" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="F136" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="G136" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="F136" s="10" t="s">
+      <c r="H136" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="G136" s="4" t="s">
+      <c r="I136" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="H136" s="4" t="s">
+      <c r="J136" s="4" t="s">
         <v>918</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>920</v>
       </c>
       <c r="K136" s="4" t="s">
         <v>560</v>
@@ -9423,34 +9819,34 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F137" s="9" t="s">
         <v>923</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="G137" s="4" t="s">
         <v>924</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>925</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>926</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="K137" s="4" t="s">
         <v>24</v>
@@ -9464,16 +9860,16 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>31</v>
@@ -9482,16 +9878,16 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>31</v>
@@ -9500,72 +9896,72 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="F140" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="G140" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="F140" s="10" t="s">
+      <c r="H140" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="I140" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="H140" s="4" t="s">
+      <c r="J140" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="I140" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>943</v>
-      </c>
       <c r="K140" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="F141" s="9" t="s">
         <v>946</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="G141" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="F141" s="10" t="s">
+      <c r="H141" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="G141" s="4" t="s">
+      <c r="I141" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="H141" s="4" t="s">
+      <c r="J141" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="K141" s="4" t="s">
         <v>951</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="K141" s="4" t="s">
-        <v>953</v>
       </c>
       <c r="L141" s="4">
         <v>277.86</v>
@@ -9573,37 +9969,37 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D142" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F142" s="9">
+        <v>4817.0</v>
+      </c>
+      <c r="G142" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="H142" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="F142" s="10">
-        <v>4817.0</v>
-      </c>
-      <c r="G142" s="4" t="s">
+      <c r="I142" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="H142" s="4" t="s">
+      <c r="J142" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="I142" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>961</v>
-      </c>
       <c r="K142" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L142" s="4">
         <v>290745.11</v>
@@ -9611,16 +10007,16 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>31</v>
@@ -9629,87 +10025,90 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="I144" s="1"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="I145" s="1"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>975</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="G146" s="4" t="s">
         <v>976</v>
-      </c>
-      <c r="F146" s="10" t="s">
-        <v>977</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>978</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I146" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="J146" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="K146" s="4" t="s">
-        <v>981</v>
+      <c r="L146" s="2">
+        <v>2709.58</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>31</v>
@@ -9718,16 +10117,16 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>31</v>
@@ -9736,37 +10135,37 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="F149" s="9" t="s">
         <v>990</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="G149" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="F149" s="10" t="s">
+      <c r="H149" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="G149" s="4" t="s">
+      <c r="I149" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="H149" s="4" t="s">
+      <c r="J149" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="I149" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>996</v>
-      </c>
       <c r="K149" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="L149" s="4">
         <v>42288.73</v>
@@ -9774,113 +10173,113 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D150" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="F150" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="G150" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="F150" s="10" t="s">
+      <c r="H150" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="I150" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="H150" s="4" t="s">
+      <c r="J150" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="I150" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>1005</v>
-      </c>
       <c r="K150" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F151" s="9" t="s">
         <v>1008</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="G151" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="F151" s="10" t="s">
+      <c r="H151" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="G151" s="4" t="s">
+      <c r="I151" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="H151" s="4" t="s">
+      <c r="J151" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="I151" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>1014</v>
-      </c>
       <c r="K151" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="N151" s="4">
         <v>9635.78</v>
       </c>
       <c r="O151" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="P151" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F152" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="G152" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="F152" s="10" t="s">
+      <c r="H152" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="G152" s="4" t="s">
+      <c r="I152" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="H152" s="4" t="s">
+      <c r="J152" s="4" t="s">
         <v>1023</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J152" s="4" t="s">
-        <v>1025</v>
       </c>
       <c r="K152" s="4" t="s">
         <v>124</v>
@@ -9888,34 +10287,34 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D153" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F153" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="G153" s="4" t="s">
         <v>1029</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>1031</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>385</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="K153" s="4" t="s">
         <v>385</v>
@@ -9924,42 +10323,42 @@
         <v>95125.32</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="P153" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F154" s="10" t="s">
-        <v>1030</v>
+        <v>1036</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>1028</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>385</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="K154" s="4" t="s">
         <v>385</v>
@@ -9968,24 +10367,24 @@
         <v>95125.32</v>
       </c>
       <c r="O154" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="P154" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>31</v>
@@ -9994,81 +10393,81 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D156" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F156" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="G156" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="F156" s="10" t="s">
+      <c r="H156" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="G156" s="4" t="s">
+      <c r="I156" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="H156" s="4" t="s">
+      <c r="J156" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="I156" s="1" t="s">
+      <c r="K156" s="4" t="s">
         <v>1049</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="K156" s="4" t="s">
-        <v>1051</v>
       </c>
       <c r="N156" s="4">
         <v>145719.99</v>
       </c>
       <c r="O156" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="P156" s="4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D157" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F157" s="9" t="s">
         <v>1056</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="G157" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="F157" s="10" t="s">
+      <c r="H157" s="4" t="s">
         <v>1058</v>
       </c>
-      <c r="G157" s="4" t="s">
+      <c r="I157" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="H157" s="4" t="s">
+      <c r="J157" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="K157" s="4" t="s">
         <v>1061</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="K157" s="4" t="s">
-        <v>1063</v>
       </c>
       <c r="M157" s="4">
         <v>28021.75</v>
@@ -10076,16 +10475,16 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>31</v>
@@ -10094,34 +10493,34 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D159" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F159" s="9" t="s">
         <v>1069</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="G159" s="4" t="s">
         <v>1070</v>
-      </c>
-      <c r="F159" s="10" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>1072</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="K159" s="4" t="s">
         <v>49</v>
@@ -10132,7 +10531,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>478</v>
@@ -10141,60 +10540,60 @@
         <v>19</v>
       </c>
       <c r="D160" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F160" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="G160" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="F160" s="10" t="s">
+      <c r="H160" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="G160" s="4" t="s">
+      <c r="I160" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="H160" s="4" t="s">
+      <c r="J160" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="I160" s="1" t="s">
+      <c r="K160" s="4" t="s">
         <v>1081</v>
-      </c>
-      <c r="J160" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="K160" s="4" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D161" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>1086</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="G161" s="4" t="s">
         <v>1087</v>
-      </c>
-      <c r="F161" s="10" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>1089</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>303</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="K161" s="4" t="s">
         <v>303</v>
@@ -10203,93 +10602,93 @@
         <v>2362.21</v>
       </c>
       <c r="O161" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D162" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F162" s="9" t="s">
         <v>1095</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="G162" s="10" t="s">
         <v>1096</v>
       </c>
-      <c r="F162" s="10" t="s">
+      <c r="H162" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="I162" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J162" s="4" t="s">
         <v>1097</v>
       </c>
-      <c r="G162" s="11" t="s">
+      <c r="K162" s="4" t="s">
         <v>1098</v>
-      </c>
-      <c r="H162" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="I162" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="J162" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="K162" s="4" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="11"/>
-      <c r="I163" s="11"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D164" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F164" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="G164" s="10" t="s">
         <v>1107</v>
       </c>
-      <c r="F164" s="10" t="s">
+      <c r="H164" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="G164" s="11" t="s">
+      <c r="I164" s="9" t="s">
         <v>1109</v>
       </c>
-      <c r="H164" s="11" t="s">
+      <c r="J164" s="4" t="s">
         <v>1110</v>
-      </c>
-      <c r="I164" s="10" t="s">
-        <v>1111</v>
-      </c>
-      <c r="J164" s="4" t="s">
-        <v>1112</v>
       </c>
       <c r="K164" s="4" t="s">
         <v>317</v>
@@ -10297,113 +10696,116 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D165" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F165" s="9" t="s">
         <v>1115</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="G165" s="11" t="s">
         <v>1116</v>
       </c>
-      <c r="F165" s="10" t="s">
+      <c r="H165" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I165" s="9">
+        <v>8088.0</v>
+      </c>
+      <c r="J165" s="4" t="s">
         <v>1117</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I165" s="10">
-        <v>8088.0</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>1119</v>
       </c>
       <c r="K165" s="4" t="s">
         <v>178</v>
       </c>
+      <c r="M165" s="2">
+        <v>2130.0</v>
+      </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D166" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F166" s="9" t="s">
         <v>1122</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="G166" s="10" t="s">
         <v>1123</v>
       </c>
-      <c r="F166" s="10" t="s">
+      <c r="H166" s="10" t="s">
         <v>1124</v>
       </c>
-      <c r="G166" s="11" t="s">
+      <c r="I166" s="9" t="s">
         <v>1125</v>
       </c>
-      <c r="H166" s="11" t="s">
+      <c r="J166" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="I166" s="10" t="s">
+      <c r="K166" s="4" t="s">
         <v>1127</v>
-      </c>
-      <c r="J166" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="K166" s="4" t="s">
-        <v>1129</v>
       </c>
       <c r="N166" s="4">
         <v>125139.03</v>
       </c>
       <c r="O166" s="4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="P166" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D167" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F167" s="9" t="s">
         <v>1134</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="G167" s="10" t="s">
         <v>1135</v>
       </c>
-      <c r="F167" s="10" t="s">
+      <c r="H167" s="10" t="s">
         <v>1136</v>
       </c>
-      <c r="G167" s="11" t="s">
+      <c r="I167" s="9">
+        <v>7357.0</v>
+      </c>
+      <c r="J167" s="4" t="s">
         <v>1137</v>
-      </c>
-      <c r="H167" s="11" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I167" s="10">
-        <v>7357.0</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>1139</v>
       </c>
       <c r="K167" s="4" t="s">
         <v>124</v>
@@ -10414,37 +10816,37 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D168" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F168" s="9" t="s">
         <v>1142</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="G168" s="10" t="s">
         <v>1143</v>
       </c>
-      <c r="F168" s="10" t="s">
+      <c r="H168" s="10" t="s">
         <v>1144</v>
       </c>
-      <c r="G168" s="11" t="s">
+      <c r="I168" s="9" t="s">
         <v>1145</v>
       </c>
-      <c r="H168" s="11" t="s">
+      <c r="J168" s="4" t="s">
         <v>1146</v>
       </c>
-      <c r="I168" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="J168" s="4" t="s">
-        <v>1148</v>
-      </c>
       <c r="K168" s="4" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="M168" s="4">
         <v>1716278.92</v>
@@ -10452,37 +10854,37 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D169" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G169" s="10" t="s">
         <v>1151</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="H169" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I169" s="9">
+        <v>4747.0</v>
+      </c>
+      <c r="J169" s="4" t="s">
         <v>1152</v>
       </c>
-      <c r="F169" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G169" s="11" t="s">
+      <c r="K169" s="4" t="s">
         <v>1153</v>
-      </c>
-      <c r="H169" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I169" s="10">
-        <v>4747.0</v>
-      </c>
-      <c r="J169" s="4" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K169" s="4" t="s">
-        <v>1155</v>
       </c>
       <c r="L169" s="4">
         <v>516252.76</v>
@@ -10490,125 +10892,125 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="11"/>
-      <c r="I170" s="11"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D171" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F171" s="9">
+        <v>5423.0</v>
+      </c>
+      <c r="G171" s="10" t="s">
         <v>1161</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="H171" s="10" t="s">
         <v>1162</v>
       </c>
-      <c r="F171" s="10">
-        <v>5423.0</v>
-      </c>
-      <c r="G171" s="11" t="s">
+      <c r="I171" s="9" t="s">
         <v>1163</v>
       </c>
-      <c r="H171" s="11" t="s">
+      <c r="J171" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="I171" s="10" t="s">
-        <v>1165</v>
-      </c>
-      <c r="J171" s="4" t="s">
-        <v>1166</v>
-      </c>
       <c r="K171" s="4" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D172" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F172" s="9" t="s">
         <v>1169</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="G172" s="10" t="s">
         <v>1170</v>
       </c>
-      <c r="F172" s="10" t="s">
+      <c r="H172" s="10" t="s">
         <v>1171</v>
       </c>
-      <c r="G172" s="11" t="s">
+      <c r="I172" s="9" t="s">
         <v>1172</v>
       </c>
-      <c r="H172" s="11" t="s">
+      <c r="J172" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="I172" s="10" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J172" s="4" t="s">
-        <v>1175</v>
-      </c>
       <c r="K172" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="I173" s="1"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>31</v>
@@ -10617,34 +11019,34 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D175" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F175" s="9" t="s">
         <v>1185</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="G175" s="4" t="s">
         <v>1186</v>
       </c>
-      <c r="F175" s="10" t="s">
+      <c r="H175" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="G175" s="4" t="s">
+      <c r="I175" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="H175" s="4" t="s">
+      <c r="J175" s="4" t="s">
         <v>1189</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="J175" s="4" t="s">
-        <v>1191</v>
       </c>
       <c r="K175" s="4" t="s">
         <v>158</v>
@@ -10652,16 +11054,16 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>31</v>
@@ -10670,25 +11072,25 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D177" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F177" s="9" t="s">
         <v>1196</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="G177" s="4" t="s">
         <v>1197</v>
-      </c>
-      <c r="F177" s="10" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>1199</v>
       </c>
       <c r="H177" s="4" t="s">
         <v>560</v>
@@ -10697,7 +11099,7 @@
         <v>294</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="L177" s="4">
         <v>87871.98</v>
@@ -10705,16 +11107,16 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>31</v>
@@ -10723,37 +11125,37 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D179" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F179" s="9" t="s">
         <v>1206</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="G179" s="4" t="s">
         <v>1207</v>
       </c>
-      <c r="F179" s="10" t="s">
+      <c r="H179" s="4" t="s">
         <v>1208</v>
       </c>
-      <c r="G179" s="4" t="s">
+      <c r="I179" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="H179" s="4" t="s">
+      <c r="J179" s="4" t="s">
         <v>1210</v>
       </c>
-      <c r="I179" s="1" t="s">
+      <c r="K179" s="4" t="s">
         <v>1211</v>
-      </c>
-      <c r="J179" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="K179" s="4" t="s">
-        <v>1213</v>
       </c>
       <c r="L179" s="4">
         <v>485818.1</v>
@@ -10761,139 +11163,145 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D180" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F180" s="9" t="s">
         <v>1216</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="G180" s="4" t="s">
         <v>1217</v>
       </c>
-      <c r="F180" s="10" t="s">
+      <c r="H180" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="I180" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="G180" s="4" t="s">
+      <c r="J180" s="4" t="s">
         <v>1219</v>
       </c>
-      <c r="H180" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="J180" s="4" t="s">
-        <v>1221</v>
-      </c>
       <c r="K180" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D181" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F181" s="9" t="s">
         <v>1224</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="G181" s="4" t="s">
         <v>1225</v>
-      </c>
-      <c r="F181" s="10" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>1227</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="K181" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="L181" s="2">
+        <v>3000.0</v>
+      </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D182" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F182" s="9" t="s">
         <v>1232</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="G182" s="4" t="s">
         <v>1233</v>
       </c>
-      <c r="F182" s="10" t="s">
+      <c r="H182" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="I182" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="G182" s="4" t="s">
+      <c r="J182" s="4" t="s">
         <v>1235</v>
       </c>
-      <c r="H182" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="J182" s="4" t="s">
-        <v>1237</v>
-      </c>
       <c r="K182" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
+      </c>
+      <c r="L182" s="2">
+        <v>243004.02</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D183" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F183" s="9" t="s">
         <v>1240</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="G183" s="4" t="s">
         <v>1241</v>
-      </c>
-      <c r="F183" s="10" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G183" s="4" t="s">
-        <v>1243</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="K183" s="4" t="s">
         <v>385</v>
@@ -10901,87 +11309,90 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I184" s="1"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D185" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F185" s="9" t="s">
         <v>1252</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="G185" s="4" t="s">
         <v>1253</v>
       </c>
-      <c r="F185" s="10" t="s">
+      <c r="H185" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I185" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="G185" s="4" t="s">
+      <c r="J185" s="4" t="s">
         <v>1255</v>
       </c>
-      <c r="H185" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J185" s="4" t="s">
-        <v>1257</v>
-      </c>
       <c r="K185" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
+      </c>
+      <c r="L185" s="2">
+        <v>16172.66</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D186" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F186" s="9" t="s">
         <v>1260</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="G186" s="4" t="s">
         <v>1261</v>
-      </c>
-      <c r="F186" s="10" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>1263</v>
       </c>
       <c r="H186" s="4" t="s">
         <v>158</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="K186" s="4" t="s">
         <v>303</v>
@@ -10992,169 +11403,175 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D187" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F187" s="9" t="s">
         <v>1268</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="G187" s="4" t="s">
         <v>1269</v>
       </c>
-      <c r="F187" s="10" t="s">
+      <c r="H187" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="G187" s="4" t="s">
+      <c r="I187" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="H187" s="4" t="s">
+      <c r="J187" s="4" t="s">
         <v>1272</v>
       </c>
-      <c r="I187" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="J187" s="4" t="s">
-        <v>1274</v>
-      </c>
       <c r="K187" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
+      </c>
+      <c r="L187" s="2">
+        <v>-6537.85</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F188" s="9">
+        <v>1864.0</v>
+      </c>
+      <c r="G188" s="4" t="s">
         <v>1277</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="I188" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="F188" s="10">
-        <v>1864.0</v>
-      </c>
-      <c r="G188" s="4" t="s">
+      <c r="J188" s="4" t="s">
         <v>1279</v>
       </c>
-      <c r="I188" s="1" t="s">
+      <c r="K188" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="J188" s="4" t="s">
+      <c r="O188" s="4" t="s">
         <v>1281</v>
       </c>
-      <c r="K188" s="4" t="s">
+      <c r="P188" s="4" t="s">
         <v>1282</v>
-      </c>
-      <c r="O188" s="4" t="s">
-        <v>1283</v>
-      </c>
-      <c r="P188" s="4" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D189" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F189" s="9">
+        <v>308.0</v>
+      </c>
+      <c r="G189" s="4" t="s">
         <v>1287</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="H189" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I189" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="F189" s="10">
-        <v>308.0</v>
-      </c>
-      <c r="G189" s="4" t="s">
+      <c r="J189" s="4" t="s">
         <v>1289</v>
       </c>
-      <c r="H189" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="J189" s="4" t="s">
-        <v>1291</v>
-      </c>
       <c r="K189" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
+      </c>
+      <c r="L189" s="2">
+        <v>291396.69</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D190" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F190" s="9">
+        <v>4542.0</v>
+      </c>
+      <c r="G190" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="H190" s="4" t="s">
         <v>1295</v>
-      </c>
-      <c r="F190" s="10">
-        <v>4542.0</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>1296</v>
-      </c>
-      <c r="H190" s="4" t="s">
-        <v>1297</v>
       </c>
       <c r="I190" s="1"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D191" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F191" s="9" t="s">
         <v>1300</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="G191" s="4" t="s">
         <v>1301</v>
-      </c>
-      <c r="F191" s="10" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G191" s="4" t="s">
-        <v>1303</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>178</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="K191" s="4" t="s">
         <v>178</v>
@@ -11162,51 +11579,54 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D192" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F192" s="9" t="s">
         <v>1308</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="G192" s="4" t="s">
         <v>1309</v>
       </c>
-      <c r="F192" s="10" t="s">
+      <c r="H192" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="G192" s="4" t="s">
+      <c r="I192" s="9" t="s">
         <v>1311</v>
       </c>
-      <c r="H192" s="1" t="s">
+      <c r="J192" s="4" t="s">
         <v>1312</v>
       </c>
-      <c r="I192" s="10" t="s">
-        <v>1313</v>
-      </c>
-      <c r="J192" s="4" t="s">
-        <v>1314</v>
-      </c>
       <c r="K192" s="4" t="s">
-        <v>1312</v>
+        <v>1310</v>
+      </c>
+      <c r="M192" s="2">
+        <v>95590.0</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>31</v>
@@ -11215,51 +11635,51 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F194" s="9" t="s">
         <v>1320</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="G194" s="4" t="s">
         <v>1321</v>
       </c>
-      <c r="F194" s="10" t="s">
+      <c r="H194" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="I194" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="G194" s="4" t="s">
+      <c r="J194" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="H194" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="I194" s="1" t="s">
+      <c r="K194" s="4" t="s">
         <v>1324</v>
-      </c>
-      <c r="J194" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K194" s="4" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>31</v>
@@ -11268,16 +11688,16 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>31</v>
@@ -11286,98 +11706,98 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D197" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F197" s="9" t="s">
         <v>1335</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="G197" s="4" t="s">
         <v>1336</v>
-      </c>
-      <c r="F197" s="10" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>1338</v>
       </c>
       <c r="H197" s="4" t="s">
         <v>325</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="K197" s="4" t="s">
         <v>325</v>
       </c>
       <c r="O197" s="4" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="P197" s="4" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D198" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F198" s="2">
+        <v>1930.0</v>
+      </c>
+      <c r="G198" s="7" t="s">
         <v>1345</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F198" s="8">
-        <v>1930.0</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>1347</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I198" s="6" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J198" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O198" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="J198" s="7" t="s">
+      <c r="P198" s="7" t="s">
         <v>1349</v>
       </c>
-      <c r="O198" s="2" t="s">
+      <c r="Q198" s="7" t="s">
         <v>1350</v>
-      </c>
-      <c r="P198" s="7" t="s">
-        <v>1351</v>
-      </c>
-      <c r="Q198" s="7" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>31</v>
@@ -11386,57 +11806,57 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F200" s="9" t="s">
         <v>1358</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="G200" s="4" t="s">
         <v>1359</v>
-      </c>
-      <c r="F200" s="10" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>1361</v>
       </c>
       <c r="H200" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="K200" s="4" t="s">
         <v>64</v>
       </c>
       <c r="O200" s="4" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="P200" s="4" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>31</v>
@@ -11445,16 +11865,16 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>31</v>
@@ -11463,34 +11883,34 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D203" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F203" s="9">
+        <v>8534.0</v>
+      </c>
+      <c r="G203" s="4" t="s">
         <v>1374</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F203" s="10">
-        <v>8534.0</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>1376</v>
       </c>
       <c r="H203" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="K203" s="4" t="s">
         <v>64</v>
@@ -11498,51 +11918,51 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D204" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F204" s="9" t="s">
         <v>1381</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="G204" s="4" t="s">
         <v>1382</v>
       </c>
-      <c r="F204" s="10" t="s">
+      <c r="H204" s="4" t="s">
         <v>1383</v>
       </c>
-      <c r="G204" s="4" t="s">
+      <c r="I204" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="H204" s="4" t="s">
+      <c r="J204" s="4" t="s">
         <v>1385</v>
       </c>
-      <c r="I204" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="J204" s="4" t="s">
-        <v>1387</v>
-      </c>
       <c r="K204" s="4" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>31</v>
@@ -11551,16 +11971,16 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>31</v>
@@ -11569,16 +11989,16 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>31</v>
@@ -11587,60 +12007,60 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D208" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F208" s="9" t="s">
         <v>1399</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="G208" s="4" t="s">
         <v>1400</v>
       </c>
-      <c r="F208" s="10" t="s">
+      <c r="H208" s="4" t="s">
         <v>1401</v>
       </c>
-      <c r="G208" s="4" t="s">
+      <c r="I208" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="H208" s="4" t="s">
+      <c r="J208" s="4" t="s">
         <v>1403</v>
       </c>
-      <c r="I208" s="1" t="s">
+      <c r="K208" s="4" t="s">
         <v>1404</v>
-      </c>
-      <c r="J208" s="4" t="s">
-        <v>1405</v>
-      </c>
-      <c r="K208" s="4" t="s">
-        <v>1406</v>
       </c>
       <c r="N208" s="4">
         <v>859340.53</v>
       </c>
       <c r="O208" s="4" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="P208" s="4" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>31</v>
@@ -11649,127 +12069,130 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D210" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F210" s="9" t="s">
         <v>1414</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="G210" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="F210" s="10" t="s">
+      <c r="H210" s="4" t="s">
         <v>1416</v>
       </c>
-      <c r="G210" s="4" t="s">
+      <c r="I210" s="6" t="s">
         <v>1417</v>
       </c>
-      <c r="H210" s="4" t="s">
+      <c r="N210" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="I210" s="6" t="s">
+      <c r="O210" s="4" t="s">
         <v>1419</v>
       </c>
-      <c r="N210" s="2" t="s">
+      <c r="P210" s="4" t="s">
         <v>1420</v>
-      </c>
-      <c r="O210" s="4" t="s">
-        <v>1421</v>
-      </c>
-      <c r="P210" s="4" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D211" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F211" s="9" t="s">
         <v>1425</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="G211" s="4" t="s">
         <v>1426</v>
       </c>
-      <c r="F211" s="10" t="s">
+      <c r="H211" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="G211" s="4" t="s">
+      <c r="I211" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="H211" s="4" t="s">
+      <c r="J211" s="4" t="s">
         <v>1429</v>
       </c>
-      <c r="I211" s="1" t="s">
+      <c r="K211" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O211" s="2" t="s">
         <v>1430</v>
-      </c>
-      <c r="J211" s="4" t="s">
-        <v>1431</v>
-      </c>
-      <c r="K211" s="4" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>1432</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>1433</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D212" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="F212" s="9" t="s">
         <v>1435</v>
       </c>
-      <c r="F212" s="10" t="s">
+      <c r="G212" s="4" t="s">
         <v>1436</v>
       </c>
-      <c r="G212" s="4" t="s">
+      <c r="H212" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="H212" s="4" t="s">
+      <c r="I212" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="I212" s="1" t="s">
+      <c r="J212" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="J212" s="4" t="s">
+      <c r="K212" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="K212" s="4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="L212" s="8">
+      <c r="L212" s="2">
         <v>240980.42</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>1442</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>1443</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>31</v>
@@ -11778,98 +12201,98 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>1445</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>1446</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D214" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="F214" s="13" t="s">
         <v>1448</v>
       </c>
-      <c r="F214" s="12" t="s">
+      <c r="G214" s="7" t="s">
         <v>1449</v>
       </c>
-      <c r="G214" s="7" t="s">
+      <c r="H214" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I214" s="6" t="s">
         <v>1450</v>
       </c>
-      <c r="H214" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I214" s="6" t="s">
+      <c r="J214" s="7" t="s">
         <v>1451</v>
       </c>
-      <c r="J214" s="7" t="s">
-        <v>1452</v>
-      </c>
       <c r="K214" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="L214" s="8">
+        <v>1171</v>
+      </c>
+      <c r="L214" s="2">
         <v>412453.68</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>1453</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>1454</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D215" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E215" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="F215" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="F215" s="1" t="s">
+      <c r="G215" s="4" t="s">
         <v>1457</v>
       </c>
-      <c r="G215" s="4" t="s">
+      <c r="H215" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="H215" s="1" t="s">
+      <c r="I215" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="I215" s="1" t="s">
-        <v>1460</v>
-      </c>
       <c r="J215" s="4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K215" s="1" t="s">
         <v>1458</v>
-      </c>
-      <c r="K215" s="1" t="s">
-        <v>1459</v>
       </c>
       <c r="M215" s="4">
         <v>2440955.74</v>
       </c>
       <c r="O215" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>1462</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>1463</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D216" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E216" s="1" t="s">
         <v>1464</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>1465</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -11883,68 +12306,68 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>1466</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>1467</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D217" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E217" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="F217" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>1470</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>1471</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I217" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J217" s="1" t="s">
         <v>1472</v>
-      </c>
-      <c r="J217" s="1" t="s">
-        <v>1473</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>124</v>
       </c>
       <c r="L217" s="6" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>1475</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>1476</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D218" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="F218" s="6" t="s">
         <v>1478</v>
       </c>
-      <c r="F218" s="6" t="s">
+      <c r="G218" s="14" t="s">
         <v>1479</v>
       </c>
-      <c r="G218" s="13" t="s">
+      <c r="H218" s="6" t="s">
         <v>1480</v>
-      </c>
-      <c r="H218" s="6" t="s">
-        <v>1481</v>
       </c>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -11955,19 +12378,19 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>1482</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>1483</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>1484</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>1485</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -11981,19 +12404,19 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>1486</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>1487</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D220" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E220" s="1" t="s">
         <v>1488</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>1489</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -12007,60 +12430,60 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>1490</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>1491</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D221" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E221" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="F221" s="6" t="s">
         <v>1493</v>
       </c>
-      <c r="F221" s="6" t="s">
+      <c r="G221" s="14" t="s">
         <v>1494</v>
       </c>
-      <c r="G221" s="13" t="s">
+      <c r="H221" s="6" t="s">
         <v>1495</v>
       </c>
-      <c r="H221" s="6" t="s">
+      <c r="I221" s="6" t="s">
         <v>1496</v>
       </c>
-      <c r="I221" s="6" t="s">
+      <c r="J221" s="14" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>1497</v>
-      </c>
-      <c r="J221" s="13" t="s">
-        <v>1495</v>
-      </c>
-      <c r="K221" s="6" t="s">
-        <v>1498</v>
       </c>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
-      <c r="O221" s="8" t="s">
+      <c r="O221" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="P221" s="7" t="s">
         <v>1499</v>
-      </c>
-      <c r="P221" s="7" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>1501</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>1502</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>31</v>
@@ -12077,16 +12500,16 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>1504</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>1505</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>31</v>
@@ -12103,16 +12526,16 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>1507</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>1508</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>31</v>
@@ -12129,16 +12552,16 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>1510</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>1511</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>31</v>
@@ -12155,146 +12578,204 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>1513</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>1514</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D226" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E226" s="1" t="s">
         <v>1515</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="F226" s="6" t="s">
         <v>1516</v>
       </c>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
+      <c r="G226" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H226" s="6" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I226" s="6" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J226" s="14" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K226" s="6" t="s">
+        <v>1518</v>
+      </c>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
+        <v>1524</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G227" s="14" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H227" s="6" t="s">
+        <v>303</v>
+      </c>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
+      <c r="L227" s="6" t="s">
+        <v>1527</v>
+      </c>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>1521</v>
+        <v>1528</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1522</v>
+        <v>1529</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1523</v>
+        <v>1530</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
-      <c r="L228" s="1"/>
+        <v>1531</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G228" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H228" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I228" s="6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="J228" s="14" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K228" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="L228" s="6" t="s">
+        <v>1536</v>
+      </c>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>1525</v>
+        <v>1537</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1526</v>
+        <v>1538</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1527</v>
+        <v>1539</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1528</v>
-      </c>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
+        <v>1540</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G229" s="14" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H229" s="6" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I229" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J229" s="14" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K229" s="6" t="s">
+        <v>1546</v>
+      </c>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>1529</v>
+        <v>1547</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1531</v>
+        <v>1549</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-      <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
+        <v>1550</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G230" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H230" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I230" s="6" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J230" s="14" t="s">
+        <v>1552</v>
+      </c>
       <c r="K230" s="1"/>
-      <c r="L230" s="1"/>
+      <c r="L230" s="6" t="s">
+        <v>1554</v>
+      </c>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>1533</v>
+        <v>1555</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1534</v>
+        <v>1556</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1535</v>
+        <v>1557</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>31</v>
@@ -12303,294 +12784,514 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>1536</v>
+        <v>1558</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1537</v>
+        <v>1559</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1538</v>
+        <v>1560</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="I232" s="1"/>
+        <v>1561</v>
+      </c>
+      <c r="F232" s="13" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G232" s="7" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I232" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J232" s="7" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K232" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L232" s="2">
+        <v>7850.63</v>
+      </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>1540</v>
+        <v>1567</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1541</v>
+        <v>1568</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1542</v>
+        <v>1569</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1543</v>
+        <v>1570</v>
+      </c>
+      <c r="F233" s="13" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="I233" s="1"/>
+      <c r="J233" s="7" t="s">
+        <v>1573</v>
+      </c>
+      <c r="L233" s="2">
+        <v>37328.13</v>
+      </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>1544</v>
+        <v>1574</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1545</v>
+        <v>1575</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1546</v>
+        <v>1576</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="I234" s="1"/>
+        <v>1577</v>
+      </c>
+      <c r="F234" s="13" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G234" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I234" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J234" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K234" s="2" t="s">
+        <v>1580</v>
+      </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>1548</v>
+        <v>1583</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1549</v>
+        <v>1584</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1550</v>
+        <v>1585</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="F235" s="10">
-        <v>5786.0</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>1552</v>
+        <v>1586</v>
+      </c>
+      <c r="F235" s="15" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G235" s="7" t="s">
+        <v>1588</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I235" s="1"/>
+      <c r="I235" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J235" s="2" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>1553</v>
+        <v>1590</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1554</v>
+        <v>1591</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1555</v>
+        <v>1592</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="I236" s="1"/>
+        <v>1593</v>
+      </c>
+      <c r="F236" s="13" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>1595</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I236" s="6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J236" s="16" t="s">
+        <v>1597</v>
+      </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>1557</v>
+        <v>1598</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1558</v>
+        <v>1599</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1559</v>
+        <v>1600</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1560</v>
-      </c>
-      <c r="I237" s="1"/>
+        <v>1601</v>
+      </c>
+      <c r="F237" s="13">
+        <v>7304.0</v>
+      </c>
+      <c r="G237" s="7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H237" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I237" s="6" t="s">
+        <v>1603</v>
+      </c>
+      <c r="J237" s="7" t="s">
+        <v>1604</v>
+      </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>1561</v>
+        <v>1605</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1562</v>
+        <v>1606</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1563</v>
+        <v>1607</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="I238" s="1"/>
+        <v>1608</v>
+      </c>
+      <c r="F238" s="13" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>1610</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I238" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J238" s="7" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K238" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L238" s="2">
+        <v>21403.43</v>
+      </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>1565</v>
+        <v>1614</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1566</v>
+        <v>1615</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1567</v>
+        <v>1616</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1568</v>
-      </c>
-      <c r="I239" s="1"/>
+        <v>1617</v>
+      </c>
+      <c r="F239" s="13" t="s">
+        <v>1618</v>
+      </c>
+      <c r="G239" s="7" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I239" s="6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J239" s="7" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K239" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="O239" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="P239" s="16" t="s">
+        <v>1624</v>
+      </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>1569</v>
+        <v>1625</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1570</v>
+        <v>1626</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1571</v>
+        <v>1627</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1572</v>
-      </c>
-      <c r="I240" s="1"/>
+        <v>1628</v>
+      </c>
+      <c r="F240" s="13" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I240" s="6" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J240" s="7" t="s">
+        <v>1632</v>
+      </c>
+      <c r="K240" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L240" s="12">
+        <v>21402.32</v>
+      </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>1573</v>
+        <v>1633</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1574</v>
+        <v>1634</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1575</v>
+        <v>1635</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1576</v>
-      </c>
-      <c r="I241" s="1"/>
+        <v>1636</v>
+      </c>
+      <c r="F241" s="13" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G241" s="7" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I241" s="6" t="s">
+        <v>1639</v>
+      </c>
+      <c r="J241" s="7" t="s">
+        <v>1640</v>
+      </c>
+      <c r="K241" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L241" s="2">
+        <v>26816.79</v>
+      </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>1577</v>
+        <v>1641</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1578</v>
+        <v>1642</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1579</v>
+        <v>1643</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="F242" s="10" t="s">
-        <v>1581</v>
+        <v>1644</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>1645</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>1582</v>
+        <v>1646</v>
       </c>
       <c r="H242" s="4" t="s">
         <v>560</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>1583</v>
+        <v>1647</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>1584</v>
+        <v>1648</v>
       </c>
       <c r="K242" s="4" t="s">
-        <v>1585</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>1586</v>
+        <v>1650</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1587</v>
+        <v>1651</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1588</v>
+        <v>1652</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1589</v>
-      </c>
-      <c r="I243" s="1"/>
+        <v>1653</v>
+      </c>
+      <c r="F243" s="13" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G243" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I243" s="6" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J243" s="7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="K243" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M243" s="2">
+        <v>228437.09</v>
+      </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>1590</v>
+        <v>1658</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1591</v>
+        <v>1659</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1592</v>
+        <v>1660</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1593</v>
+        <v>1661</v>
+      </c>
+      <c r="F244" s="13">
+        <v>12116.0</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>1663</v>
       </c>
       <c r="I244" s="1"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>1594</v>
+        <v>1664</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1595</v>
+        <v>1665</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1596</v>
+        <v>1666</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I245" s="1"/>
+      <c r="F245" s="13" t="s">
+        <v>1667</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I245" s="6" t="s">
+        <v>1670</v>
+      </c>
+      <c r="J245" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K245" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="O245" s="16" t="s">
+        <v>1672</v>
+      </c>
+      <c r="P245" s="2" t="s">
+        <v>1673</v>
+      </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>1597</v>
+        <v>1674</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1598</v>
+        <v>1675</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1599</v>
+        <v>1676</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>31</v>
@@ -12599,16 +13300,16 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>1600</v>
+        <v>1677</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1601</v>
+        <v>1678</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1602</v>
+        <v>1679</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>31</v>
@@ -12617,52 +13318,92 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>1603</v>
+        <v>1680</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1604</v>
+        <v>1681</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1605</v>
+        <v>1682</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I248" s="1"/>
+        <v>1683</v>
+      </c>
+      <c r="F248" s="13" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G248" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I248" s="6" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J248" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="K248" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="O248" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="P248" s="7" t="s">
+        <v>1689</v>
+      </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>1607</v>
+        <v>1690</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1608</v>
+        <v>1691</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1609</v>
+        <v>1692</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I249" s="1"/>
+        <v>1693</v>
+      </c>
+      <c r="F249" s="13">
+        <v>3692.0</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="I249" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="J249" s="7" t="s">
+        <v>1696</v>
+      </c>
+      <c r="K249" s="2" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>1611</v>
+        <v>1697</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1612</v>
+        <v>1698</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1613</v>
+        <v>1699</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>31</v>
@@ -12671,141 +13412,224 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>1614</v>
+        <v>1700</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1615</v>
+        <v>1701</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1616</v>
+        <v>1702</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I251" s="1"/>
+        <v>1703</v>
+      </c>
+      <c r="F251" s="13" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I251" s="6" t="s">
+        <v>1706</v>
+      </c>
+      <c r="J251" s="7" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K251" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="O251" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P251" s="7" t="s">
+        <v>1709</v>
+      </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>1618</v>
+        <v>1710</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1619</v>
+        <v>1711</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1620</v>
+        <v>1712</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="I252" s="1"/>
+        <v>1713</v>
+      </c>
+      <c r="F252" s="13">
+        <v>426.0</v>
+      </c>
+      <c r="G252" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="I252" s="6" t="s">
+        <v>1716</v>
+      </c>
+      <c r="J252" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="K252" s="2" t="s">
+        <v>1715</v>
+      </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>1622</v>
+        <v>1717</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1623</v>
+        <v>1718</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1624</v>
+        <v>1719</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1625</v>
+        <v>1720</v>
+      </c>
+      <c r="F253" s="13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G253" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>1723</v>
       </c>
       <c r="I253" s="1"/>
+      <c r="J253" s="7" t="s">
+        <v>1724</v>
+      </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>1626</v>
+        <v>1725</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1627</v>
+        <v>1726</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1628</v>
+        <v>1727</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I254" s="1"/>
+        <v>1728</v>
+      </c>
+      <c r="F254" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G254" s="7" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H254" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I254" s="6" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J254" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="K254" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>1630</v>
+        <v>1733</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1627</v>
+        <v>1726</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1631</v>
+        <v>1734</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="F255" s="10" t="s">
-        <v>1633</v>
+        <v>1735</v>
+      </c>
+      <c r="F255" s="9" t="s">
+        <v>1736</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>1634</v>
+        <v>1737</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>1635</v>
+        <v>1738</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>1636</v>
+        <v>1739</v>
       </c>
       <c r="J255" s="4" t="s">
-        <v>1637</v>
+        <v>1740</v>
       </c>
       <c r="K255" s="4" t="s">
-        <v>1635</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>1638</v>
+        <v>1741</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1639</v>
+        <v>1742</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1640</v>
+        <v>1743</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1641</v>
-      </c>
-      <c r="I256" s="1"/>
+        <v>1744</v>
+      </c>
+      <c r="F256" s="13" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G256" s="7" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H256" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I256" s="6" t="s">
+        <v>1748</v>
+      </c>
+      <c r="J256" s="7" t="s">
+        <v>1749</v>
+      </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>1642</v>
+        <v>1750</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1643</v>
+        <v>1751</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1644</v>
+        <v>1752</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>31</v>
@@ -12814,34 +13638,57 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>1645</v>
+        <v>1753</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1646</v>
+        <v>1754</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1647</v>
+        <v>1755</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="I258" s="1"/>
+        <v>1756</v>
+      </c>
+      <c r="F258" s="13" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G258" s="7" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I258" s="6" t="s">
+        <v>1759</v>
+      </c>
+      <c r="J258" s="7" t="s">
+        <v>1760</v>
+      </c>
+      <c r="K258" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O258" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="P258" s="16" t="s">
+        <v>1762</v>
+      </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>1649</v>
+        <v>1763</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1650</v>
+        <v>1764</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1651</v>
+        <v>1765</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>31</v>
@@ -12850,51 +13697,51 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>1652</v>
+        <v>1766</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1653</v>
+        <v>1767</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1654</v>
+        <v>1768</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F260" s="10">
+        <v>1769</v>
+      </c>
+      <c r="F260" s="9">
         <v>3484.0</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>1656</v>
+        <v>1770</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>1657</v>
+        <v>1771</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>1658</v>
+        <v>1772</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>1659</v>
+        <v>1773</v>
       </c>
       <c r="K260" s="4" t="s">
-        <v>1660</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>1661</v>
+        <v>1775</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1662</v>
+        <v>1776</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1663</v>
+        <v>1777</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>31</v>
@@ -12903,39 +13750,62 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>1664</v>
+        <v>1778</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1665</v>
+        <v>1779</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1666</v>
+        <v>1780</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="I262" s="1"/>
+        <v>1781</v>
+      </c>
+      <c r="F262" s="2">
+        <v>1839.0</v>
+      </c>
+      <c r="G262" s="7" t="s">
+        <v>1782</v>
+      </c>
+      <c r="I262" s="6" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J262" s="7" t="s">
+        <v>1782</v>
+      </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>1668</v>
+        <v>1784</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1669</v>
+        <v>1785</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1670</v>
+        <v>1786</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1671</v>
+        <v>1787</v>
+      </c>
+      <c r="F263" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G263" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H263" s="2" t="s">
+        <v>1790</v>
       </c>
       <c r="I263" s="1"/>
+      <c r="L263" s="2">
+        <v>136429.8</v>
+      </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="I264" s="1"/>
@@ -15149,26 +16019,85 @@
       <c r="I1000" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$Q$263"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="J2"/>
     <hyperlink r:id="rId2" ref="G31"/>
     <hyperlink r:id="rId3" ref="J31"/>
     <hyperlink r:id="rId4" ref="G33"/>
     <hyperlink r:id="rId5" ref="P102"/>
-    <hyperlink r:id="rId6" ref="G198"/>
-    <hyperlink r:id="rId7" ref="J198"/>
-    <hyperlink r:id="rId8" ref="P198"/>
-    <hyperlink r:id="rId9" ref="Q198"/>
-    <hyperlink r:id="rId10" ref="G214"/>
-    <hyperlink r:id="rId11" ref="J214"/>
-    <hyperlink r:id="rId12" ref="G218"/>
-    <hyperlink r:id="rId13" ref="G221"/>
-    <hyperlink r:id="rId14" ref="J221"/>
-    <hyperlink r:id="rId15" ref="P221"/>
+    <hyperlink r:id="rId6" ref="G165"/>
+    <hyperlink r:id="rId7" ref="G198"/>
+    <hyperlink r:id="rId8" ref="J198"/>
+    <hyperlink r:id="rId9" ref="P198"/>
+    <hyperlink r:id="rId10" ref="Q198"/>
+    <hyperlink r:id="rId11" ref="G214"/>
+    <hyperlink r:id="rId12" ref="J214"/>
+    <hyperlink r:id="rId13" ref="G218"/>
+    <hyperlink r:id="rId14" ref="G221"/>
+    <hyperlink r:id="rId15" ref="J221"/>
+    <hyperlink r:id="rId16" ref="P221"/>
+    <hyperlink r:id="rId17" ref="G226"/>
+    <hyperlink r:id="rId18" ref="J226"/>
+    <hyperlink r:id="rId19" ref="G227"/>
+    <hyperlink r:id="rId20" ref="G228"/>
+    <hyperlink r:id="rId21" ref="J228"/>
+    <hyperlink r:id="rId22" ref="G229"/>
+    <hyperlink r:id="rId23" ref="J229"/>
+    <hyperlink r:id="rId24" ref="G230"/>
+    <hyperlink r:id="rId25" ref="J230"/>
+    <hyperlink r:id="rId26" ref="G232"/>
+    <hyperlink r:id="rId27" ref="J232"/>
+    <hyperlink r:id="rId28" ref="G233"/>
+    <hyperlink r:id="rId29" ref="J233"/>
+    <hyperlink r:id="rId30" ref="G234"/>
+    <hyperlink r:id="rId31" ref="J234"/>
+    <hyperlink r:id="rId32" ref="G235"/>
+    <hyperlink r:id="rId33" ref="G236"/>
+    <hyperlink r:id="rId34" ref="J236"/>
+    <hyperlink r:id="rId35" ref="G237"/>
+    <hyperlink r:id="rId36" ref="J237"/>
+    <hyperlink r:id="rId37" ref="G238"/>
+    <hyperlink r:id="rId38" ref="J238"/>
+    <hyperlink r:id="rId39" ref="G239"/>
+    <hyperlink r:id="rId40" ref="J239"/>
+    <hyperlink r:id="rId41" ref="P239"/>
+    <hyperlink r:id="rId42" ref="G240"/>
+    <hyperlink r:id="rId43" ref="J240"/>
+    <hyperlink r:id="rId44" ref="G241"/>
+    <hyperlink r:id="rId45" ref="J241"/>
+    <hyperlink r:id="rId46" ref="G243"/>
+    <hyperlink r:id="rId47" ref="J243"/>
+    <hyperlink r:id="rId48" ref="G244"/>
+    <hyperlink r:id="rId49" ref="G245"/>
+    <hyperlink r:id="rId50" ref="J245"/>
+    <hyperlink r:id="rId51" ref="O245"/>
+    <hyperlink r:id="rId52" ref="G248"/>
+    <hyperlink r:id="rId53" ref="J248"/>
+    <hyperlink r:id="rId54" ref="P248"/>
+    <hyperlink r:id="rId55" ref="G249"/>
+    <hyperlink r:id="rId56" ref="J249"/>
+    <hyperlink r:id="rId57" ref="G251"/>
+    <hyperlink r:id="rId58" ref="J251"/>
+    <hyperlink r:id="rId59" ref="P251"/>
+    <hyperlink r:id="rId60" ref="G252"/>
+    <hyperlink r:id="rId61" ref="J252"/>
+    <hyperlink r:id="rId62" ref="G253"/>
+    <hyperlink r:id="rId63" ref="J253"/>
+    <hyperlink r:id="rId64" ref="G254"/>
+    <hyperlink r:id="rId65" ref="J254"/>
+    <hyperlink r:id="rId66" ref="G256"/>
+    <hyperlink r:id="rId67" ref="J256"/>
+    <hyperlink r:id="rId68" ref="G258"/>
+    <hyperlink r:id="rId69" ref="J258"/>
+    <hyperlink r:id="rId70" ref="P258"/>
+    <hyperlink r:id="rId71" ref="G262"/>
+    <hyperlink r:id="rId72" ref="J262"/>
+    <hyperlink r:id="rId73" ref="G263"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId16"/>
+  <drawing r:id="rId74"/>
 </worksheet>
 </file>
--- a/data/polid_data/instrumental_variable_est.xlsx
+++ b/data/polid_data/instrumental_variable_est.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="1799">
   <si>
     <t>polid</t>
   </si>
@@ -2033,6 +2033,12 @@
   </si>
   <si>
     <t>903,9052</t>
+  </si>
+  <si>
+    <t>1886-01-08</t>
+  </si>
+  <si>
+    <t>http://hans.is-s.info/genweb/cate-del/cate-delframeset.htm?cate-del000011.htm</t>
   </si>
   <si>
     <t>00557</t>
@@ -5096,6 +5102,9 @@
     <t>https://www.genealogieonline.nl/en/stamboom-van-verseveld/I297.php</t>
   </si>
   <si>
+    <t>vader niet in Tafel V-bis kantoor Weesp, moeder is memorienummer 2/1356 (kantoor Weesp) maar niet op logische plek te vinden</t>
+  </si>
+  <si>
     <t>01460</t>
   </si>
   <si>
@@ -5117,6 +5126,12 @@
     <t>https://www.genealogieonline.nl/families-klein-ree-ea/I131619.php</t>
   </si>
   <si>
+    <t>vader niet in online archief, nummer 6737 of 6836</t>
+  </si>
+  <si>
+    <t>moeder niet in online archief, nummer 6724 of 6824</t>
+  </si>
+  <si>
     <t>01470</t>
   </si>
   <si>
@@ -5156,6 +5171,9 @@
     <t>https://www.genealogieonline.nl/en/stamboom-ocken/I03927.php</t>
   </si>
   <si>
+    <t>vader gevonden</t>
+  </si>
+  <si>
     <t>01494</t>
   </si>
   <si>
@@ -5177,6 +5195,9 @@
     <t>1901-11-17</t>
   </si>
   <si>
+    <t>Oudenbosch niet online voor 1901</t>
+  </si>
+  <si>
     <t>01507</t>
   </si>
   <si>
@@ -5237,7 +5258,7 @@
     <t>1892-04-06</t>
   </si>
   <si>
-    <t>https://www.genealogieonline.nl/stamboom-driessen/I73243784.php</t>
+    <t>https://www.genealogieonline.nl/en/stamboom-baris/I27687.php</t>
   </si>
   <si>
     <t>Ermelo</t>
@@ -5246,7 +5267,10 @@
     <t>1892-10-11</t>
   </si>
   <si>
-    <t>https://www.genealogieonline.nl/stamboom-driessen/I73243785.php</t>
+    <t>https://www.genealogieonline.nl/en/stamboom-baris/I27649.php</t>
+  </si>
+  <si>
+    <t>moeder memorienummer is 6639 (Gelders Archief), maar niet op logische plek te vinden</t>
   </si>
   <si>
     <t>01522</t>
@@ -5405,10 +5429,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -5432,13 +5456,13 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
     <font>
       <u/>
       <sz val="12.0"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <u/>
       <sz val="12.0"/>
@@ -5448,6 +5472,10 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5464,7 +5492,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5491,25 +5519,31 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -8672,20 +8706,31 @@
       <c r="E97" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="I97" s="1"/>
+      <c r="I97" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>31</v>
@@ -8694,16 +8739,16 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>31</v>
@@ -8712,45 +8757,45 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F100" s="4">
         <v>1823.0</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>238</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>31</v>
@@ -8759,69 +8804,69 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F103" s="4">
         <v>1853.0</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>158</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>158</v>
@@ -8832,16 +8877,16 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>31</v>
@@ -8850,31 +8895,31 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F105" s="4">
         <v>1875.0</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>124</v>
@@ -8885,130 +8930,130 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="J107" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="K107" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="L108" s="4">
         <v>83735.58</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>31</v>
@@ -9017,37 +9062,37 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="L110" s="4">
         <v>169512.84</v>
@@ -9055,51 +9100,51 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>31</v>
@@ -9108,37 +9153,37 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>500</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M113" s="4">
         <v>127368.77</v>
@@ -9146,34 +9191,34 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>124</v>
@@ -9182,118 +9227,118 @@
         <v>3491.84</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="I115" s="1"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="J116" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="F117" s="4">
-        <v>1907.0</v>
+        <v>801</v>
+      </c>
+      <c r="F117" s="10">
+        <v>2678.0</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="J117" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="K117" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>31</v>
@@ -9302,66 +9347,66 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F119" s="4">
         <v>1847.0</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="J120" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="K120" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>818</v>
       </c>
       <c r="L120" s="4">
         <v>14697.36</v>
@@ -9369,86 +9414,86 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="J121" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="K121" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="J122" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>31</v>
@@ -9457,34 +9502,34 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>124</v>
@@ -9495,16 +9540,16 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>31</v>
@@ -9513,37 +9558,37 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="J126" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="M126" s="4">
         <v>53898.67</v>
@@ -9551,25 +9596,25 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>158</v>
@@ -9580,89 +9625,89 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="I128" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="J128" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="J128" s="4" t="s">
-        <v>872</v>
-      </c>
       <c r="K128" s="1" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="O129" s="4" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="P129" s="4" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>31</v>
@@ -9671,16 +9716,16 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>31</v>
@@ -9689,16 +9734,16 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>31</v>
@@ -9707,34 +9752,34 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>211</v>
@@ -9745,16 +9790,16 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>31</v>
@@ -9763,16 +9808,16 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>31</v>
@@ -9781,34 +9826,34 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="K136" s="4" t="s">
         <v>560</v>
@@ -9819,34 +9864,34 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="K137" s="4" t="s">
         <v>24</v>
@@ -9860,16 +9905,16 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>31</v>
@@ -9878,16 +9923,16 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>31</v>
@@ -9896,72 +9941,72 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="J140" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>941</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="L141" s="4">
         <v>277.86</v>
@@ -9969,34 +10014,34 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F142" s="9">
         <v>4817.0</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="K142" s="4" t="s">
         <v>639</v>
@@ -10007,16 +10052,16 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>31</v>
@@ -10025,73 +10070,73 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="I144" s="1"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="I145" s="1"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="L146" s="2">
         <v>2709.58</v>
@@ -10099,16 +10144,16 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>31</v>
@@ -10117,16 +10162,16 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>31</v>
@@ -10135,37 +10180,37 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="J149" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>994</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>992</v>
       </c>
       <c r="L149" s="4">
         <v>42288.73</v>
@@ -10173,113 +10218,113 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="J150" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>1003</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="J151" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>1012</v>
-      </c>
-      <c r="K151" s="4" t="s">
-        <v>1010</v>
       </c>
       <c r="N151" s="4">
         <v>9635.78</v>
       </c>
       <c r="O151" s="4" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="P151" s="4" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="K152" s="4" t="s">
         <v>124</v>
@@ -10287,25 +10332,25 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>385</v>
@@ -10314,7 +10359,7 @@
         <v>611</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="K153" s="4" t="s">
         <v>385</v>
@@ -10323,33 +10368,33 @@
         <v>95125.32</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="P153" s="4" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>385</v>
@@ -10358,7 +10403,7 @@
         <v>611</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="K154" s="4" t="s">
         <v>385</v>
@@ -10367,24 +10412,24 @@
         <v>95125.32</v>
       </c>
       <c r="O154" s="4" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="P154" s="4" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>31</v>
@@ -10393,81 +10438,81 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="N156" s="4">
         <v>145719.99</v>
       </c>
       <c r="O156" s="4" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="P156" s="4" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="M157" s="4">
         <v>28021.75</v>
@@ -10475,16 +10520,16 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>31</v>
@@ -10493,34 +10538,34 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="K159" s="4" t="s">
         <v>49</v>
@@ -10531,7 +10576,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>478</v>
@@ -10540,60 +10585,60 @@
         <v>19</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>303</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="K161" s="4" t="s">
         <v>303</v>
@@ -10602,93 +10647,93 @@
         <v>2362.21</v>
       </c>
       <c r="O161" s="4" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H162" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H162" s="11" t="s">
         <v>560</v>
       </c>
       <c r="I162" s="9" t="s">
         <v>139</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="10"/>
-      <c r="I163" s="10"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>1106</v>
-      </c>
-      <c r="G164" s="10" t="s">
-        <v>1107</v>
-      </c>
-      <c r="H164" s="10" t="s">
         <v>1108</v>
       </c>
+      <c r="G164" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>1110</v>
+      </c>
       <c r="I164" s="9" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="K164" s="4" t="s">
         <v>317</v>
@@ -10696,34 +10741,34 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>1116</v>
-      </c>
-      <c r="H165" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G165" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H165" s="11" t="s">
         <v>178</v>
       </c>
       <c r="I165" s="9">
         <v>8088.0</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="K165" s="4" t="s">
         <v>178</v>
@@ -10734,78 +10779,78 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G166" s="10" t="s">
-        <v>1123</v>
-      </c>
-      <c r="H166" s="10" t="s">
         <v>1124</v>
       </c>
+      <c r="G166" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>1126</v>
+      </c>
       <c r="I166" s="9" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="N166" s="4">
         <v>125139.03</v>
       </c>
       <c r="O166" s="4" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="P166" s="4" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G167" s="10" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H167" s="10" t="s">
         <v>1136</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>1138</v>
       </c>
       <c r="I167" s="9">
         <v>7357.0</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="K167" s="4" t="s">
         <v>124</v>
@@ -10816,37 +10861,37 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G168" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H168" s="10" t="s">
         <v>1144</v>
       </c>
+      <c r="G168" s="11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>1146</v>
+      </c>
       <c r="I168" s="9" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="J168" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>1146</v>
-      </c>
-      <c r="K168" s="4" t="s">
-        <v>1144</v>
       </c>
       <c r="M168" s="4">
         <v>1716278.92</v>
@@ -10854,37 +10899,37 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G169" s="10" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H169" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H169" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I169" s="9">
         <v>4747.0</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="L169" s="4">
         <v>516252.76</v>
@@ -10892,125 +10937,125 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
-      <c r="H170" s="10"/>
-      <c r="I170" s="10"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="F171" s="9">
         <v>5423.0</v>
       </c>
-      <c r="G171" s="10" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H171" s="10" t="s">
-        <v>1162</v>
+      <c r="G171" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>1164</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="J171" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>1164</v>
-      </c>
-      <c r="K171" s="4" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G172" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H172" s="10" t="s">
         <v>1171</v>
       </c>
+      <c r="G172" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>1173</v>
+      </c>
       <c r="I172" s="9" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="J172" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>1173</v>
-      </c>
-      <c r="K172" s="4" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="I173" s="1"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>31</v>
@@ -11019,34 +11064,34 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="K175" s="4" t="s">
         <v>158</v>
@@ -11054,16 +11099,16 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>31</v>
@@ -11072,25 +11117,25 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="H177" s="4" t="s">
         <v>560</v>
@@ -11099,7 +11144,7 @@
         <v>294</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="L177" s="4">
         <v>87871.98</v>
@@ -11107,16 +11152,16 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>31</v>
@@ -11125,37 +11170,37 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="L179" s="4">
         <v>485818.1</v>
@@ -11163,69 +11208,69 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="K181" s="4" t="s">
         <v>124</v>
@@ -11236,37 +11281,37 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L182" s="2">
         <v>243004.02</v>
@@ -11274,34 +11319,34 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="K183" s="4" t="s">
         <v>385</v>
@@ -11309,55 +11354,55 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="I184" s="1"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="K185" s="4" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="L185" s="2">
         <v>16172.66</v>
@@ -11365,34 +11410,34 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="H186" s="4" t="s">
         <v>158</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="K186" s="4" t="s">
         <v>303</v>
@@ -11403,37 +11448,37 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="L187" s="2">
         <v>-6537.85</v>
@@ -11441,72 +11486,75 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="F188" s="9">
         <v>1864.0</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>1280</v>
+        <v>1282</v>
+      </c>
+      <c r="N188" s="2">
+        <v>227132.83</v>
       </c>
       <c r="O188" s="4" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="P188" s="4" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="F189" s="9">
         <v>308.0</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>1287</v>
-      </c>
-      <c r="H189" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H189" s="13" t="s">
         <v>158</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="K189" s="4" t="s">
         <v>658</v>
@@ -11517,61 +11565,61 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="F190" s="9">
         <v>4542.0</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="I190" s="1"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>178</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="K191" s="4" t="s">
         <v>178</v>
@@ -11579,37 +11627,37 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="I192" s="9" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="J192" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>1312</v>
-      </c>
-      <c r="K192" s="4" t="s">
-        <v>1310</v>
       </c>
       <c r="M192" s="2">
         <v>95590.0</v>
@@ -11617,16 +11665,16 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>31</v>
@@ -11635,51 +11683,51 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>31</v>
@@ -11688,16 +11736,16 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>31</v>
@@ -11706,98 +11754,98 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="H197" s="4" t="s">
         <v>325</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="K197" s="4" t="s">
         <v>325</v>
       </c>
       <c r="O197" s="4" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="P197" s="4" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="F198" s="2">
         <v>1930.0</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="J198" s="7" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="P198" s="7" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="Q198" s="7" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>31</v>
@@ -11806,57 +11854,57 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="H200" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="K200" s="4" t="s">
         <v>64</v>
       </c>
       <c r="O200" s="4" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="P200" s="4" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>31</v>
@@ -11865,16 +11913,16 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>31</v>
@@ -11883,34 +11931,34 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="F203" s="9">
         <v>8534.0</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="H203" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="K203" s="4" t="s">
         <v>64</v>
@@ -11918,51 +11966,51 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="F204" s="9" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="J204" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>1385</v>
-      </c>
-      <c r="K204" s="4" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>31</v>
@@ -11971,16 +12019,16 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>31</v>
@@ -11989,16 +12037,16 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>31</v>
@@ -12007,60 +12055,60 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="N208" s="4">
         <v>859340.53</v>
       </c>
       <c r="O208" s="4" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="P208" s="4" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>31</v>
@@ -12069,113 +12117,113 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="O210" s="4" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="P210" s="4" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="J211" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>1429</v>
       </c>
-      <c r="K211" s="4" t="s">
-        <v>1427</v>
-      </c>
       <c r="O211" s="2" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="J212" s="4" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="K212" s="4" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="L212" s="2">
         <v>240980.42</v>
@@ -12183,16 +12231,16 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>31</v>
@@ -12201,37 +12249,37 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F214" s="13" t="s">
-        <v>1448</v>
+        <v>1449</v>
+      </c>
+      <c r="F214" s="14" t="s">
+        <v>1450</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="J214" s="7" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="K214" s="2" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="L214" s="2">
         <v>412453.68</v>
@@ -12239,60 +12287,60 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="I215" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J215" s="4" t="s">
         <v>1459</v>
       </c>
-      <c r="J215" s="4" t="s">
-        <v>1457</v>
-      </c>
       <c r="K215" s="1" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="M215" s="4">
         <v>2440955.74</v>
       </c>
       <c r="O215" s="4" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -12306,68 +12354,68 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>124</v>
       </c>
       <c r="L217" s="6" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>1478</v>
-      </c>
-      <c r="G218" s="14" t="s">
-        <v>1479</v>
+        <v>1480</v>
+      </c>
+      <c r="G218" s="15" t="s">
+        <v>1481</v>
       </c>
       <c r="H218" s="6" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -12378,19 +12426,19 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -12404,19 +12452,19 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -12430,60 +12478,60 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G221" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
+      </c>
+      <c r="G221" s="15" t="s">
+        <v>1496</v>
       </c>
       <c r="H221" s="6" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="I221" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="J221" s="15" t="s">
         <v>1496</v>
       </c>
-      <c r="J221" s="14" t="s">
-        <v>1494</v>
-      </c>
       <c r="K221" s="6" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="2" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="P221" s="7" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>31</v>
@@ -12500,16 +12548,16 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>31</v>
@@ -12526,16 +12574,16 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>31</v>
@@ -12552,16 +12600,16 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>31</v>
@@ -12578,37 +12626,37 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>1516</v>
-      </c>
-      <c r="G226" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
+      </c>
+      <c r="G226" s="15" t="s">
+        <v>1519</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>1519</v>
-      </c>
-      <c r="J226" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="J226" s="15" t="s">
+        <v>1522</v>
+      </c>
+      <c r="K226" s="6" t="s">
         <v>1520</v>
-      </c>
-      <c r="K226" s="6" t="s">
-        <v>1518</v>
       </c>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
@@ -12616,25 +12664,25 @@
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>1525</v>
-      </c>
-      <c r="G227" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
+      </c>
+      <c r="G227" s="15" t="s">
+        <v>1528</v>
       </c>
       <c r="H227" s="6" t="s">
         <v>303</v>
@@ -12643,84 +12691,84 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="6" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>1532</v>
-      </c>
-      <c r="G228" s="14" t="s">
-        <v>1533</v>
+        <v>1534</v>
+      </c>
+      <c r="G228" s="15" t="s">
+        <v>1535</v>
       </c>
       <c r="H228" s="6" t="s">
         <v>436</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>1534</v>
-      </c>
-      <c r="J228" s="14" t="s">
-        <v>1535</v>
+        <v>1536</v>
+      </c>
+      <c r="J228" s="15" t="s">
+        <v>1537</v>
       </c>
       <c r="K228" s="6" t="s">
         <v>436</v>
       </c>
       <c r="L228" s="6" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>1541</v>
-      </c>
-      <c r="G229" s="14" t="s">
-        <v>1542</v>
+        <v>1543</v>
+      </c>
+      <c r="G229" s="15" t="s">
+        <v>1544</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>1544</v>
-      </c>
-      <c r="J229" s="14" t="s">
-        <v>1545</v>
+        <v>1546</v>
+      </c>
+      <c r="J229" s="15" t="s">
+        <v>1547</v>
       </c>
       <c r="K229" s="6" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
@@ -12728,54 +12776,54 @@
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>1551</v>
-      </c>
-      <c r="G230" s="14" t="s">
-        <v>1552</v>
+        <v>1553</v>
+      </c>
+      <c r="G230" s="15" t="s">
+        <v>1554</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>1553</v>
-      </c>
-      <c r="J230" s="14" t="s">
-        <v>1552</v>
+        <v>1555</v>
+      </c>
+      <c r="J230" s="15" t="s">
+        <v>1554</v>
       </c>
       <c r="K230" s="1"/>
       <c r="L230" s="6" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>31</v>
@@ -12784,37 +12832,37 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F232" s="13" t="s">
-        <v>1562</v>
+        <v>1563</v>
+      </c>
+      <c r="F232" s="14" t="s">
+        <v>1564</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="J232" s="7" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="K232" s="2" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="L232" s="2">
         <v>7850.63</v>
@@ -12822,32 +12870,32 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1570</v>
-      </c>
-      <c r="F233" s="13" t="s">
-        <v>1571</v>
+        <v>1572</v>
+      </c>
+      <c r="F233" s="14" t="s">
+        <v>1573</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I233" s="1"/>
       <c r="J233" s="7" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="L233" s="2">
         <v>37328.13</v>
@@ -12855,168 +12903,168 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1577</v>
-      </c>
-      <c r="F234" s="13" t="s">
-        <v>1578</v>
+        <v>1579</v>
+      </c>
+      <c r="F234" s="14" t="s">
+        <v>1580</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J234" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K234" s="2" t="s">
         <v>1582</v>
-      </c>
-      <c r="K234" s="2" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1586</v>
-      </c>
-      <c r="F235" s="15" t="s">
-        <v>1587</v>
+        <v>1588</v>
+      </c>
+      <c r="F235" s="16" t="s">
+        <v>1589</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>1589</v>
-      </c>
-      <c r="J235" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K235" s="2" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1593</v>
-      </c>
-      <c r="F236" s="13" t="s">
-        <v>1594</v>
+        <v>1595</v>
+      </c>
+      <c r="F236" s="14" t="s">
+        <v>1596</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>293</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J236" s="16" t="s">
-        <v>1597</v>
+        <v>1598</v>
+      </c>
+      <c r="J236" s="17" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F237" s="13">
+        <v>1603</v>
+      </c>
+      <c r="F237" s="14">
         <v>7304.0</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="J237" s="7" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="F238" s="13" t="s">
-        <v>1609</v>
+        <v>1610</v>
+      </c>
+      <c r="F238" s="14" t="s">
+        <v>1611</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="J238" s="7" t="s">
+        <v>1615</v>
+      </c>
+      <c r="K238" s="2" t="s">
         <v>1613</v>
-      </c>
-      <c r="K238" s="2" t="s">
-        <v>1611</v>
       </c>
       <c r="L238" s="2">
         <v>21403.43</v>
@@ -13024,113 +13072,113 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F239" s="13" t="s">
-        <v>1618</v>
+        <v>1619</v>
+      </c>
+      <c r="F239" s="14" t="s">
+        <v>1620</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="J239" s="7" t="s">
+        <v>1624</v>
+      </c>
+      <c r="K239" s="2" t="s">
         <v>1622</v>
       </c>
-      <c r="K239" s="2" t="s">
-        <v>1620</v>
-      </c>
       <c r="O239" s="2" t="s">
-        <v>1623</v>
-      </c>
-      <c r="P239" s="16" t="s">
-        <v>1624</v>
+        <v>1625</v>
+      </c>
+      <c r="P239" s="17" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F240" s="13" t="s">
-        <v>1629</v>
+        <v>1630</v>
+      </c>
+      <c r="F240" s="14" t="s">
+        <v>1631</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="H240" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="J240" s="7" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="K240" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="L240" s="12">
+      <c r="L240" s="13">
         <v>21402.32</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1636</v>
-      </c>
-      <c r="F241" s="13" t="s">
-        <v>1637</v>
+        <v>1638</v>
+      </c>
+      <c r="F241" s="14" t="s">
+        <v>1639</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="J241" s="7" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="K241" s="2" t="s">
         <v>124</v>
@@ -13141,69 +13189,69 @@
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="F242" s="9" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="H242" s="4" t="s">
         <v>560</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="K242" s="4" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F243" s="13" t="s">
-        <v>1654</v>
+        <v>1655</v>
+      </c>
+      <c r="F243" s="14" t="s">
+        <v>1656</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="H243" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="J243" s="7" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="K243" s="2" t="s">
         <v>132</v>
@@ -13214,84 +13262,84 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="F244" s="13">
+        <v>1663</v>
+      </c>
+      <c r="F244" s="14">
         <v>12116.0</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="I244" s="1"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F245" s="13" t="s">
-        <v>1667</v>
+      <c r="F245" s="14" t="s">
+        <v>1669</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="J245" s="7" t="s">
+        <v>1673</v>
+      </c>
+      <c r="K245" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="K245" s="2" t="s">
-        <v>1669</v>
-      </c>
-      <c r="O245" s="16" t="s">
-        <v>1672</v>
+      <c r="O245" s="17" t="s">
+        <v>1674</v>
       </c>
       <c r="P245" s="2" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>31</v>
@@ -13300,16 +13348,16 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>31</v>
@@ -13318,92 +13366,101 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1683</v>
-      </c>
-      <c r="F248" s="13" t="s">
-        <v>1684</v>
-      </c>
-      <c r="G248" s="7" t="s">
         <v>1685</v>
       </c>
+      <c r="F248" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G248" s="17" t="s">
+        <v>1687</v>
+      </c>
       <c r="H248" s="2" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="I248" s="6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J248" s="7" t="s">
         <v>1687</v>
       </c>
-      <c r="J248" s="7" t="s">
-        <v>1685</v>
-      </c>
       <c r="K248" s="2" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="O248" s="2" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="P248" s="7" t="s">
-        <v>1689</v>
+        <v>1691</v>
+      </c>
+      <c r="Q248" s="13" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F249" s="13">
+        <v>1696</v>
+      </c>
+      <c r="F249" s="14">
         <v>3692.0</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="H249" s="2" t="s">
         <v>560</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="J249" s="7" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="K249" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="O249" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="P249" s="2" t="s">
+        <v>1701</v>
+      </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>1697</v>
+        <v>1702</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1699</v>
+        <v>1704</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>31</v>
@@ -13412,140 +13469,149 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1702</v>
+        <v>1707</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1703</v>
-      </c>
-      <c r="F251" s="13" t="s">
-        <v>1704</v>
+        <v>1708</v>
+      </c>
+      <c r="F251" s="14" t="s">
+        <v>1709</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>1705</v>
+        <v>1710</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>325</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>1706</v>
+        <v>1711</v>
       </c>
       <c r="J251" s="7" t="s">
-        <v>1707</v>
+        <v>1712</v>
       </c>
       <c r="K251" s="2" t="s">
         <v>325</v>
       </c>
       <c r="O251" s="2" t="s">
-        <v>1708</v>
+        <v>1713</v>
       </c>
       <c r="P251" s="7" t="s">
-        <v>1709</v>
+        <v>1714</v>
+      </c>
+      <c r="Q251" s="2" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>1710</v>
+        <v>1716</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F252" s="13">
+        <v>1719</v>
+      </c>
+      <c r="F252" s="14">
         <v>426.0</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>1714</v>
+        <v>1720</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>1715</v>
+        <v>1721</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>1716</v>
+        <v>1722</v>
       </c>
       <c r="J252" s="7" t="s">
-        <v>1714</v>
+        <v>1720</v>
       </c>
       <c r="K252" s="2" t="s">
-        <v>1715</v>
+        <v>1721</v>
+      </c>
+      <c r="O252" s="2" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>1717</v>
+        <v>1724</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1718</v>
+        <v>1725</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1719</v>
+        <v>1726</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F253" s="13" t="s">
-        <v>1721</v>
+        <v>1727</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>1728</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>1722</v>
+        <v>1729</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="I253" s="1"/>
       <c r="J253" s="7" t="s">
-        <v>1724</v>
+        <v>1731</v>
+      </c>
+      <c r="O253" s="2" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>1725</v>
+        <v>1732</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1726</v>
+        <v>1733</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1728</v>
-      </c>
-      <c r="F254" s="13" t="s">
-        <v>1729</v>
+        <v>1735</v>
+      </c>
+      <c r="F254" s="14" t="s">
+        <v>1736</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
       <c r="J254" s="7" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
       <c r="K254" s="2" t="s">
         <v>49</v>
@@ -13553,83 +13619,95 @@
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>1733</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>1726</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>1736</v>
-      </c>
-      <c r="G255" s="4" t="s">
-        <v>1737</v>
+        <v>1743</v>
+      </c>
+      <c r="G255" s="18" t="s">
+        <v>1744</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>1738</v>
+        <v>1745</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>1739</v>
-      </c>
-      <c r="J255" s="4" t="s">
-        <v>1740</v>
+        <v>1746</v>
+      </c>
+      <c r="J255" s="7" t="s">
+        <v>1747</v>
       </c>
       <c r="K255" s="4" t="s">
-        <v>1738</v>
+        <v>1745</v>
+      </c>
+      <c r="L255" s="2">
+        <v>7408.26</v>
+      </c>
+      <c r="O255" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="P255" s="2" t="s">
+        <v>1748</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>1741</v>
+        <v>1749</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1744</v>
-      </c>
-      <c r="F256" s="13" t="s">
-        <v>1745</v>
+        <v>1752</v>
+      </c>
+      <c r="F256" s="14" t="s">
+        <v>1753</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="J256" s="7" t="s">
-        <v>1749</v>
+        <v>1757</v>
+      </c>
+      <c r="L256" s="2">
+        <v>285277.25</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>31</v>
@@ -13638,57 +13716,57 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="F258" s="13" t="s">
-        <v>1757</v>
+        <v>1764</v>
+      </c>
+      <c r="F258" s="14" t="s">
+        <v>1765</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="J258" s="7" t="s">
-        <v>1760</v>
-      </c>
-      <c r="K258" s="12" t="s">
+        <v>1768</v>
+      </c>
+      <c r="K258" s="13" t="s">
         <v>124</v>
       </c>
       <c r="O258" s="2" t="s">
-        <v>1761</v>
-      </c>
-      <c r="P258" s="16" t="s">
-        <v>1762</v>
+        <v>1769</v>
+      </c>
+      <c r="P258" s="17" t="s">
+        <v>1770</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>31</v>
@@ -13697,51 +13775,51 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
       <c r="F260" s="9">
         <v>3484.0</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>1772</v>
+        <v>1780</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="K260" s="4" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>31</v>
@@ -13750,57 +13828,57 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="F262" s="2">
         <v>1839.0</v>
       </c>
       <c r="G262" s="7" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="I262" s="6" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="J262" s="7" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F263" s="13" t="s">
-        <v>1788</v>
+        <v>1795</v>
+      </c>
+      <c r="F263" s="14" t="s">
+        <v>1796</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="I263" s="1"/>
       <c r="L263" s="2">
@@ -16025,79 +16103,82 @@
     <hyperlink r:id="rId2" ref="G31"/>
     <hyperlink r:id="rId3" ref="J31"/>
     <hyperlink r:id="rId4" ref="G33"/>
-    <hyperlink r:id="rId5" ref="P102"/>
-    <hyperlink r:id="rId6" ref="G165"/>
-    <hyperlink r:id="rId7" ref="G198"/>
-    <hyperlink r:id="rId8" ref="J198"/>
-    <hyperlink r:id="rId9" ref="P198"/>
-    <hyperlink r:id="rId10" ref="Q198"/>
-    <hyperlink r:id="rId11" ref="G214"/>
-    <hyperlink r:id="rId12" ref="J214"/>
-    <hyperlink r:id="rId13" ref="G218"/>
-    <hyperlink r:id="rId14" ref="G221"/>
-    <hyperlink r:id="rId15" ref="J221"/>
-    <hyperlink r:id="rId16" ref="P221"/>
-    <hyperlink r:id="rId17" ref="G226"/>
-    <hyperlink r:id="rId18" ref="J226"/>
-    <hyperlink r:id="rId19" ref="G227"/>
-    <hyperlink r:id="rId20" ref="G228"/>
-    <hyperlink r:id="rId21" ref="J228"/>
-    <hyperlink r:id="rId22" ref="G229"/>
-    <hyperlink r:id="rId23" ref="J229"/>
-    <hyperlink r:id="rId24" ref="G230"/>
-    <hyperlink r:id="rId25" ref="J230"/>
-    <hyperlink r:id="rId26" ref="G232"/>
-    <hyperlink r:id="rId27" ref="J232"/>
-    <hyperlink r:id="rId28" ref="G233"/>
-    <hyperlink r:id="rId29" ref="J233"/>
-    <hyperlink r:id="rId30" ref="G234"/>
-    <hyperlink r:id="rId31" ref="J234"/>
-    <hyperlink r:id="rId32" ref="G235"/>
-    <hyperlink r:id="rId33" ref="G236"/>
-    <hyperlink r:id="rId34" ref="J236"/>
-    <hyperlink r:id="rId35" ref="G237"/>
-    <hyperlink r:id="rId36" ref="J237"/>
-    <hyperlink r:id="rId37" ref="G238"/>
-    <hyperlink r:id="rId38" ref="J238"/>
-    <hyperlink r:id="rId39" ref="G239"/>
-    <hyperlink r:id="rId40" ref="J239"/>
-    <hyperlink r:id="rId41" ref="P239"/>
-    <hyperlink r:id="rId42" ref="G240"/>
-    <hyperlink r:id="rId43" ref="J240"/>
-    <hyperlink r:id="rId44" ref="G241"/>
-    <hyperlink r:id="rId45" ref="J241"/>
-    <hyperlink r:id="rId46" ref="G243"/>
-    <hyperlink r:id="rId47" ref="J243"/>
-    <hyperlink r:id="rId48" ref="G244"/>
-    <hyperlink r:id="rId49" ref="G245"/>
-    <hyperlink r:id="rId50" ref="J245"/>
-    <hyperlink r:id="rId51" ref="O245"/>
-    <hyperlink r:id="rId52" ref="G248"/>
-    <hyperlink r:id="rId53" ref="J248"/>
-    <hyperlink r:id="rId54" ref="P248"/>
-    <hyperlink r:id="rId55" ref="G249"/>
-    <hyperlink r:id="rId56" ref="J249"/>
-    <hyperlink r:id="rId57" ref="G251"/>
-    <hyperlink r:id="rId58" ref="J251"/>
-    <hyperlink r:id="rId59" ref="P251"/>
-    <hyperlink r:id="rId60" ref="G252"/>
-    <hyperlink r:id="rId61" ref="J252"/>
-    <hyperlink r:id="rId62" ref="G253"/>
-    <hyperlink r:id="rId63" ref="J253"/>
-    <hyperlink r:id="rId64" ref="G254"/>
-    <hyperlink r:id="rId65" ref="J254"/>
-    <hyperlink r:id="rId66" ref="G256"/>
-    <hyperlink r:id="rId67" ref="J256"/>
-    <hyperlink r:id="rId68" ref="G258"/>
-    <hyperlink r:id="rId69" ref="J258"/>
-    <hyperlink r:id="rId70" ref="P258"/>
-    <hyperlink r:id="rId71" ref="G262"/>
-    <hyperlink r:id="rId72" ref="J262"/>
-    <hyperlink r:id="rId73" ref="G263"/>
+    <hyperlink r:id="rId5" ref="J97"/>
+    <hyperlink r:id="rId6" ref="P102"/>
+    <hyperlink r:id="rId7" ref="G165"/>
+    <hyperlink r:id="rId8" ref="G198"/>
+    <hyperlink r:id="rId9" ref="J198"/>
+    <hyperlink r:id="rId10" ref="P198"/>
+    <hyperlink r:id="rId11" ref="Q198"/>
+    <hyperlink r:id="rId12" ref="G214"/>
+    <hyperlink r:id="rId13" ref="J214"/>
+    <hyperlink r:id="rId14" ref="G218"/>
+    <hyperlink r:id="rId15" ref="G221"/>
+    <hyperlink r:id="rId16" ref="J221"/>
+    <hyperlink r:id="rId17" ref="P221"/>
+    <hyperlink r:id="rId18" ref="G226"/>
+    <hyperlink r:id="rId19" ref="J226"/>
+    <hyperlink r:id="rId20" ref="G227"/>
+    <hyperlink r:id="rId21" ref="G228"/>
+    <hyperlink r:id="rId22" ref="J228"/>
+    <hyperlink r:id="rId23" ref="G229"/>
+    <hyperlink r:id="rId24" ref="J229"/>
+    <hyperlink r:id="rId25" ref="G230"/>
+    <hyperlink r:id="rId26" ref="J230"/>
+    <hyperlink r:id="rId27" ref="G232"/>
+    <hyperlink r:id="rId28" ref="J232"/>
+    <hyperlink r:id="rId29" ref="G233"/>
+    <hyperlink r:id="rId30" ref="J233"/>
+    <hyperlink r:id="rId31" ref="G234"/>
+    <hyperlink r:id="rId32" ref="J234"/>
+    <hyperlink r:id="rId33" ref="G235"/>
+    <hyperlink r:id="rId34" ref="G236"/>
+    <hyperlink r:id="rId35" ref="J236"/>
+    <hyperlink r:id="rId36" ref="G237"/>
+    <hyperlink r:id="rId37" ref="J237"/>
+    <hyperlink r:id="rId38" ref="G238"/>
+    <hyperlink r:id="rId39" ref="J238"/>
+    <hyperlink r:id="rId40" ref="G239"/>
+    <hyperlink r:id="rId41" ref="J239"/>
+    <hyperlink r:id="rId42" ref="P239"/>
+    <hyperlink r:id="rId43" ref="G240"/>
+    <hyperlink r:id="rId44" ref="J240"/>
+    <hyperlink r:id="rId45" ref="G241"/>
+    <hyperlink r:id="rId46" ref="J241"/>
+    <hyperlink r:id="rId47" ref="G243"/>
+    <hyperlink r:id="rId48" ref="J243"/>
+    <hyperlink r:id="rId49" ref="G244"/>
+    <hyperlink r:id="rId50" ref="G245"/>
+    <hyperlink r:id="rId51" ref="J245"/>
+    <hyperlink r:id="rId52" ref="O245"/>
+    <hyperlink r:id="rId53" ref="G248"/>
+    <hyperlink r:id="rId54" ref="J248"/>
+    <hyperlink r:id="rId55" ref="P248"/>
+    <hyperlink r:id="rId56" ref="G249"/>
+    <hyperlink r:id="rId57" ref="J249"/>
+    <hyperlink r:id="rId58" ref="G251"/>
+    <hyperlink r:id="rId59" ref="J251"/>
+    <hyperlink r:id="rId60" ref="P251"/>
+    <hyperlink r:id="rId61" ref="G252"/>
+    <hyperlink r:id="rId62" ref="J252"/>
+    <hyperlink r:id="rId63" ref="G253"/>
+    <hyperlink r:id="rId64" ref="J253"/>
+    <hyperlink r:id="rId65" ref="G254"/>
+    <hyperlink r:id="rId66" ref="J254"/>
+    <hyperlink r:id="rId67" ref="G255"/>
+    <hyperlink r:id="rId68" ref="J255"/>
+    <hyperlink r:id="rId69" ref="G256"/>
+    <hyperlink r:id="rId70" ref="J256"/>
+    <hyperlink r:id="rId71" ref="G258"/>
+    <hyperlink r:id="rId72" ref="J258"/>
+    <hyperlink r:id="rId73" ref="P258"/>
+    <hyperlink r:id="rId74" ref="G262"/>
+    <hyperlink r:id="rId75" ref="J262"/>
+    <hyperlink r:id="rId76" ref="G263"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId74"/>
+  <drawing r:id="rId77"/>
 </worksheet>
 </file>
--- a/data/polid_data/instrumental_variable_est.xlsx
+++ b/data/polid_data/instrumental_variable_est.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="1800">
   <si>
     <t>polid</t>
   </si>
@@ -4178,6 +4178,9 @@
   </si>
   <si>
     <t>https://www.genealogieonline.nl/stamboom_klavers/I266445.php</t>
+  </si>
+  <si>
+    <t>niet te vinden</t>
   </si>
   <si>
     <t>01194</t>
@@ -7649,6 +7652,9 @@
       <c r="K59" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="M59" s="2">
+        <v>95156.29</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
@@ -9481,6 +9487,9 @@
       <c r="K122" s="1" t="s">
         <v>838</v>
       </c>
+      <c r="L122" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
@@ -11351,6 +11360,9 @@
       <c r="K183" s="4" t="s">
         <v>385</v>
       </c>
+      <c r="L183" s="2">
+        <v>36766.03</v>
+      </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
@@ -11963,6 +11975,9 @@
       <c r="K203" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="L203" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
@@ -11998,19 +12013,22 @@
       <c r="K204" s="4" t="s">
         <v>1385</v>
       </c>
+      <c r="O204" s="2" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>31</v>
@@ -12019,16 +12037,16 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>31</v>
@@ -12037,16 +12055,16 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>31</v>
@@ -12055,60 +12073,60 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="N208" s="4">
         <v>859340.53</v>
       </c>
       <c r="O208" s="4" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="P208" s="4" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>31</v>
@@ -12117,113 +12135,113 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="O210" s="4" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="P210" s="4" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="I211" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="J211" s="4" t="s">
-        <v>1431</v>
-      </c>
-      <c r="K211" s="4" t="s">
-        <v>1429</v>
-      </c>
       <c r="O211" s="2" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="J212" s="4" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="K212" s="4" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="L212" s="2">
         <v>240980.42</v>
@@ -12231,16 +12249,16 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>31</v>
@@ -12249,34 +12267,34 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>1173</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="J214" s="7" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="K214" s="2" t="s">
         <v>1173</v>
@@ -12287,60 +12305,60 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H215" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J215" s="4" t="s">
         <v>1460</v>
       </c>
-      <c r="I215" s="1" t="s">
+      <c r="K215" s="1" t="s">
         <v>1461</v>
-      </c>
-      <c r="J215" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="K215" s="1" t="s">
-        <v>1460</v>
       </c>
       <c r="M215" s="4">
         <v>2440955.74</v>
       </c>
       <c r="O215" s="4" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -12354,68 +12372,68 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>124</v>
       </c>
       <c r="L217" s="6" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="G218" s="15" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H218" s="6" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -12426,19 +12444,19 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -12452,19 +12470,19 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -12478,60 +12496,60 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H221" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I221" s="6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J221" s="15" t="s">
         <v>1497</v>
       </c>
-      <c r="I221" s="6" t="s">
-        <v>1498</v>
-      </c>
-      <c r="J221" s="15" t="s">
-        <v>1496</v>
-      </c>
       <c r="K221" s="6" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="P221" s="7" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>31</v>
@@ -12548,16 +12566,16 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>31</v>
@@ -12574,16 +12592,16 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>31</v>
@@ -12600,16 +12618,16 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>31</v>
@@ -12626,37 +12644,37 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="G226" s="15" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="I226" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="J226" s="15" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K226" s="6" t="s">
         <v>1521</v>
-      </c>
-      <c r="J226" s="15" t="s">
-        <v>1522</v>
-      </c>
-      <c r="K226" s="6" t="s">
-        <v>1520</v>
       </c>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
@@ -12664,25 +12682,25 @@
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="G227" s="15" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H227" s="6" t="s">
         <v>303</v>
@@ -12691,84 +12709,84 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="6" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H228" s="6" t="s">
         <v>436</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="J228" s="15" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="K228" s="6" t="s">
         <v>436</v>
       </c>
       <c r="L228" s="6" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="G229" s="15" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="J229" s="15" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="K229" s="6" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
@@ -12776,54 +12794,54 @@
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="G230" s="15" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>1213</v>
       </c>
       <c r="I230" s="6" t="s">
+        <v>1556</v>
+      </c>
+      <c r="J230" s="15" t="s">
         <v>1555</v>
-      </c>
-      <c r="J230" s="15" t="s">
-        <v>1554</v>
       </c>
       <c r="K230" s="1"/>
       <c r="L230" s="6" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>31</v>
@@ -12832,37 +12850,37 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="F232" s="14" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="J232" s="7" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="K232" s="2" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="L232" s="2">
         <v>7850.63</v>
@@ -12870,32 +12888,32 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I233" s="1"/>
       <c r="J233" s="7" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="L233" s="2">
         <v>37328.13</v>
@@ -12903,66 +12921,66 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="I234" s="6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J234" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K234" s="2" t="s">
         <v>1583</v>
-      </c>
-      <c r="J234" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="K234" s="2" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F235" s="16" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="K235" s="2" t="s">
         <v>575</v>
@@ -12970,101 +12988,101 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="F236" s="14" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>293</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="J236" s="17" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="F237" s="14">
         <v>7304.0</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="J237" s="7" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="F238" s="14" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="I238" s="6" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J238" s="7" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K238" s="2" t="s">
         <v>1614</v>
-      </c>
-      <c r="J238" s="7" t="s">
-        <v>1615</v>
-      </c>
-      <c r="K238" s="2" t="s">
-        <v>1613</v>
       </c>
       <c r="L238" s="2">
         <v>21403.43</v>
@@ -13072,75 +13090,75 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="F239" s="14" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="I239" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J239" s="7" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K239" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="J239" s="7" t="s">
-        <v>1624</v>
-      </c>
-      <c r="K239" s="2" t="s">
-        <v>1622</v>
-      </c>
       <c r="O239" s="2" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="P239" s="17" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H240" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="J240" s="7" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="K240" s="2" t="s">
         <v>124</v>
@@ -13151,34 +13169,34 @@
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="J241" s="7" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="K241" s="2" t="s">
         <v>124</v>
@@ -13189,69 +13207,69 @@
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="F242" s="9" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="H242" s="4" t="s">
         <v>560</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="K242" s="4" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H243" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="J243" s="7" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="K243" s="2" t="s">
         <v>132</v>
@@ -13262,84 +13280,84 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="F244" s="14">
         <v>12116.0</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="I244" s="1"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F245" s="14" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="I245" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="J245" s="7" t="s">
+        <v>1674</v>
+      </c>
+      <c r="K245" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="J245" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="K245" s="2" t="s">
-        <v>1671</v>
-      </c>
       <c r="O245" s="17" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="P245" s="2" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>31</v>
@@ -13348,16 +13366,16 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>31</v>
@@ -13366,101 +13384,101 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="F248" s="14" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="G248" s="17" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="H248" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I248" s="6" t="s">
+        <v>1690</v>
+      </c>
+      <c r="J248" s="7" t="s">
         <v>1688</v>
       </c>
-      <c r="I248" s="6" t="s">
+      <c r="K248" s="2" t="s">
         <v>1689</v>
       </c>
-      <c r="J248" s="7" t="s">
-        <v>1687</v>
-      </c>
-      <c r="K248" s="2" t="s">
-        <v>1688</v>
-      </c>
       <c r="O248" s="2" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="P248" s="7" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="Q248" s="13" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="F249" s="14">
         <v>3692.0</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="H249" s="2" t="s">
         <v>560</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="J249" s="7" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="K249" s="2" t="s">
         <v>560</v>
       </c>
       <c r="O249" s="2" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="P249" s="2" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>31</v>
@@ -13469,149 +13487,149 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>325</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="J251" s="7" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="K251" s="2" t="s">
         <v>325</v>
       </c>
       <c r="O251" s="2" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="P251" s="7" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="Q251" s="2" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="F252" s="14">
         <v>426.0</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="H252" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I252" s="6" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J252" s="7" t="s">
         <v>1721</v>
       </c>
-      <c r="I252" s="6" t="s">
+      <c r="K252" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="J252" s="7" t="s">
-        <v>1720</v>
-      </c>
-      <c r="K252" s="2" t="s">
-        <v>1721</v>
-      </c>
       <c r="O252" s="2" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="I253" s="1"/>
       <c r="J253" s="7" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="O253" s="2" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="F254" s="14" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J254" s="7" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="K254" s="2" t="s">
         <v>49</v>
@@ -13619,78 +13637,78 @@
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="G255" s="18" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="I255" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="J255" s="7" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>1746</v>
-      </c>
-      <c r="J255" s="7" t="s">
-        <v>1747</v>
-      </c>
-      <c r="K255" s="4" t="s">
-        <v>1745</v>
       </c>
       <c r="L255" s="2">
         <v>7408.26</v>
       </c>
       <c r="O255" s="2" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="P255" s="2" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="J256" s="7" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="L256" s="2">
         <v>285277.25</v>
@@ -13698,16 +13716,16 @@
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>31</v>
@@ -13716,57 +13734,57 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="F258" s="14" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="J258" s="7" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="K258" s="13" t="s">
         <v>124</v>
       </c>
       <c r="O258" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P258" s="17" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>31</v>
@@ -13775,51 +13793,51 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="F260" s="9">
         <v>3484.0</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="K260" s="4" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>31</v>
@@ -13828,57 +13846,57 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="F262" s="2">
         <v>1839.0</v>
       </c>
       <c r="G262" s="7" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="I262" s="6" t="s">
+        <v>1792</v>
+      </c>
+      <c r="J262" s="7" t="s">
         <v>1791</v>
-      </c>
-      <c r="J262" s="7" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="I263" s="1"/>
       <c r="L263" s="2">

--- a/data/polid_data/instrumental_variable_est.xlsx
+++ b/data/polid_data/instrumental_variable_est.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="1800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1809">
   <si>
     <t>polid</t>
   </si>
@@ -4315,7 +4315,7 @@
     <t>https://www.openarch.nl/rzh:ffe47998-07f0-48fe-900e-d620b977a529</t>
   </si>
   <si>
-    <t>kantoor Schiedam ZH?</t>
+    <t>kantoor Vianen?</t>
   </si>
   <si>
     <t>01246</t>
@@ -4664,6 +4664,9 @@
   </si>
   <si>
     <t>Stiens (Leeuwarden)</t>
+  </si>
+  <si>
+    <t>108936.78</t>
   </si>
   <si>
     <t>01384</t>
@@ -5043,7 +5046,7 @@
   <si>
     <r>
       <rPr/>
-      <t xml:space="preserve">Inventarisnummer 247: </t>
+      <t xml:space="preserve">Vader inventarisnummer 247: </t>
     </r>
     <r>
       <rPr>
@@ -5174,57 +5177,63 @@
     <t>https://www.genealogieonline.nl/en/stamboom-ocken/I03927.php</t>
   </si>
   <si>
+    <t>vader en moeder gevonden</t>
+  </si>
+  <si>
+    <t>01494</t>
+  </si>
+  <si>
+    <t>van Vuuren</t>
+  </si>
+  <si>
+    <t>1932-04-02</t>
+  </si>
+  <si>
+    <t>33061,8547</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwj_1dPW6r7wAhWV7qQKHXu_BCgQFjAGegQICRAD&amp;url=https%3A%2F%2Fdspace.library.uu.nl%2Fbitstream%2Fhandle%2F1874%2F212452%2FHEEM_1978-02_3.pdf%3Fsequence%3D1&amp;usg=AOvVaw3qSU_youVoYuy6j0biFJbf</t>
+  </si>
+  <si>
+    <t>Oudenbosch</t>
+  </si>
+  <si>
+    <t>1901-11-17</t>
+  </si>
+  <si>
+    <t>Oudenbosch niet online voor 1901</t>
+  </si>
+  <si>
+    <t>01507</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>1900-01-23</t>
+  </si>
+  <si>
+    <t>14338,5300</t>
+  </si>
+  <si>
+    <t>1877-04-17</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Rudolphus-Joannes-Nepomucenus-Walter/6000000083358296276</t>
+  </si>
+  <si>
+    <t>Grave</t>
+  </si>
+  <si>
+    <t>niet gevonden</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Maria-Joanna-Anna-Janssens/6000000083358847011</t>
+  </si>
+  <si>
     <t>vader gevonden</t>
   </si>
   <si>
-    <t>01494</t>
-  </si>
-  <si>
-    <t>van Vuuren</t>
-  </si>
-  <si>
-    <t>1932-04-02</t>
-  </si>
-  <si>
-    <t>33061,8547</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwj_1dPW6r7wAhWV7qQKHXu_BCgQFjAGegQICRAD&amp;url=https%3A%2F%2Fdspace.library.uu.nl%2Fbitstream%2Fhandle%2F1874%2F212452%2FHEEM_1978-02_3.pdf%3Fsequence%3D1&amp;usg=AOvVaw3qSU_youVoYuy6j0biFJbf</t>
-  </si>
-  <si>
-    <t>Oudenbosch</t>
-  </si>
-  <si>
-    <t>1901-11-17</t>
-  </si>
-  <si>
-    <t>Oudenbosch niet online voor 1901</t>
-  </si>
-  <si>
-    <t>01507</t>
-  </si>
-  <si>
-    <t>Walter</t>
-  </si>
-  <si>
-    <t>1900-01-23</t>
-  </si>
-  <si>
-    <t>14338,5300</t>
-  </si>
-  <si>
-    <t>1877-04-17</t>
-  </si>
-  <si>
-    <t>https://www.geni.com/people/Rudolphus-Joannes-Nepomucenus-Walter/6000000083358296276</t>
-  </si>
-  <si>
-    <t>Grave</t>
-  </si>
-  <si>
-    <t>https://www.geni.com/people/Maria-Joanna-Anna-Janssens/6000000083358847011</t>
-  </si>
-  <si>
     <t>01509</t>
   </si>
   <si>
@@ -5249,6 +5258,9 @@
     <t>https://www.genealogieonline.nl/en/stamboom-baris/I27735.php</t>
   </si>
   <si>
+    <t>kan vader en moeder niet vinden in Tafel V-bis va Arnhem</t>
+  </si>
+  <si>
     <t>01510</t>
   </si>
   <si>
@@ -5378,6 +5390,9 @@
     <t>Nice</t>
   </si>
   <si>
+    <t>buitenlandse archieven</t>
+  </si>
+  <si>
     <t>01583</t>
   </si>
   <si>
@@ -5399,10 +5414,16 @@
     <t>156458,2225</t>
   </si>
   <si>
+    <t>1839-06-24</t>
+  </si>
+  <si>
     <t>https://www.genealogieonline.nl/en/berkemeijer-genealogie/I102967.php</t>
   </si>
   <si>
-    <t>1854</t>
+    <t>1854-06-13</t>
+  </si>
+  <si>
+    <t>vader niet in online archief, moeder gevonden</t>
   </si>
   <si>
     <t>01613</t>
@@ -5424,6 +5445,12 @@
   </si>
   <si>
     <t>Twisk</t>
+  </si>
+  <si>
+    <t>https://www.wiewaswie.nl/nl/detail/32198268</t>
+  </si>
+  <si>
+    <t>vader gevonden, moeder overleden in 1857, is niet beschikbaar voor kantoor Medemblik</t>
   </si>
 </sst>
 </file>
@@ -5459,13 +5486,13 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
     <font>
       <u/>
       <sz val="12.0"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <u/>
       <sz val="12.0"/>
@@ -5522,19 +5549,16 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -5547,6 +5571,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -6982,6 +7009,9 @@
       <c r="K40" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="L40" s="2">
+        <v>17600.0</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
@@ -9006,6 +9036,9 @@
       <c r="K107" s="1" t="s">
         <v>730</v>
       </c>
+      <c r="L107" s="2">
+        <v>12630.35</v>
+      </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
@@ -9981,6 +10014,9 @@
       </c>
       <c r="K140" s="4" t="s">
         <v>941</v>
+      </c>
+      <c r="M140" s="2">
+        <v>59724.15</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
@@ -10999,6 +11035,12 @@
       <c r="K171" s="4" t="s">
         <v>1164</v>
       </c>
+      <c r="L171" s="2">
+        <v>13941.75</v>
+      </c>
+      <c r="M171" s="2">
+        <v>14500.0</v>
+      </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
@@ -11249,6 +11291,9 @@
       <c r="K180" s="4" t="s">
         <v>981</v>
       </c>
+      <c r="L180" s="2">
+        <v>47625.35</v>
+      </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
@@ -11559,7 +11604,7 @@
       <c r="G189" s="4" t="s">
         <v>1289</v>
       </c>
-      <c r="H189" s="13" t="s">
+      <c r="H189" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I189" s="1" t="s">
@@ -12205,7 +12250,7 @@
       <c r="K211" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="O211" s="2" t="s">
+      <c r="O211" s="13" t="s">
         <v>1433</v>
       </c>
     </row>
@@ -12281,7 +12326,7 @@
       <c r="E214" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="F214" s="14" t="s">
+      <c r="F214" s="10" t="s">
         <v>1451</v>
       </c>
       <c r="G214" s="7" t="s">
@@ -12429,7 +12474,7 @@
       <c r="F218" s="6" t="s">
         <v>1481</v>
       </c>
-      <c r="G218" s="15" t="s">
+      <c r="G218" s="14" t="s">
         <v>1482</v>
       </c>
       <c r="H218" s="6" t="s">
@@ -12513,7 +12558,7 @@
       <c r="F221" s="6" t="s">
         <v>1496</v>
       </c>
-      <c r="G221" s="15" t="s">
+      <c r="G221" s="14" t="s">
         <v>1497</v>
       </c>
       <c r="H221" s="6" t="s">
@@ -12522,7 +12567,7 @@
       <c r="I221" s="6" t="s">
         <v>1499</v>
       </c>
-      <c r="J221" s="15" t="s">
+      <c r="J221" s="14" t="s">
         <v>1497</v>
       </c>
       <c r="K221" s="6" t="s">
@@ -12661,7 +12706,7 @@
       <c r="F226" s="6" t="s">
         <v>1519</v>
       </c>
-      <c r="G226" s="15" t="s">
+      <c r="G226" s="14" t="s">
         <v>1520</v>
       </c>
       <c r="H226" s="6" t="s">
@@ -12670,7 +12715,7 @@
       <c r="I226" s="6" t="s">
         <v>1522</v>
       </c>
-      <c r="J226" s="15" t="s">
+      <c r="J226" s="14" t="s">
         <v>1523</v>
       </c>
       <c r="K226" s="6" t="s">
@@ -12699,7 +12744,7 @@
       <c r="F227" s="6" t="s">
         <v>1528</v>
       </c>
-      <c r="G227" s="15" t="s">
+      <c r="G227" s="14" t="s">
         <v>1529</v>
       </c>
       <c r="H227" s="6" t="s">
@@ -12733,7 +12778,7 @@
       <c r="F228" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="G228" s="15" t="s">
+      <c r="G228" s="14" t="s">
         <v>1536</v>
       </c>
       <c r="H228" s="6" t="s">
@@ -12742,7 +12787,7 @@
       <c r="I228" s="6" t="s">
         <v>1537</v>
       </c>
-      <c r="J228" s="15" t="s">
+      <c r="J228" s="14" t="s">
         <v>1538</v>
       </c>
       <c r="K228" s="6" t="s">
@@ -12773,7 +12818,7 @@
       <c r="F229" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="G229" s="15" t="s">
+      <c r="G229" s="14" t="s">
         <v>1545</v>
       </c>
       <c r="H229" s="6" t="s">
@@ -12782,66 +12827,68 @@
       <c r="I229" s="6" t="s">
         <v>1547</v>
       </c>
-      <c r="J229" s="15" t="s">
+      <c r="J229" s="14" t="s">
         <v>1548</v>
       </c>
       <c r="K229" s="6" t="s">
         <v>1549</v>
       </c>
-      <c r="L229" s="1"/>
+      <c r="L229" s="6" t="s">
+        <v>1550</v>
+      </c>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>1554</v>
-      </c>
-      <c r="G230" s="15" t="s">
         <v>1555</v>
+      </c>
+      <c r="G230" s="14" t="s">
+        <v>1556</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>1213</v>
       </c>
       <c r="I230" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="J230" s="14" t="s">
         <v>1556</v>
-      </c>
-      <c r="J230" s="15" t="s">
-        <v>1555</v>
       </c>
       <c r="K230" s="1"/>
       <c r="L230" s="6" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>31</v>
@@ -12850,37 +12897,37 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F232" s="14" t="s">
         <v>1565</v>
       </c>
+      <c r="F232" s="10" t="s">
+        <v>1566</v>
+      </c>
       <c r="G232" s="7" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="J232" s="7" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="K232" s="2" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="L232" s="2">
         <v>7850.63</v>
@@ -12888,32 +12935,32 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F233" s="14" t="s">
         <v>1574</v>
       </c>
+      <c r="F233" s="10" t="s">
+        <v>1575</v>
+      </c>
       <c r="G233" s="7" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I233" s="1"/>
       <c r="J233" s="7" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="L233" s="2">
         <v>37328.13</v>
@@ -12921,66 +12968,69 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="F234" s="14" t="s">
         <v>1581</v>
       </c>
+      <c r="F234" s="10" t="s">
+        <v>1582</v>
+      </c>
       <c r="G234" s="7" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="I234" s="6" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J234" s="7" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K234" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="J234" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="K234" s="2" t="s">
-        <v>1583</v>
+      <c r="L234" s="2">
+        <v>4140.0</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1589</v>
-      </c>
-      <c r="F235" s="16" t="s">
         <v>1590</v>
       </c>
+      <c r="F235" s="15" t="s">
+        <v>1591</v>
+      </c>
       <c r="G235" s="7" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="K235" s="2" t="s">
         <v>575</v>
@@ -12988,101 +13038,104 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1596</v>
-      </c>
-      <c r="F236" s="14" t="s">
         <v>1597</v>
       </c>
+      <c r="F236" s="10" t="s">
+        <v>1598</v>
+      </c>
       <c r="G236" s="7" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>293</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>1599</v>
-      </c>
-      <c r="J236" s="17" t="s">
         <v>1600</v>
+      </c>
+      <c r="J236" s="16" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1604</v>
-      </c>
-      <c r="F237" s="14">
+        <v>1605</v>
+      </c>
+      <c r="F237" s="10">
         <v>7304.0</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="J237" s="7" t="s">
-        <v>1607</v>
+        <v>1608</v>
+      </c>
+      <c r="L237" s="2">
+        <v>40489.56</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="F238" s="14" t="s">
         <v>1612</v>
       </c>
+      <c r="F238" s="10" t="s">
+        <v>1613</v>
+      </c>
       <c r="G238" s="7" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="I238" s="6" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J238" s="7" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K238" s="2" t="s">
         <v>1615</v>
-      </c>
-      <c r="J238" s="7" t="s">
-        <v>1616</v>
-      </c>
-      <c r="K238" s="2" t="s">
-        <v>1614</v>
       </c>
       <c r="L238" s="2">
         <v>21403.43</v>
@@ -13090,113 +13143,113 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="F239" s="14" t="s">
         <v>1621</v>
       </c>
+      <c r="F239" s="10" t="s">
+        <v>1622</v>
+      </c>
       <c r="G239" s="7" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="I239" s="6" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J239" s="7" t="s">
+        <v>1626</v>
+      </c>
+      <c r="K239" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="J239" s="7" t="s">
-        <v>1625</v>
-      </c>
-      <c r="K239" s="2" t="s">
-        <v>1623</v>
-      </c>
       <c r="O239" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="P239" s="17" t="s">
         <v>1627</v>
+      </c>
+      <c r="P239" s="16" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F240" s="14" t="s">
         <v>1632</v>
       </c>
+      <c r="F240" s="10" t="s">
+        <v>1633</v>
+      </c>
       <c r="G240" s="7" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H240" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="J240" s="7" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="K240" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="L240" s="13">
+      <c r="L240" s="2">
         <v>21402.32</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="F241" s="14" t="s">
         <v>1640</v>
       </c>
+      <c r="F241" s="10" t="s">
+        <v>1641</v>
+      </c>
       <c r="G241" s="7" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="J241" s="7" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="K241" s="2" t="s">
         <v>124</v>
@@ -13207,69 +13260,69 @@
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="F242" s="9" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H242" s="4" t="s">
         <v>560</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="K242" s="4" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F243" s="14" t="s">
         <v>1657</v>
       </c>
+      <c r="F243" s="10" t="s">
+        <v>1658</v>
+      </c>
       <c r="G243" s="7" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H243" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J243" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="K243" s="2" t="s">
         <v>132</v>
@@ -13280,84 +13333,87 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F244" s="14">
+        <v>1665</v>
+      </c>
+      <c r="F244" s="10">
         <v>12116.0</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="I244" s="1"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F245" s="14" t="s">
-        <v>1670</v>
+      <c r="F245" s="10" t="s">
+        <v>1671</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="I245" s="6" t="s">
+        <v>1674</v>
+      </c>
+      <c r="J245" s="7" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K245" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="J245" s="7" t="s">
-        <v>1674</v>
-      </c>
-      <c r="K245" s="2" t="s">
-        <v>1672</v>
-      </c>
-      <c r="O245" s="17" t="s">
-        <v>1675</v>
+      <c r="L245" s="2">
+        <v>230.0</v>
+      </c>
+      <c r="O245" s="16" t="s">
+        <v>1676</v>
       </c>
       <c r="P245" s="2" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>31</v>
@@ -13366,16 +13422,16 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>31</v>
@@ -13384,101 +13440,101 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="F248" s="14" t="s">
         <v>1687</v>
       </c>
-      <c r="G248" s="17" t="s">
+      <c r="F248" s="10" t="s">
         <v>1688</v>
       </c>
+      <c r="G248" s="16" t="s">
+        <v>1689</v>
+      </c>
       <c r="H248" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I248" s="6" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J248" s="7" t="s">
         <v>1689</v>
       </c>
-      <c r="I248" s="6" t="s">
+      <c r="K248" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="J248" s="7" t="s">
-        <v>1688</v>
-      </c>
-      <c r="K248" s="2" t="s">
-        <v>1689</v>
-      </c>
       <c r="O248" s="2" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="P248" s="7" t="s">
-        <v>1692</v>
-      </c>
-      <c r="Q248" s="13" t="s">
         <v>1693</v>
+      </c>
+      <c r="Q248" s="2" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="F249" s="14">
+        <v>1698</v>
+      </c>
+      <c r="F249" s="10">
         <v>3692.0</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H249" s="2" t="s">
         <v>560</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J249" s="7" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="K249" s="2" t="s">
         <v>560</v>
       </c>
       <c r="O249" s="2" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="P249" s="2" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>31</v>
@@ -13487,245 +13543,256 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F251" s="14" t="s">
         <v>1710</v>
       </c>
+      <c r="F251" s="10" t="s">
+        <v>1711</v>
+      </c>
       <c r="G251" s="7" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>325</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="J251" s="7" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="K251" s="2" t="s">
         <v>325</v>
       </c>
       <c r="O251" s="2" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="P251" s="7" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="Q251" s="2" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F252" s="14">
+        <v>1721</v>
+      </c>
+      <c r="F252" s="10">
         <v>426.0</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="H252" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I252" s="6" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J252" s="7" t="s">
         <v>1722</v>
       </c>
-      <c r="I252" s="6" t="s">
+      <c r="K252" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="J252" s="7" t="s">
-        <v>1721</v>
-      </c>
-      <c r="K252" s="2" t="s">
-        <v>1722</v>
-      </c>
       <c r="O252" s="2" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1728</v>
-      </c>
-      <c r="F253" s="14" t="s">
         <v>1729</v>
       </c>
+      <c r="F253" s="10" t="s">
+        <v>1730</v>
+      </c>
       <c r="G253" s="7" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>1731</v>
-      </c>
-      <c r="I253" s="1"/>
+        <v>1732</v>
+      </c>
+      <c r="I253" s="6" t="s">
+        <v>1733</v>
+      </c>
       <c r="J253" s="7" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="O253" s="2" t="s">
-        <v>1716</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1736</v>
-      </c>
-      <c r="F254" s="14" t="s">
-        <v>1737</v>
+        <v>1739</v>
+      </c>
+      <c r="F254" s="10" t="s">
+        <v>1740</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="J254" s="7" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="K254" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="O254" s="13" t="s">
+        <v>1744</v>
+      </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>1744</v>
-      </c>
-      <c r="G255" s="18" t="s">
-        <v>1745</v>
+        <v>1748</v>
+      </c>
+      <c r="G255" s="17" t="s">
+        <v>1749</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="J255" s="7" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="K255" s="4" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="L255" s="2">
         <v>7408.26</v>
       </c>
       <c r="O255" s="2" t="s">
-        <v>1716</v>
+        <v>1735</v>
       </c>
       <c r="P255" s="2" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1753</v>
-      </c>
-      <c r="F256" s="14" t="s">
-        <v>1754</v>
+        <v>1757</v>
+      </c>
+      <c r="F256" s="10" t="s">
+        <v>1758</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="J256" s="7" t="s">
-        <v>1758</v>
-      </c>
-      <c r="L256" s="2">
-        <v>285277.25</v>
+        <v>1762</v>
+      </c>
+      <c r="K256" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="L256" s="13">
+        <v>285277.52</v>
+      </c>
+      <c r="O256" s="13" t="s">
+        <v>1717</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>31</v>
@@ -13734,57 +13801,66 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1765</v>
-      </c>
-      <c r="F258" s="14" t="s">
-        <v>1766</v>
+        <v>1769</v>
+      </c>
+      <c r="F258" s="10" t="s">
+        <v>1770</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="J258" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="K258" s="13" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K258" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="L258" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M258" s="2">
+        <v>0.0</v>
+      </c>
       <c r="O258" s="2" t="s">
-        <v>1770</v>
-      </c>
-      <c r="P258" s="17" t="s">
-        <v>1771</v>
+        <v>1774</v>
+      </c>
+      <c r="P258" s="16" t="s">
+        <v>1775</v>
+      </c>
+      <c r="Q258" s="13" t="s">
+        <v>1717</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>31</v>
@@ -13793,51 +13869,54 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="F260" s="9">
         <v>3484.0</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="K260" s="4" t="s">
-        <v>1783</v>
+        <v>1787</v>
+      </c>
+      <c r="O260" s="2" t="s">
+        <v>1788</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>1784</v>
+        <v>1789</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1785</v>
+        <v>1790</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1786</v>
+        <v>1791</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>31</v>
@@ -13846,61 +13925,84 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>1787</v>
+        <v>1792</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1788</v>
+        <v>1793</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1789</v>
+        <v>1794</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1790</v>
-      </c>
-      <c r="F262" s="2">
-        <v>1839.0</v>
+        <v>1795</v>
+      </c>
+      <c r="F262" s="18" t="s">
+        <v>1796</v>
       </c>
       <c r="G262" s="7" t="s">
-        <v>1791</v>
+        <v>1797</v>
+      </c>
+      <c r="H262" s="13" t="s">
+        <v>1443</v>
       </c>
       <c r="I262" s="6" t="s">
-        <v>1792</v>
+        <v>1798</v>
       </c>
       <c r="J262" s="7" t="s">
-        <v>1791</v>
+        <v>1797</v>
+      </c>
+      <c r="K262" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M262" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O262" s="13" t="s">
+        <v>1799</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>1793</v>
+        <v>1800</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1794</v>
+        <v>1801</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1795</v>
+        <v>1802</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1796</v>
-      </c>
-      <c r="F263" s="14" t="s">
-        <v>1797</v>
+        <v>1803</v>
+      </c>
+      <c r="F263" s="10" t="s">
+        <v>1804</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>1798</v>
+        <v>1805</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>1799</v>
-      </c>
-      <c r="I263" s="1"/>
+        <v>1806</v>
+      </c>
+      <c r="I263" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J263" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="K263" s="2" t="s">
+        <v>1806</v>
+      </c>
       <c r="L263" s="2">
         <v>136429.8</v>
+      </c>
+      <c r="O263" s="13" t="s">
+        <v>1808</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
@@ -16193,10 +16295,11 @@
     <hyperlink r:id="rId74" ref="G262"/>
     <hyperlink r:id="rId75" ref="J262"/>
     <hyperlink r:id="rId76" ref="G263"/>
+    <hyperlink r:id="rId77" ref="J263"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId77"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>
--- a/data/polid_data/instrumental_variable_est.xlsx
+++ b/data/polid_data/instrumental_variable_est.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="1807">
   <si>
     <t>polid</t>
   </si>
@@ -1270,9 +1270,6 @@
     <t xml:space="preserve">Velp, Rheden (memorie maybe Utrecht?) </t>
   </si>
   <si>
-    <t>174561,72</t>
-  </si>
-  <si>
     <t>verzoek tot digitalisering ingediend by BHIC</t>
   </si>
   <si>
@@ -4277,9 +4274,6 @@
   </si>
   <si>
     <t>1849</t>
-  </si>
-  <si>
-    <t>21999,75</t>
   </si>
   <si>
     <t>vrouw overleden in 1879</t>
@@ -5482,6 +5476,7 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -5492,7 +5487,6 @@
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <u/>
       <sz val="12.0"/>
@@ -5545,7 +5539,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5555,11 +5552,8 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -5573,7 +5567,7 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -7567,82 +7561,82 @@
       <c r="K56" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="8">
+        <v>174561.72</v>
+      </c>
+      <c r="O56" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="K57" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="L57" s="4">
         <v>0.0</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L58" s="4">
         <v>9929219.06</v>
@@ -7650,34 +7644,34 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I59" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="J59" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>49</v>
@@ -7688,16 +7682,16 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>31</v>
@@ -7707,16 +7701,16 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>31</v>
@@ -7726,54 +7720,54 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I62" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>457</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>31</v>
@@ -7783,86 +7777,86 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="K64" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H65" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="K65" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>31</v>
@@ -7872,37 +7866,37 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="J67" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>493</v>
-      </c>
       <c r="K67" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L67" s="4">
         <v>61128.48</v>
@@ -7910,32 +7904,32 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="H68" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L68" s="4">
         <v>34586.5</v>
@@ -7943,37 +7937,37 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>82</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="J69" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="K69" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="L69" s="4">
         <v>11761.92</v>
@@ -7981,57 +7975,57 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="H70" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="J70" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N70" s="4">
         <v>160761.62</v>
       </c>
       <c r="O70" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="P70" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>31</v>
@@ -8041,16 +8035,16 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>31</v>
@@ -8060,34 +8054,34 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J73" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>534</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>124</v>
@@ -8101,16 +8095,16 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>31</v>
@@ -8120,16 +8114,16 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>31</v>
@@ -8139,16 +8133,16 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>31</v>
@@ -8158,16 +8152,16 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>31</v>
@@ -8177,23 +8171,23 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="F78" s="1"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>31</v>
@@ -8203,16 +8197,16 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>31</v>
@@ -8222,34 +8216,34 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="H81" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>562</v>
       </c>
       <c r="L81" s="4">
         <v>2367.0</v>
@@ -8257,16 +8251,16 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>31</v>
@@ -8276,72 +8270,72 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="K83" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I84" s="1" t="s">
+      <c r="J84" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="J84" s="4" t="s">
-        <v>583</v>
-      </c>
       <c r="K84" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M84" s="4">
         <v>1025136.75</v>
@@ -8349,16 +8343,16 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>31</v>
@@ -8368,37 +8362,37 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>592</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I86" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J86" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="K86" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="L86" s="4">
         <v>71015.22</v>
@@ -8406,69 +8400,69 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="H87" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="I87" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="J87" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>604</v>
-      </c>
       <c r="K87" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>610</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I88" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="J88" s="4" t="s">
         <v>611</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>612</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>124</v>
@@ -8476,34 +8470,34 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="4" t="s">
         <v>617</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>618</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I89" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="J89" s="4" t="s">
         <v>619</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>620</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>211</v>
@@ -8514,72 +8508,72 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="H90" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="J90" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="K90" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="4" t="s">
         <v>635</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>636</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I91" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="J91" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="K91" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="L91" s="4">
         <v>12147.62</v>
@@ -8587,16 +8581,16 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>31</v>
@@ -8605,34 +8599,34 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="J93" s="4" t="s">
         <v>650</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>651</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>317</v>
@@ -8640,31 +8634,31 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>655</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>178</v>
       </c>
       <c r="I94" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="J94" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="K94" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="M94" s="2">
         <v>370891.86</v>
@@ -8672,16 +8666,16 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>31</v>
@@ -8690,34 +8684,34 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="4" t="s">
         <v>666</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>667</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>64</v>
@@ -8728,25 +8722,25 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="I97" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="J97" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>674</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>158</v>
@@ -8757,16 +8751,16 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>31</v>
@@ -8775,16 +8769,16 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>31</v>
@@ -8793,45 +8787,45 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="F100" s="4">
         <v>1823.0</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>238</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>31</v>
@@ -8840,69 +8834,69 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="I102" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="O102" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="O102" s="4" t="s">
+      <c r="P102" s="9" t="s">
         <v>697</v>
-      </c>
-      <c r="P102" s="8" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="F103" s="4">
         <v>1853.0</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>158</v>
       </c>
       <c r="I103" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J103" s="4" t="s">
         <v>704</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>705</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>158</v>
@@ -8913,16 +8907,16 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>31</v>
@@ -8931,31 +8925,31 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>710</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>712</v>
       </c>
       <c r="F105" s="4">
         <v>1875.0</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>124</v>
@@ -8966,75 +8960,75 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="G106" s="4" t="s">
         <v>719</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I106" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="J106" s="4" t="s">
         <v>721</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>722</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="H107" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="J107" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="J107" s="4" t="s">
-        <v>732</v>
-      </c>
       <c r="K107" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L107" s="2">
         <v>12630.35</v>
@@ -9042,57 +9036,57 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="4" t="s">
         <v>737</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>738</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I108" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="K108" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="L108" s="4">
         <v>83735.58</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>743</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>31</v>
@@ -9101,37 +9095,37 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="4" t="s">
         <v>749</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>750</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I110" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="J110" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="J110" s="4" t="s">
+      <c r="K110" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="L110" s="4">
         <v>169512.84</v>
@@ -9139,51 +9133,51 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G111" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="H111" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="I111" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="J111" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="J111" s="4" t="s">
+      <c r="K111" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>764</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>31</v>
@@ -9192,37 +9186,37 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="H113" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="I113" s="1" t="s">
+      <c r="J113" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="J113" s="4" t="s">
+      <c r="K113" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="M113" s="4">
         <v>127368.77</v>
@@ -9230,34 +9224,34 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>776</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="F114" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="G114" s="4" t="s">
         <v>779</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>780</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I114" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="J114" s="4" t="s">
         <v>781</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>782</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>124</v>
@@ -9266,118 +9260,118 @@
         <v>3491.84</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>785</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G115" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="H115" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="I115" s="1"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>791</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="F116" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="G116" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="H116" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="I116" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="J116" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="J116" s="4" t="s">
-        <v>798</v>
-      </c>
       <c r="K116" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D117" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="F117" s="11">
+        <v>2678.0</v>
+      </c>
+      <c r="G117" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="F117" s="10">
-        <v>2678.0</v>
-      </c>
-      <c r="G117" s="4" t="s">
+      <c r="H117" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="I117" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="J117" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="J117" s="4" t="s">
-        <v>805</v>
-      </c>
       <c r="K117" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>807</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>31</v>
@@ -9386,66 +9380,66 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>812</v>
       </c>
       <c r="F119" s="4">
         <v>1847.0</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>815</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="G120" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="H120" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="I120" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="J120" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="J120" s="4" t="s">
-        <v>822</v>
-      </c>
       <c r="K120" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L120" s="4">
         <v>14697.36</v>
@@ -9453,72 +9447,72 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D121" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="G121" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="H121" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="I121" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="J121" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="J121" s="4" t="s">
-        <v>831</v>
-      </c>
       <c r="K121" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>833</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="G122" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="H122" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="I122" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="J122" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="J122" s="4" t="s">
-        <v>840</v>
-      </c>
       <c r="K122" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L122" s="2">
         <v>0.0</v>
@@ -9526,16 +9520,16 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>31</v>
@@ -9544,34 +9538,34 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>844</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="G124" s="4" t="s">
         <v>847</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>848</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I124" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="J124" s="4" t="s">
         <v>849</v>
-      </c>
-      <c r="J124" s="4" t="s">
-        <v>850</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>124</v>
@@ -9582,16 +9576,16 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>852</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>31</v>
@@ -9600,37 +9594,37 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>855</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="G126" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="H126" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="I126" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="I126" s="1" t="s">
+      <c r="J126" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="J126" s="4" t="s">
-        <v>862</v>
-      </c>
       <c r="K126" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M126" s="4">
         <v>53898.67</v>
@@ -9638,25 +9632,25 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>864</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="I127" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="J127" s="4" t="s">
         <v>867</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>868</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>158</v>
@@ -9667,89 +9661,89 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>870</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D128" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="G128" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="G128" s="4" t="s">
+      <c r="H128" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="I128" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="J128" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="K128" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>879</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D129" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="I129" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="I129" s="1" t="s">
+      <c r="J129" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="J129" s="4" t="s">
+      <c r="K129" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="K129" s="4" t="s">
+      <c r="O129" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="O129" s="4" t="s">
+      <c r="P129" s="4" t="s">
         <v>887</v>
-      </c>
-      <c r="P129" s="4" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>890</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>31</v>
@@ -9758,16 +9752,16 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>31</v>
@@ -9776,16 +9770,16 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>896</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>31</v>
@@ -9794,34 +9788,34 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>899</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="4" t="s">
         <v>902</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>903</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I133" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="J133" s="4" t="s">
         <v>904</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>905</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>211</v>
@@ -9832,16 +9826,16 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>907</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>31</v>
@@ -9850,16 +9844,16 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>31</v>
@@ -9868,37 +9862,37 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>913</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D136" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="F136" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="F136" s="9" t="s">
+      <c r="G136" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="G136" s="4" t="s">
+      <c r="H136" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="H136" s="4" t="s">
+      <c r="I136" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="I136" s="1" t="s">
+      <c r="J136" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="J136" s="4" t="s">
-        <v>920</v>
-      </c>
       <c r="K136" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L136" s="4">
         <v>1204126.08</v>
@@ -9906,34 +9900,34 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>922</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="F137" s="10" t="s">
         <v>924</v>
       </c>
-      <c r="F137" s="9" t="s">
+      <c r="G137" s="4" t="s">
         <v>925</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>926</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I137" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="J137" s="4" t="s">
         <v>927</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>928</v>
       </c>
       <c r="K137" s="4" t="s">
         <v>24</v>
@@ -9947,16 +9941,16 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>31</v>
@@ -9965,16 +9959,16 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>933</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>31</v>
@@ -9983,37 +9977,37 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>936</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="F140" s="10" t="s">
         <v>938</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="G140" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="H140" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="H140" s="4" t="s">
+      <c r="I140" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="J140" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="J140" s="4" t="s">
-        <v>943</v>
-      </c>
       <c r="K140" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M140" s="2">
         <v>59724.15</v>
@@ -10021,37 +10015,37 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>945</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="F141" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="F141" s="9" t="s">
+      <c r="G141" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="G141" s="4" t="s">
+      <c r="H141" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="H141" s="4" t="s">
+      <c r="I141" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="J141" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="J141" s="4" t="s">
+      <c r="K141" s="4" t="s">
         <v>952</v>
-      </c>
-      <c r="K141" s="4" t="s">
-        <v>953</v>
       </c>
       <c r="L141" s="4">
         <v>277.86</v>
@@ -10059,37 +10053,37 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>955</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D142" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="F142" s="10">
+        <v>4817.0</v>
+      </c>
+      <c r="G142" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="F142" s="9">
-        <v>4817.0</v>
-      </c>
-      <c r="G142" s="4" t="s">
+      <c r="H142" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="H142" s="4" t="s">
+      <c r="I142" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="I142" s="1" t="s">
+      <c r="J142" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="J142" s="4" t="s">
-        <v>961</v>
-      </c>
       <c r="K142" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L142" s="4">
         <v>290745.11</v>
@@ -10097,16 +10091,16 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>963</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>31</v>
@@ -10115,73 +10109,73 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D144" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>968</v>
       </c>
       <c r="I144" s="1"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>969</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>970</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D145" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>972</v>
       </c>
       <c r="I145" s="1"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>974</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="F146" s="10" t="s">
         <v>976</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="G146" s="4" t="s">
         <v>977</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>978</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I146" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="J146" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="J146" s="4" t="s">
+      <c r="K146" s="4" t="s">
         <v>980</v>
-      </c>
-      <c r="K146" s="4" t="s">
-        <v>981</v>
       </c>
       <c r="L146" s="2">
         <v>2709.58</v>
@@ -10189,16 +10183,16 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>983</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>31</v>
@@ -10207,16 +10201,16 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>986</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>31</v>
@@ -10225,37 +10219,37 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>989</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="F149" s="10" t="s">
         <v>991</v>
       </c>
-      <c r="F149" s="9" t="s">
+      <c r="G149" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="G149" s="4" t="s">
+      <c r="H149" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="H149" s="4" t="s">
+      <c r="I149" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="I149" s="1" t="s">
+      <c r="J149" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="J149" s="4" t="s">
-        <v>996</v>
-      </c>
       <c r="K149" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="L149" s="4">
         <v>42288.73</v>
@@ -10263,113 +10257,113 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>998</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D150" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="F150" s="10" t="s">
         <v>1000</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="G150" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="H150" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="H150" s="4" t="s">
+      <c r="I150" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="J150" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="J150" s="4" t="s">
-        <v>1005</v>
-      </c>
       <c r="K150" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>1007</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="F151" s="10" t="s">
         <v>1009</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="G151" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="G151" s="4" t="s">
+      <c r="H151" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="H151" s="4" t="s">
+      <c r="I151" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="J151" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="J151" s="4" t="s">
-        <v>1014</v>
-      </c>
       <c r="K151" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="N151" s="4">
         <v>9635.78</v>
       </c>
       <c r="O151" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P151" s="4" t="s">
         <v>1015</v>
-      </c>
-      <c r="P151" s="4" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="F152" s="10" t="s">
         <v>1020</v>
       </c>
-      <c r="F152" s="9" t="s">
+      <c r="G152" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="G152" s="4" t="s">
+      <c r="H152" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="H152" s="4" t="s">
+      <c r="I152" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="J152" s="4" t="s">
         <v>1024</v>
-      </c>
-      <c r="J152" s="4" t="s">
-        <v>1025</v>
       </c>
       <c r="K152" s="4" t="s">
         <v>124</v>
@@ -10377,34 +10371,34 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>1027</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D153" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="F153" s="10" t="s">
         <v>1029</v>
       </c>
-      <c r="F153" s="9" t="s">
+      <c r="G153" s="4" t="s">
         <v>1030</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>1031</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>385</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="K153" s="4" t="s">
         <v>385</v>
@@ -10413,42 +10407,42 @@
         <v>95125.32</v>
       </c>
       <c r="O153" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="P153" s="4" t="s">
         <v>1033</v>
-      </c>
-      <c r="P153" s="4" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D154" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F154" s="9" t="s">
+      <c r="F154" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G154" s="4" t="s">
         <v>1030</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>1031</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>385</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="K154" s="4" t="s">
         <v>385</v>
@@ -10457,24 +10451,24 @@
         <v>95125.32</v>
       </c>
       <c r="O154" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="P154" s="4" t="s">
         <v>1033</v>
-      </c>
-      <c r="P154" s="4" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>1040</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>31</v>
@@ -10483,81 +10477,81 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>1043</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D156" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="F156" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="F156" s="9" t="s">
+      <c r="G156" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="G156" s="4" t="s">
+      <c r="H156" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="H156" s="4" t="s">
+      <c r="I156" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="I156" s="1" t="s">
+      <c r="J156" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="J156" s="4" t="s">
+      <c r="K156" s="4" t="s">
         <v>1050</v>
-      </c>
-      <c r="K156" s="4" t="s">
-        <v>1051</v>
       </c>
       <c r="N156" s="4">
         <v>145719.99</v>
       </c>
       <c r="O156" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P156" s="4" t="s">
         <v>1052</v>
-      </c>
-      <c r="P156" s="4" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>1055</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D157" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="F157" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="F157" s="9" t="s">
+      <c r="G157" s="4" t="s">
         <v>1058</v>
       </c>
-      <c r="G157" s="4" t="s">
+      <c r="H157" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="H157" s="4" t="s">
+      <c r="I157" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="J157" s="4" t="s">
         <v>1061</v>
       </c>
-      <c r="J157" s="4" t="s">
+      <c r="K157" s="4" t="s">
         <v>1062</v>
-      </c>
-      <c r="K157" s="4" t="s">
-        <v>1063</v>
       </c>
       <c r="M157" s="4">
         <v>28021.75</v>
@@ -10565,16 +10559,16 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>1065</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>31</v>
@@ -10583,34 +10577,34 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>1068</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D159" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="F159" s="10" t="s">
         <v>1070</v>
       </c>
-      <c r="F159" s="9" t="s">
+      <c r="G159" s="4" t="s">
         <v>1071</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>1072</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I159" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J159" s="4" t="s">
         <v>1073</v>
-      </c>
-      <c r="J159" s="4" t="s">
-        <v>1074</v>
       </c>
       <c r="K159" s="4" t="s">
         <v>49</v>
@@ -10621,69 +10615,69 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D160" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="F160" s="10" t="s">
         <v>1077</v>
       </c>
-      <c r="F160" s="9" t="s">
+      <c r="G160" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="G160" s="4" t="s">
+      <c r="H160" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="H160" s="4" t="s">
+      <c r="I160" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="I160" s="1" t="s">
+      <c r="J160" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="J160" s="4" t="s">
+      <c r="K160" s="4" t="s">
         <v>1082</v>
-      </c>
-      <c r="K160" s="4" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>1085</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D161" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="F161" s="10" t="s">
         <v>1087</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="G161" s="4" t="s">
         <v>1088</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>1089</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>303</v>
       </c>
       <c r="I161" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J161" s="4" t="s">
         <v>1090</v>
-      </c>
-      <c r="J161" s="4" t="s">
-        <v>1091</v>
       </c>
       <c r="K161" s="4" t="s">
         <v>303</v>
@@ -10692,93 +10686,93 @@
         <v>2362.21</v>
       </c>
       <c r="O161" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>1094</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D162" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="F162" s="10" t="s">
         <v>1096</v>
       </c>
-      <c r="F162" s="9" t="s">
+      <c r="G162" s="12" t="s">
         <v>1097</v>
       </c>
-      <c r="G162" s="11" t="s">
+      <c r="H162" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="I162" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J162" s="4" t="s">
         <v>1098</v>
       </c>
-      <c r="H162" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="I162" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J162" s="4" t="s">
+      <c r="K162" s="4" t="s">
         <v>1099</v>
-      </c>
-      <c r="K162" s="4" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>1102</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="11"/>
-      <c r="I163" s="11"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>1105</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D164" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="F164" s="10" t="s">
         <v>1107</v>
       </c>
-      <c r="F164" s="9" t="s">
+      <c r="G164" s="12" t="s">
         <v>1108</v>
       </c>
-      <c r="G164" s="11" t="s">
+      <c r="H164" s="12" t="s">
         <v>1109</v>
       </c>
-      <c r="H164" s="11" t="s">
+      <c r="I164" s="10" t="s">
         <v>1110</v>
       </c>
-      <c r="I164" s="9" t="s">
+      <c r="J164" s="4" t="s">
         <v>1111</v>
-      </c>
-      <c r="J164" s="4" t="s">
-        <v>1112</v>
       </c>
       <c r="K164" s="4" t="s">
         <v>317</v>
@@ -10786,34 +10780,34 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>1114</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D165" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="F165" s="10" t="s">
         <v>1116</v>
       </c>
-      <c r="F165" s="9" t="s">
+      <c r="G165" s="13" t="s">
         <v>1117</v>
       </c>
-      <c r="G165" s="12" t="s">
+      <c r="H165" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I165" s="10">
+        <v>8088.0</v>
+      </c>
+      <c r="J165" s="4" t="s">
         <v>1118</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I165" s="9">
-        <v>8088.0</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>1119</v>
       </c>
       <c r="K165" s="4" t="s">
         <v>178</v>
@@ -10824,78 +10818,78 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D166" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="F166" s="10" t="s">
         <v>1123</v>
       </c>
-      <c r="F166" s="9" t="s">
+      <c r="G166" s="12" t="s">
         <v>1124</v>
       </c>
-      <c r="G166" s="11" t="s">
+      <c r="H166" s="12" t="s">
         <v>1125</v>
       </c>
-      <c r="H166" s="11" t="s">
+      <c r="I166" s="10" t="s">
         <v>1126</v>
       </c>
-      <c r="I166" s="9" t="s">
+      <c r="J166" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="J166" s="4" t="s">
+      <c r="K166" s="4" t="s">
         <v>1128</v>
-      </c>
-      <c r="K166" s="4" t="s">
-        <v>1129</v>
       </c>
       <c r="N166" s="4">
         <v>125139.03</v>
       </c>
       <c r="O166" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="P166" s="4" t="s">
         <v>1130</v>
-      </c>
-      <c r="P166" s="4" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>1133</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D167" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="F167" s="10" t="s">
         <v>1135</v>
       </c>
-      <c r="F167" s="9" t="s">
+      <c r="G167" s="12" t="s">
         <v>1136</v>
       </c>
-      <c r="G167" s="11" t="s">
+      <c r="H167" s="12" t="s">
         <v>1137</v>
       </c>
-      <c r="H167" s="11" t="s">
+      <c r="I167" s="10">
+        <v>7357.0</v>
+      </c>
+      <c r="J167" s="4" t="s">
         <v>1138</v>
-      </c>
-      <c r="I167" s="9">
-        <v>7357.0</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>1139</v>
       </c>
       <c r="K167" s="4" t="s">
         <v>124</v>
@@ -10906,37 +10900,37 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>1140</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>1141</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D168" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="F168" s="10" t="s">
         <v>1143</v>
       </c>
-      <c r="F168" s="9" t="s">
+      <c r="G168" s="12" t="s">
         <v>1144</v>
       </c>
-      <c r="G168" s="11" t="s">
+      <c r="H168" s="12" t="s">
         <v>1145</v>
       </c>
-      <c r="H168" s="11" t="s">
+      <c r="I168" s="10" t="s">
         <v>1146</v>
       </c>
-      <c r="I168" s="9" t="s">
+      <c r="J168" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>1148</v>
-      </c>
       <c r="K168" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="M168" s="4">
         <v>1716278.92</v>
@@ -10944,37 +10938,37 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>1150</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D169" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="F169" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G169" s="12" t="s">
         <v>1152</v>
       </c>
-      <c r="F169" s="9" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G169" s="11" t="s">
+      <c r="H169" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I169" s="10">
+        <v>4747.0</v>
+      </c>
+      <c r="J169" s="4" t="s">
         <v>1153</v>
       </c>
-      <c r="H169" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I169" s="9">
-        <v>4747.0</v>
-      </c>
-      <c r="J169" s="4" t="s">
+      <c r="K169" s="4" t="s">
         <v>1154</v>
-      </c>
-      <c r="K169" s="4" t="s">
-        <v>1155</v>
       </c>
       <c r="L169" s="4">
         <v>516252.76</v>
@@ -10982,58 +10976,58 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>1157</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="11"/>
-      <c r="I170" s="11"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>1160</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D171" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="F171" s="10">
+        <v>5423.0</v>
+      </c>
+      <c r="G171" s="12" t="s">
         <v>1162</v>
       </c>
-      <c r="F171" s="9">
-        <v>5423.0</v>
-      </c>
-      <c r="G171" s="11" t="s">
+      <c r="H171" s="12" t="s">
         <v>1163</v>
       </c>
-      <c r="H171" s="11" t="s">
+      <c r="I171" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="I171" s="9" t="s">
+      <c r="J171" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="J171" s="4" t="s">
-        <v>1166</v>
-      </c>
       <c r="K171" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="L171" s="2">
         <v>13941.75</v>
@@ -11044,69 +11038,69 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>1167</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>1168</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D172" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="10" t="s">
         <v>1170</v>
       </c>
-      <c r="F172" s="9" t="s">
+      <c r="G172" s="12" t="s">
         <v>1171</v>
       </c>
-      <c r="G172" s="11" t="s">
+      <c r="H172" s="12" t="s">
         <v>1172</v>
       </c>
-      <c r="H172" s="11" t="s">
+      <c r="I172" s="10" t="s">
         <v>1173</v>
       </c>
-      <c r="I172" s="9" t="s">
+      <c r="J172" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="J172" s="4" t="s">
-        <v>1175</v>
-      </c>
       <c r="K172" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>1176</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>1177</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D173" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>1179</v>
       </c>
       <c r="I173" s="1"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>1180</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>1181</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>31</v>
@@ -11115,34 +11109,34 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>1184</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D175" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="F175" s="10" t="s">
         <v>1186</v>
       </c>
-      <c r="F175" s="9" t="s">
+      <c r="G175" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="G175" s="4" t="s">
+      <c r="H175" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="H175" s="4" t="s">
+      <c r="I175" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="I175" s="1" t="s">
+      <c r="J175" s="4" t="s">
         <v>1190</v>
-      </c>
-      <c r="J175" s="4" t="s">
-        <v>1191</v>
       </c>
       <c r="K175" s="4" t="s">
         <v>158</v>
@@ -11150,16 +11144,16 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>31</v>
@@ -11168,34 +11162,34 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>1195</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D177" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="F177" s="10" t="s">
         <v>1197</v>
       </c>
-      <c r="F177" s="9" t="s">
+      <c r="G177" s="4" t="s">
         <v>1198</v>
       </c>
-      <c r="G177" s="4" t="s">
-        <v>1199</v>
-      </c>
       <c r="H177" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>294</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="L177" s="4">
         <v>87871.98</v>
@@ -11203,16 +11197,16 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>1202</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>31</v>
@@ -11221,37 +11215,37 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>1204</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>1205</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D179" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="F179" s="10" t="s">
         <v>1207</v>
       </c>
-      <c r="F179" s="9" t="s">
+      <c r="G179" s="4" t="s">
         <v>1208</v>
       </c>
-      <c r="G179" s="4" t="s">
+      <c r="H179" s="4" t="s">
         <v>1209</v>
       </c>
-      <c r="H179" s="4" t="s">
+      <c r="I179" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="I179" s="1" t="s">
+      <c r="J179" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="J179" s="4" t="s">
+      <c r="K179" s="4" t="s">
         <v>1212</v>
-      </c>
-      <c r="K179" s="4" t="s">
-        <v>1213</v>
       </c>
       <c r="L179" s="4">
         <v>485818.1</v>
@@ -11259,37 +11253,37 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>1214</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>1215</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D180" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="F180" s="10" t="s">
         <v>1217</v>
       </c>
-      <c r="F180" s="9" t="s">
+      <c r="G180" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="G180" s="4" t="s">
+      <c r="H180" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="I180" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="H180" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="I180" s="1" t="s">
+      <c r="J180" s="4" t="s">
         <v>1220</v>
       </c>
-      <c r="J180" s="4" t="s">
-        <v>1221</v>
-      </c>
       <c r="K180" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L180" s="2">
         <v>47625.35</v>
@@ -11297,34 +11291,34 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>1222</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>1223</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D181" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="F181" s="10" t="s">
         <v>1225</v>
       </c>
-      <c r="F181" s="9" t="s">
+      <c r="G181" s="4" t="s">
         <v>1226</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>1227</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I181" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="J181" s="4" t="s">
         <v>1228</v>
-      </c>
-      <c r="J181" s="4" t="s">
-        <v>1229</v>
       </c>
       <c r="K181" s="4" t="s">
         <v>124</v>
@@ -11335,37 +11329,37 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>1230</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>1231</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D182" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="F182" s="10" t="s">
         <v>1233</v>
       </c>
-      <c r="F182" s="9" t="s">
+      <c r="G182" s="4" t="s">
         <v>1234</v>
       </c>
-      <c r="G182" s="4" t="s">
+      <c r="H182" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="I182" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="H182" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="I182" s="1" t="s">
+      <c r="J182" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="J182" s="4" t="s">
-        <v>1237</v>
-      </c>
       <c r="K182" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L182" s="2">
         <v>243004.02</v>
@@ -11373,34 +11367,34 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>1238</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>1239</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D183" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="F183" s="10" t="s">
         <v>1241</v>
       </c>
-      <c r="F183" s="9" t="s">
+      <c r="G183" s="4" t="s">
         <v>1242</v>
-      </c>
-      <c r="G183" s="4" t="s">
-        <v>1243</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I183" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J183" s="4" t="s">
         <v>1244</v>
-      </c>
-      <c r="J183" s="4" t="s">
-        <v>1245</v>
       </c>
       <c r="K183" s="4" t="s">
         <v>385</v>
@@ -11411,55 +11405,55 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>1246</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>1247</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D184" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>1248</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>1249</v>
       </c>
       <c r="I184" s="1"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>1250</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>1251</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D185" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="F185" s="10" t="s">
         <v>1253</v>
       </c>
-      <c r="F185" s="9" t="s">
+      <c r="G185" s="4" t="s">
         <v>1254</v>
       </c>
-      <c r="G185" s="4" t="s">
+      <c r="H185" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I185" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="H185" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I185" s="1" t="s">
+      <c r="J185" s="4" t="s">
         <v>1256</v>
       </c>
-      <c r="J185" s="4" t="s">
-        <v>1257</v>
-      </c>
       <c r="K185" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="L185" s="2">
         <v>16172.66</v>
@@ -11467,34 +11461,34 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>1258</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>1259</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D186" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="F186" s="10" t="s">
         <v>1261</v>
       </c>
-      <c r="F186" s="9" t="s">
+      <c r="G186" s="4" t="s">
         <v>1262</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>1263</v>
       </c>
       <c r="H186" s="4" t="s">
         <v>158</v>
       </c>
       <c r="I186" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J186" s="4" t="s">
         <v>1264</v>
-      </c>
-      <c r="J186" s="4" t="s">
-        <v>1265</v>
       </c>
       <c r="K186" s="4" t="s">
         <v>303</v>
@@ -11505,37 +11499,37 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>1266</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>1267</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D187" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="F187" s="10" t="s">
         <v>1269</v>
       </c>
-      <c r="F187" s="9" t="s">
+      <c r="G187" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="G187" s="4" t="s">
+      <c r="H187" s="4" t="s">
         <v>1271</v>
       </c>
-      <c r="H187" s="4" t="s">
+      <c r="I187" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="I187" s="1" t="s">
+      <c r="J187" s="4" t="s">
         <v>1273</v>
       </c>
-      <c r="J187" s="4" t="s">
-        <v>1274</v>
-      </c>
       <c r="K187" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L187" s="2">
         <v>-6537.85</v>
@@ -11543,78 +11537,78 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>1275</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>1276</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="F188" s="10">
+        <v>1864.0</v>
+      </c>
+      <c r="G188" s="4" t="s">
         <v>1278</v>
       </c>
-      <c r="F188" s="9">
-        <v>1864.0</v>
-      </c>
-      <c r="G188" s="4" t="s">
+      <c r="I188" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="I188" s="1" t="s">
+      <c r="J188" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="J188" s="4" t="s">
+      <c r="K188" s="4" t="s">
         <v>1281</v>
-      </c>
-      <c r="K188" s="4" t="s">
-        <v>1282</v>
       </c>
       <c r="N188" s="2">
         <v>227132.83</v>
       </c>
       <c r="O188" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="P188" s="4" t="s">
         <v>1283</v>
-      </c>
-      <c r="P188" s="4" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>1285</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>1286</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D189" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="F189" s="10">
+        <v>308.0</v>
+      </c>
+      <c r="G189" s="4" t="s">
         <v>1288</v>
-      </c>
-      <c r="F189" s="9">
-        <v>308.0</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>1289</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I189" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J189" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="J189" s="4" t="s">
-        <v>1291</v>
-      </c>
       <c r="K189" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L189" s="2">
         <v>291396.69</v>
@@ -11622,61 +11616,61 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>1292</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>1293</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D190" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="F190" s="10">
+        <v>4542.0</v>
+      </c>
+      <c r="G190" s="4" t="s">
         <v>1295</v>
       </c>
-      <c r="F190" s="9">
-        <v>4542.0</v>
-      </c>
-      <c r="G190" s="4" t="s">
+      <c r="H190" s="4" t="s">
         <v>1296</v>
-      </c>
-      <c r="H190" s="4" t="s">
-        <v>1297</v>
       </c>
       <c r="I190" s="1"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>1298</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>1299</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D191" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="F191" s="10" t="s">
         <v>1301</v>
       </c>
-      <c r="F191" s="9" t="s">
+      <c r="G191" s="4" t="s">
         <v>1302</v>
-      </c>
-      <c r="G191" s="4" t="s">
-        <v>1303</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>178</v>
       </c>
       <c r="I191" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J191" s="4" t="s">
         <v>1304</v>
-      </c>
-      <c r="J191" s="4" t="s">
-        <v>1305</v>
       </c>
       <c r="K191" s="4" t="s">
         <v>178</v>
@@ -11684,37 +11678,37 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>1306</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>1307</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D192" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="F192" s="10" t="s">
         <v>1309</v>
       </c>
-      <c r="F192" s="9" t="s">
+      <c r="G192" s="4" t="s">
         <v>1310</v>
       </c>
-      <c r="G192" s="4" t="s">
+      <c r="H192" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="H192" s="1" t="s">
+      <c r="I192" s="10" t="s">
         <v>1312</v>
       </c>
-      <c r="I192" s="9" t="s">
+      <c r="J192" s="4" t="s">
         <v>1313</v>
       </c>
-      <c r="J192" s="4" t="s">
-        <v>1314</v>
-      </c>
       <c r="K192" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="M192" s="2">
         <v>95590.0</v>
@@ -11722,16 +11716,16 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>1315</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>1316</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>31</v>
@@ -11740,51 +11734,51 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>1318</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>1319</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="F194" s="10" t="s">
         <v>1321</v>
       </c>
-      <c r="F194" s="9" t="s">
+      <c r="G194" s="4" t="s">
         <v>1322</v>
       </c>
-      <c r="G194" s="4" t="s">
+      <c r="H194" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="I194" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="H194" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="I194" s="1" t="s">
+      <c r="J194" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="J194" s="4" t="s">
+      <c r="K194" s="4" t="s">
         <v>1325</v>
-      </c>
-      <c r="K194" s="4" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>1327</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>1328</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>31</v>
@@ -11793,16 +11787,16 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>1330</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>1331</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>31</v>
@@ -11811,98 +11805,98 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>1333</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>1334</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D197" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="F197" s="10" t="s">
         <v>1336</v>
       </c>
-      <c r="F197" s="9" t="s">
+      <c r="G197" s="4" t="s">
         <v>1337</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>1338</v>
       </c>
       <c r="H197" s="4" t="s">
         <v>325</v>
       </c>
       <c r="I197" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J197" s="4" t="s">
         <v>1339</v>
-      </c>
-      <c r="J197" s="4" t="s">
-        <v>1340</v>
       </c>
       <c r="K197" s="4" t="s">
         <v>325</v>
       </c>
       <c r="O197" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="P197" s="4" t="s">
         <v>1341</v>
-      </c>
-      <c r="P197" s="4" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>1343</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>1344</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D198" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>1345</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>1346</v>
       </c>
       <c r="F198" s="2">
         <v>1930.0</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I198" s="6" t="s">
+        <v>1347</v>
+      </c>
+      <c r="J198" s="7" t="s">
         <v>1348</v>
       </c>
-      <c r="J198" s="7" t="s">
+      <c r="O198" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="O198" s="2" t="s">
+      <c r="P198" s="7" t="s">
         <v>1350</v>
       </c>
-      <c r="P198" s="7" t="s">
+      <c r="Q198" s="7" t="s">
         <v>1351</v>
-      </c>
-      <c r="Q198" s="7" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>1353</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>1354</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>31</v>
@@ -11911,57 +11905,57 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>1356</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>1357</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="F200" s="10" t="s">
         <v>1359</v>
       </c>
-      <c r="F200" s="9" t="s">
+      <c r="G200" s="4" t="s">
         <v>1360</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>1361</v>
       </c>
       <c r="H200" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I200" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J200" s="4" t="s">
         <v>1362</v>
-      </c>
-      <c r="J200" s="4" t="s">
-        <v>1363</v>
       </c>
       <c r="K200" s="4" t="s">
         <v>64</v>
       </c>
       <c r="O200" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="P200" s="4" t="s">
         <v>1364</v>
-      </c>
-      <c r="P200" s="4" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>1366</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>1367</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>31</v>
@@ -11970,16 +11964,16 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>1369</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>1370</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>31</v>
@@ -11988,34 +11982,34 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>1372</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>1373</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D203" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="F203" s="10">
+        <v>8534.0</v>
+      </c>
+      <c r="G203" s="4" t="s">
         <v>1375</v>
-      </c>
-      <c r="F203" s="9">
-        <v>8534.0</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>1376</v>
       </c>
       <c r="H203" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I203" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="J203" s="4" t="s">
         <v>1377</v>
-      </c>
-      <c r="J203" s="4" t="s">
-        <v>1378</v>
       </c>
       <c r="K203" s="4" t="s">
         <v>64</v>
@@ -12026,54 +12020,54 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>1379</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>1380</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D204" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="F204" s="10" t="s">
         <v>1382</v>
       </c>
-      <c r="F204" s="9" t="s">
+      <c r="G204" s="4" t="s">
         <v>1383</v>
       </c>
-      <c r="G204" s="4" t="s">
+      <c r="H204" s="4" t="s">
         <v>1384</v>
       </c>
-      <c r="H204" s="4" t="s">
+      <c r="I204" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="I204" s="1" t="s">
+      <c r="J204" s="4" t="s">
         <v>1386</v>
       </c>
-      <c r="J204" s="4" t="s">
+      <c r="K204" s="4" t="s">
+        <v>1384</v>
+      </c>
+      <c r="O204" s="2" t="s">
         <v>1387</v>
-      </c>
-      <c r="K204" s="4" t="s">
-        <v>1385</v>
-      </c>
-      <c r="O204" s="2" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>1389</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>1390</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>31</v>
@@ -12082,16 +12076,16 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>1392</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>1393</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>31</v>
@@ -12100,16 +12094,16 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>1395</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>1396</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>31</v>
@@ -12118,60 +12112,60 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>1398</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>1399</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D208" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="F208" s="10" t="s">
         <v>1401</v>
       </c>
-      <c r="F208" s="9" t="s">
+      <c r="G208" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="G208" s="4" t="s">
+      <c r="H208" s="4" t="s">
         <v>1403</v>
       </c>
-      <c r="H208" s="4" t="s">
+      <c r="I208" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="I208" s="1" t="s">
+      <c r="J208" s="4" t="s">
         <v>1405</v>
       </c>
-      <c r="J208" s="4" t="s">
+      <c r="K208" s="4" t="s">
         <v>1406</v>
-      </c>
-      <c r="K208" s="4" t="s">
-        <v>1407</v>
       </c>
       <c r="N208" s="4">
         <v>859340.53</v>
       </c>
       <c r="O208" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="P208" s="4" t="s">
         <v>1408</v>
-      </c>
-      <c r="P208" s="4" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>1410</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>1411</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>31</v>
@@ -12180,113 +12174,113 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>1413</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>1414</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D210" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="F210" s="10" t="s">
         <v>1416</v>
       </c>
-      <c r="F210" s="9" t="s">
+      <c r="G210" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="G210" s="4" t="s">
+      <c r="H210" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="H210" s="4" t="s">
+      <c r="I210" s="6" t="s">
         <v>1419</v>
       </c>
-      <c r="I210" s="6" t="s">
+      <c r="N210" s="8">
+        <v>21999.75</v>
+      </c>
+      <c r="O210" s="4" t="s">
         <v>1420</v>
       </c>
-      <c r="N210" s="2" t="s">
+      <c r="P210" s="4" t="s">
         <v>1421</v>
-      </c>
-      <c r="O210" s="4" t="s">
-        <v>1422</v>
-      </c>
-      <c r="P210" s="4" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D211" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F211" s="10" t="s">
         <v>1426</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="G211" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="F211" s="9" t="s">
+      <c r="H211" s="4" t="s">
         <v>1428</v>
       </c>
-      <c r="G211" s="4" t="s">
+      <c r="I211" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="H211" s="4" t="s">
+      <c r="J211" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="I211" s="1" t="s">
+      <c r="K211" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="O211" s="8" t="s">
         <v>1431</v>
-      </c>
-      <c r="J211" s="4" t="s">
-        <v>1432</v>
-      </c>
-      <c r="K211" s="4" t="s">
-        <v>1430</v>
-      </c>
-      <c r="O211" s="13" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D212" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F212" s="10" t="s">
         <v>1436</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="G212" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="F212" s="9" t="s">
+      <c r="H212" s="4" t="s">
         <v>1438</v>
       </c>
-      <c r="G212" s="4" t="s">
+      <c r="I212" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="H212" s="4" t="s">
+      <c r="J212" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="I212" s="1" t="s">
+      <c r="K212" s="4" t="s">
         <v>1441</v>
-      </c>
-      <c r="J212" s="4" t="s">
-        <v>1442</v>
-      </c>
-      <c r="K212" s="4" t="s">
-        <v>1443</v>
       </c>
       <c r="L212" s="2">
         <v>240980.42</v>
@@ -12294,16 +12288,16 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>31</v>
@@ -12312,37 +12306,37 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D214" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F214" s="11" t="s">
         <v>1449</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="G214" s="7" t="s">
         <v>1450</v>
       </c>
-      <c r="F214" s="10" t="s">
+      <c r="H214" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I214" s="6" t="s">
         <v>1451</v>
       </c>
-      <c r="G214" s="7" t="s">
+      <c r="J214" s="7" t="s">
         <v>1452</v>
       </c>
-      <c r="H214" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I214" s="6" t="s">
-        <v>1453</v>
-      </c>
-      <c r="J214" s="7" t="s">
-        <v>1454</v>
-      </c>
       <c r="K214" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L214" s="2">
         <v>412453.68</v>
@@ -12350,60 +12344,60 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D215" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="G215" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="F215" s="1" t="s">
+      <c r="H215" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="G215" s="4" t="s">
+      <c r="I215" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="H215" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I215" s="1" t="s">
-        <v>1462</v>
-      </c>
       <c r="J215" s="4" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="M215" s="4">
         <v>2440955.74</v>
       </c>
       <c r="O215" s="4" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -12417,68 +12411,68 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D217" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>1471</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>1472</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>1473</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>124</v>
       </c>
       <c r="L217" s="6" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D218" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F218" s="6" t="s">
         <v>1479</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="G218" s="14" t="s">
         <v>1480</v>
       </c>
-      <c r="F218" s="6" t="s">
+      <c r="H218" s="6" t="s">
         <v>1481</v>
-      </c>
-      <c r="G218" s="14" t="s">
-        <v>1482</v>
-      </c>
-      <c r="H218" s="6" t="s">
-        <v>1483</v>
       </c>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -12489,19 +12483,19 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -12515,19 +12509,19 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -12541,60 +12535,60 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D221" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F221" s="6" t="s">
         <v>1494</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="G221" s="14" t="s">
         <v>1495</v>
       </c>
-      <c r="F221" s="6" t="s">
+      <c r="H221" s="6" t="s">
         <v>1496</v>
       </c>
-      <c r="G221" s="14" t="s">
+      <c r="I221" s="6" t="s">
         <v>1497</v>
       </c>
-      <c r="H221" s="6" t="s">
+      <c r="J221" s="14" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>1498</v>
-      </c>
-      <c r="I221" s="6" t="s">
-        <v>1499</v>
-      </c>
-      <c r="J221" s="14" t="s">
-        <v>1497</v>
-      </c>
-      <c r="K221" s="6" t="s">
-        <v>1500</v>
       </c>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="2" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="P221" s="7" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>31</v>
@@ -12611,16 +12605,16 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>31</v>
@@ -12637,16 +12631,16 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>31</v>
@@ -12663,16 +12657,16 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>31</v>
@@ -12689,37 +12683,37 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D226" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F226" s="6" t="s">
         <v>1517</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="G226" s="14" t="s">
         <v>1518</v>
       </c>
-      <c r="F226" s="6" t="s">
+      <c r="H226" s="6" t="s">
         <v>1519</v>
       </c>
-      <c r="G226" s="14" t="s">
+      <c r="I226" s="6" t="s">
         <v>1520</v>
       </c>
-      <c r="H226" s="6" t="s">
+      <c r="J226" s="14" t="s">
         <v>1521</v>
       </c>
-      <c r="I226" s="6" t="s">
-        <v>1522</v>
-      </c>
-      <c r="J226" s="14" t="s">
-        <v>1523</v>
-      </c>
       <c r="K226" s="6" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
@@ -12727,25 +12721,25 @@
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D227" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F227" s="6" t="s">
         <v>1526</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="G227" s="14" t="s">
         <v>1527</v>
-      </c>
-      <c r="F227" s="6" t="s">
-        <v>1528</v>
-      </c>
-      <c r="G227" s="14" t="s">
-        <v>1529</v>
       </c>
       <c r="H227" s="6" t="s">
         <v>303</v>
@@ -12754,141 +12748,141 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="6" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D228" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F228" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="G228" s="14" t="s">
         <v>1534</v>
       </c>
-      <c r="F228" s="6" t="s">
+      <c r="H228" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="I228" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="G228" s="14" t="s">
+      <c r="J228" s="14" t="s">
         <v>1536</v>
       </c>
-      <c r="H228" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="I228" s="6" t="s">
+      <c r="K228" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="L228" s="6" t="s">
         <v>1537</v>
-      </c>
-      <c r="J228" s="14" t="s">
-        <v>1538</v>
-      </c>
-      <c r="K228" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="L228" s="6" t="s">
-        <v>1539</v>
       </c>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D229" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F229" s="6" t="s">
         <v>1542</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="G229" s="14" t="s">
         <v>1543</v>
       </c>
-      <c r="F229" s="6" t="s">
+      <c r="H229" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="G229" s="14" t="s">
+      <c r="I229" s="6" t="s">
         <v>1545</v>
       </c>
-      <c r="H229" s="6" t="s">
+      <c r="J229" s="14" t="s">
         <v>1546</v>
       </c>
-      <c r="I229" s="6" t="s">
+      <c r="K229" s="6" t="s">
         <v>1547</v>
       </c>
-      <c r="J229" s="14" t="s">
+      <c r="L229" s="6" t="s">
         <v>1548</v>
-      </c>
-      <c r="K229" s="6" t="s">
-        <v>1549</v>
-      </c>
-      <c r="L229" s="6" t="s">
-        <v>1550</v>
       </c>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D230" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F230" s="6" t="s">
         <v>1553</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="G230" s="14" t="s">
         <v>1554</v>
       </c>
-      <c r="F230" s="6" t="s">
+      <c r="H230" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I230" s="6" t="s">
         <v>1555</v>
       </c>
-      <c r="G230" s="14" t="s">
-        <v>1556</v>
-      </c>
-      <c r="H230" s="6" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I230" s="6" t="s">
-        <v>1557</v>
-      </c>
       <c r="J230" s="14" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="K230" s="1"/>
       <c r="L230" s="6" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>31</v>
@@ -12897,37 +12891,37 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D232" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F232" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="G232" s="7" t="s">
         <v>1565</v>
-      </c>
-      <c r="F232" s="10" t="s">
-        <v>1566</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>1567</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I232" s="6" t="s">
+        <v>1566</v>
+      </c>
+      <c r="J232" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K232" s="2" t="s">
         <v>1568</v>
-      </c>
-      <c r="J232" s="7" t="s">
-        <v>1569</v>
-      </c>
-      <c r="K232" s="2" t="s">
-        <v>1570</v>
       </c>
       <c r="L232" s="2">
         <v>7850.63</v>
@@ -12935,32 +12929,32 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D233" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F233" s="11" t="s">
         <v>1573</v>
       </c>
-      <c r="E233" s="1" t="s">
+      <c r="G233" s="7" t="s">
         <v>1574</v>
-      </c>
-      <c r="F233" s="10" t="s">
-        <v>1575</v>
-      </c>
-      <c r="G233" s="7" t="s">
-        <v>1576</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I233" s="1"/>
       <c r="J233" s="7" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="L233" s="2">
         <v>37328.13</v>
@@ -12968,37 +12962,37 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D234" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F234" s="11" t="s">
         <v>1580</v>
       </c>
-      <c r="E234" s="1" t="s">
+      <c r="G234" s="7" t="s">
         <v>1581</v>
       </c>
-      <c r="F234" s="10" t="s">
+      <c r="H234" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="G234" s="7" t="s">
+      <c r="I234" s="6" t="s">
         <v>1583</v>
       </c>
-      <c r="H234" s="2" t="s">
+      <c r="J234" s="7" t="s">
         <v>1584</v>
       </c>
-      <c r="I234" s="6" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J234" s="7" t="s">
-        <v>1586</v>
-      </c>
       <c r="K234" s="2" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="L234" s="2">
         <v>4140.0</v>
@@ -13006,98 +13000,98 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D235" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F235" s="15" t="s">
         <v>1589</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="G235" s="7" t="s">
         <v>1590</v>
-      </c>
-      <c r="F235" s="15" t="s">
-        <v>1591</v>
-      </c>
-      <c r="G235" s="7" t="s">
-        <v>1592</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="K235" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D236" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F236" s="11" t="s">
         <v>1596</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="G236" s="7" t="s">
         <v>1597</v>
-      </c>
-      <c r="F236" s="10" t="s">
-        <v>1598</v>
-      </c>
-      <c r="G236" s="7" t="s">
-        <v>1599</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>293</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="J236" s="16" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F237" s="11">
+        <v>7304.0</v>
+      </c>
+      <c r="G237" s="7" t="s">
         <v>1604</v>
       </c>
-      <c r="E237" s="1" t="s">
+      <c r="H237" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I237" s="6" t="s">
         <v>1605</v>
       </c>
-      <c r="F237" s="10">
-        <v>7304.0</v>
-      </c>
-      <c r="G237" s="7" t="s">
+      <c r="J237" s="7" t="s">
         <v>1606</v>
-      </c>
-      <c r="H237" s="2" t="s">
-        <v>1584</v>
-      </c>
-      <c r="I237" s="6" t="s">
-        <v>1607</v>
-      </c>
-      <c r="J237" s="7" t="s">
-        <v>1608</v>
       </c>
       <c r="L237" s="2">
         <v>40489.56</v>
@@ -13105,37 +13099,37 @@
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D238" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F238" s="11" t="s">
         <v>1611</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="G238" s="7" t="s">
         <v>1612</v>
       </c>
-      <c r="F238" s="10" t="s">
+      <c r="H238" s="2" t="s">
         <v>1613</v>
       </c>
-      <c r="G238" s="7" t="s">
+      <c r="I238" s="6" t="s">
         <v>1614</v>
       </c>
-      <c r="H238" s="2" t="s">
+      <c r="J238" s="7" t="s">
         <v>1615</v>
       </c>
-      <c r="I238" s="6" t="s">
-        <v>1616</v>
-      </c>
-      <c r="J238" s="7" t="s">
-        <v>1617</v>
-      </c>
       <c r="K238" s="2" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="L238" s="2">
         <v>21403.43</v>
@@ -13143,75 +13137,75 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D239" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F239" s="11" t="s">
         <v>1620</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="G239" s="7" t="s">
         <v>1621</v>
       </c>
-      <c r="F239" s="10" t="s">
+      <c r="H239" s="2" t="s">
         <v>1622</v>
       </c>
-      <c r="G239" s="7" t="s">
+      <c r="I239" s="6" t="s">
         <v>1623</v>
       </c>
-      <c r="H239" s="2" t="s">
+      <c r="J239" s="7" t="s">
         <v>1624</v>
       </c>
-      <c r="I239" s="6" t="s">
+      <c r="K239" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="O239" s="2" t="s">
         <v>1625</v>
       </c>
-      <c r="J239" s="7" t="s">
+      <c r="P239" s="16" t="s">
         <v>1626</v>
-      </c>
-      <c r="K239" s="2" t="s">
-        <v>1624</v>
-      </c>
-      <c r="O239" s="2" t="s">
-        <v>1627</v>
-      </c>
-      <c r="P239" s="16" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D240" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F240" s="11" t="s">
         <v>1631</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="G240" s="7" t="s">
         <v>1632</v>
-      </c>
-      <c r="F240" s="10" t="s">
-        <v>1633</v>
-      </c>
-      <c r="G240" s="7" t="s">
-        <v>1634</v>
       </c>
       <c r="H240" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="J240" s="7" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="K240" s="2" t="s">
         <v>124</v>
@@ -13222,34 +13216,34 @@
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D241" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F241" s="11" t="s">
         <v>1639</v>
       </c>
-      <c r="E241" s="1" t="s">
+      <c r="G241" s="7" t="s">
         <v>1640</v>
-      </c>
-      <c r="F241" s="10" t="s">
-        <v>1641</v>
-      </c>
-      <c r="G241" s="7" t="s">
-        <v>1642</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="J241" s="7" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="K241" s="2" t="s">
         <v>124</v>
@@ -13260,69 +13254,69 @@
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D242" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F242" s="10" t="s">
         <v>1647</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="G242" s="4" t="s">
         <v>1648</v>
       </c>
-      <c r="F242" s="9" t="s">
+      <c r="H242" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="I242" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="G242" s="4" t="s">
+      <c r="J242" s="4" t="s">
         <v>1650</v>
       </c>
-      <c r="H242" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="I242" s="1" t="s">
+      <c r="K242" s="4" t="s">
         <v>1651</v>
-      </c>
-      <c r="J242" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="K242" s="4" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D243" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F243" s="11" t="s">
         <v>1656</v>
       </c>
-      <c r="E243" s="1" t="s">
+      <c r="G243" s="7" t="s">
         <v>1657</v>
-      </c>
-      <c r="F243" s="10" t="s">
-        <v>1658</v>
-      </c>
-      <c r="G243" s="7" t="s">
-        <v>1659</v>
       </c>
       <c r="H243" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="J243" s="7" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="K243" s="2" t="s">
         <v>132</v>
@@ -13333,87 +13327,87 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D244" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F244" s="11">
+        <v>12116.0</v>
+      </c>
+      <c r="G244" s="7" t="s">
         <v>1664</v>
       </c>
-      <c r="E244" s="1" t="s">
+      <c r="H244" s="2" t="s">
         <v>1665</v>
-      </c>
-      <c r="F244" s="10">
-        <v>12116.0</v>
-      </c>
-      <c r="G244" s="7" t="s">
-        <v>1666</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>1667</v>
       </c>
       <c r="I244" s="1"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F245" s="10" t="s">
+      <c r="F245" s="11" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H245" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="G245" s="7" t="s">
+      <c r="I245" s="6" t="s">
         <v>1672</v>
       </c>
-      <c r="H245" s="2" t="s">
+      <c r="J245" s="7" t="s">
         <v>1673</v>
       </c>
-      <c r="I245" s="6" t="s">
-        <v>1674</v>
-      </c>
-      <c r="J245" s="7" t="s">
-        <v>1675</v>
-      </c>
       <c r="K245" s="2" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="L245" s="2">
         <v>230.0</v>
       </c>
       <c r="O245" s="16" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="P245" s="2" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>31</v>
@@ -13422,16 +13416,16 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>31</v>
@@ -13440,101 +13434,101 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D248" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F248" s="11" t="s">
         <v>1686</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="G248" s="16" t="s">
         <v>1687</v>
       </c>
-      <c r="F248" s="10" t="s">
+      <c r="H248" s="2" t="s">
         <v>1688</v>
       </c>
-      <c r="G248" s="16" t="s">
+      <c r="I248" s="6" t="s">
         <v>1689</v>
       </c>
-      <c r="H248" s="2" t="s">
+      <c r="J248" s="7" t="s">
+        <v>1687</v>
+      </c>
+      <c r="K248" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="O248" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="I248" s="6" t="s">
+      <c r="P248" s="7" t="s">
         <v>1691</v>
       </c>
-      <c r="J248" s="7" t="s">
-        <v>1689</v>
-      </c>
-      <c r="K248" s="2" t="s">
-        <v>1690</v>
-      </c>
-      <c r="O248" s="2" t="s">
+      <c r="Q248" s="2" t="s">
         <v>1692</v>
-      </c>
-      <c r="P248" s="7" t="s">
-        <v>1693</v>
-      </c>
-      <c r="Q248" s="2" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D249" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F249" s="11">
+        <v>3692.0</v>
+      </c>
+      <c r="G249" s="7" t="s">
         <v>1697</v>
       </c>
-      <c r="E249" s="1" t="s">
+      <c r="H249" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="I249" s="6" t="s">
         <v>1698</v>
       </c>
-      <c r="F249" s="10">
-        <v>3692.0</v>
-      </c>
-      <c r="G249" s="7" t="s">
+      <c r="J249" s="7" t="s">
         <v>1699</v>
       </c>
-      <c r="H249" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="I249" s="6" t="s">
+      <c r="K249" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="O249" s="2" t="s">
         <v>1700</v>
       </c>
-      <c r="J249" s="7" t="s">
+      <c r="P249" s="2" t="s">
         <v>1701</v>
-      </c>
-      <c r="K249" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="O249" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="P249" s="2" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>31</v>
@@ -13543,256 +13537,256 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D251" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F251" s="11" t="s">
         <v>1709</v>
       </c>
-      <c r="E251" s="1" t="s">
+      <c r="G251" s="7" t="s">
         <v>1710</v>
-      </c>
-      <c r="F251" s="10" t="s">
-        <v>1711</v>
-      </c>
-      <c r="G251" s="7" t="s">
-        <v>1712</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>325</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="J251" s="7" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="K251" s="2" t="s">
         <v>325</v>
       </c>
       <c r="O251" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="P251" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="Q251" s="2" t="s">
         <v>1715</v>
-      </c>
-      <c r="P251" s="7" t="s">
-        <v>1716</v>
-      </c>
-      <c r="Q251" s="2" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D252" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F252" s="11">
+        <v>426.0</v>
+      </c>
+      <c r="G252" s="7" t="s">
         <v>1720</v>
       </c>
-      <c r="E252" s="1" t="s">
+      <c r="H252" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="F252" s="10">
-        <v>426.0</v>
-      </c>
-      <c r="G252" s="7" t="s">
+      <c r="I252" s="6" t="s">
         <v>1722</v>
       </c>
-      <c r="H252" s="2" t="s">
+      <c r="J252" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="K252" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="O252" s="2" t="s">
         <v>1723</v>
-      </c>
-      <c r="I252" s="6" t="s">
-        <v>1724</v>
-      </c>
-      <c r="J252" s="7" t="s">
-        <v>1722</v>
-      </c>
-      <c r="K252" s="2" t="s">
-        <v>1723</v>
-      </c>
-      <c r="O252" s="2" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D253" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F253" s="11" t="s">
         <v>1728</v>
       </c>
-      <c r="E253" s="1" t="s">
+      <c r="G253" s="7" t="s">
         <v>1729</v>
       </c>
-      <c r="F253" s="10" t="s">
+      <c r="H253" s="2" t="s">
         <v>1730</v>
       </c>
-      <c r="G253" s="7" t="s">
+      <c r="I253" s="6" t="s">
         <v>1731</v>
       </c>
-      <c r="H253" s="2" t="s">
+      <c r="J253" s="7" t="s">
         <v>1732</v>
       </c>
-      <c r="I253" s="6" t="s">
+      <c r="O253" s="2" t="s">
         <v>1733</v>
-      </c>
-      <c r="J253" s="7" t="s">
-        <v>1734</v>
-      </c>
-      <c r="O253" s="2" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D254" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F254" s="11" t="s">
         <v>1738</v>
       </c>
-      <c r="E254" s="1" t="s">
+      <c r="G254" s="7" t="s">
         <v>1739</v>
-      </c>
-      <c r="F254" s="10" t="s">
-        <v>1740</v>
-      </c>
-      <c r="G254" s="7" t="s">
-        <v>1741</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="J254" s="7" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="K254" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O254" s="13" t="s">
-        <v>1744</v>
+      <c r="O254" s="8" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D255" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F255" s="10" t="s">
         <v>1746</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="G255" s="17" t="s">
         <v>1747</v>
       </c>
-      <c r="F255" s="9" t="s">
+      <c r="H255" s="4" t="s">
         <v>1748</v>
       </c>
-      <c r="G255" s="17" t="s">
+      <c r="I255" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="H255" s="4" t="s">
+      <c r="J255" s="7" t="s">
         <v>1750</v>
       </c>
-      <c r="I255" s="1" t="s">
-        <v>1751</v>
-      </c>
-      <c r="J255" s="7" t="s">
-        <v>1752</v>
-      </c>
       <c r="K255" s="4" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="L255" s="2">
         <v>7408.26</v>
       </c>
       <c r="O255" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="P255" s="2" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D256" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F256" s="11" t="s">
         <v>1756</v>
       </c>
-      <c r="E256" s="1" t="s">
+      <c r="G256" s="7" t="s">
         <v>1757</v>
       </c>
-      <c r="F256" s="10" t="s">
+      <c r="H256" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="G256" s="7" t="s">
+      <c r="I256" s="6" t="s">
         <v>1759</v>
       </c>
-      <c r="H256" s="2" t="s">
+      <c r="J256" s="7" t="s">
         <v>1760</v>
       </c>
-      <c r="I256" s="6" t="s">
-        <v>1761</v>
-      </c>
-      <c r="J256" s="7" t="s">
-        <v>1762</v>
-      </c>
       <c r="K256" s="2" t="s">
-        <v>1760</v>
-      </c>
-      <c r="L256" s="13">
+        <v>1758</v>
+      </c>
+      <c r="L256" s="8">
         <v>285277.52</v>
       </c>
-      <c r="O256" s="13" t="s">
-        <v>1717</v>
+      <c r="O256" s="8" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>31</v>
@@ -13801,34 +13795,34 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D258" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F258" s="11" t="s">
         <v>1768</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="G258" s="7" t="s">
         <v>1769</v>
-      </c>
-      <c r="F258" s="10" t="s">
-        <v>1770</v>
-      </c>
-      <c r="G258" s="7" t="s">
-        <v>1771</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="J258" s="7" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="K258" s="2" t="s">
         <v>124</v>
@@ -13840,27 +13834,27 @@
         <v>0.0</v>
       </c>
       <c r="O258" s="2" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="P258" s="16" t="s">
-        <v>1775</v>
-      </c>
-      <c r="Q258" s="13" t="s">
-        <v>1717</v>
+        <v>1773</v>
+      </c>
+      <c r="Q258" s="8" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>31</v>
@@ -13869,54 +13863,54 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D260" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F260" s="10">
+        <v>3484.0</v>
+      </c>
+      <c r="G260" s="4" t="s">
         <v>1781</v>
       </c>
-      <c r="E260" s="1" t="s">
+      <c r="H260" s="4" t="s">
         <v>1782</v>
       </c>
-      <c r="F260" s="9">
-        <v>3484.0</v>
-      </c>
-      <c r="G260" s="4" t="s">
+      <c r="I260" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="H260" s="4" t="s">
+      <c r="J260" s="4" t="s">
         <v>1784</v>
       </c>
-      <c r="I260" s="1" t="s">
+      <c r="K260" s="4" t="s">
         <v>1785</v>
       </c>
-      <c r="J260" s="4" t="s">
+      <c r="O260" s="2" t="s">
         <v>1786</v>
-      </c>
-      <c r="K260" s="4" t="s">
-        <v>1787</v>
-      </c>
-      <c r="O260" s="2" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>31</v>
@@ -13925,84 +13919,84 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D262" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F262" s="18" t="s">
         <v>1794</v>
       </c>
-      <c r="E262" s="1" t="s">
+      <c r="G262" s="7" t="s">
         <v>1795</v>
       </c>
-      <c r="F262" s="18" t="s">
+      <c r="H262" s="8" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I262" s="6" t="s">
         <v>1796</v>
       </c>
-      <c r="G262" s="7" t="s">
-        <v>1797</v>
-      </c>
-      <c r="H262" s="13" t="s">
-        <v>1443</v>
-      </c>
-      <c r="I262" s="6" t="s">
-        <v>1798</v>
-      </c>
       <c r="J262" s="7" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="K262" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M262" s="2">
         <v>0.0</v>
       </c>
-      <c r="O262" s="13" t="s">
-        <v>1799</v>
+      <c r="O262" s="8" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D263" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F263" s="11" t="s">
         <v>1802</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="G263" s="7" t="s">
         <v>1803</v>
       </c>
-      <c r="F263" s="10" t="s">
+      <c r="H263" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="G263" s="7" t="s">
+      <c r="I263" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="J263" s="7" t="s">
         <v>1805</v>
       </c>
-      <c r="H263" s="2" t="s">
-        <v>1806</v>
-      </c>
-      <c r="I263" s="6" t="s">
-        <v>1322</v>
-      </c>
-      <c r="J263" s="7" t="s">
-        <v>1807</v>
-      </c>
       <c r="K263" s="2" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="L263" s="2">
         <v>136429.8</v>
       </c>
-      <c r="O263" s="13" t="s">
-        <v>1808</v>
+      <c r="O263" s="8" t="s">
+        <v>1806</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">

--- a/data/polid_data/instrumental_variable_est.xlsx
+++ b/data/polid_data/instrumental_variable_est.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="1902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="1956">
   <si>
     <t>polid</t>
   </si>
@@ -5757,6 +5757,168 @@
   </si>
   <si>
     <t>van Stapele</t>
+  </si>
+  <si>
+    <t>00154</t>
+  </si>
+  <si>
+    <t>Bomans</t>
+  </si>
+  <si>
+    <t>Journalist</t>
+  </si>
+  <si>
+    <t>00341</t>
+  </si>
+  <si>
+    <t>Dresselhuys</t>
+  </si>
+  <si>
+    <t>00968</t>
+  </si>
+  <si>
+    <t>01334</t>
+  </si>
+  <si>
+    <t>Van Sypesteyn</t>
+  </si>
+  <si>
+    <t>00009</t>
+  </si>
+  <si>
+    <t>Taets van Amerongen</t>
+  </si>
+  <si>
+    <t>01092</t>
+  </si>
+  <si>
+    <t>Van Reenen</t>
+  </si>
+  <si>
+    <t>01065</t>
+  </si>
+  <si>
+    <t>Pyls</t>
+  </si>
+  <si>
+    <t>01316</t>
+  </si>
+  <si>
+    <t>Storm van 's-Gravezande</t>
+  </si>
+  <si>
+    <t>00437</t>
+  </si>
+  <si>
+    <t>00538</t>
+  </si>
+  <si>
+    <t>Heemskerk Az.</t>
+  </si>
+  <si>
+    <t>00573</t>
+  </si>
+  <si>
+    <t>van den Heuvel</t>
+  </si>
+  <si>
+    <t>01281</t>
+  </si>
+  <si>
+    <t>Smitz</t>
+  </si>
+  <si>
+    <t>00674</t>
+  </si>
+  <si>
+    <t>Kappeyne van de Coppello</t>
+  </si>
+  <si>
+    <t>Rector</t>
+  </si>
+  <si>
+    <t>00857</t>
+  </si>
+  <si>
+    <t>Van Lynden van Sandenburg</t>
+  </si>
+  <si>
+    <t>00765</t>
+  </si>
+  <si>
+    <t>Van Kuyk</t>
+  </si>
+  <si>
+    <t>00322</t>
+  </si>
+  <si>
+    <t>van der Does de Willebois</t>
+  </si>
+  <si>
+    <t>00870</t>
+  </si>
+  <si>
+    <t>van der Maesen de Sombreff</t>
+  </si>
+  <si>
+    <t>01603</t>
+  </si>
+  <si>
+    <t>van Zuylen van Nyevelt</t>
+  </si>
+  <si>
+    <t>00350</t>
+  </si>
+  <si>
+    <t>Dumbar</t>
+  </si>
+  <si>
+    <t>00631</t>
+  </si>
+  <si>
+    <t>s Jacob</t>
+  </si>
+  <si>
+    <t>00130</t>
+  </si>
+  <si>
+    <t>Blom</t>
+  </si>
+  <si>
+    <t>01123</t>
+  </si>
+  <si>
+    <t>de Roo van Alderwerelt</t>
+  </si>
+  <si>
+    <t>00878</t>
+  </si>
+  <si>
+    <t>du Marchie van Voorthuysen</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>01272</t>
+  </si>
+  <si>
+    <t>00784</t>
+  </si>
+  <si>
+    <t>de Lange</t>
+  </si>
+  <si>
+    <t>00828</t>
+  </si>
+  <si>
+    <t>van der Linden</t>
+  </si>
+  <si>
+    <t>Heemskerk Bz.</t>
+  </si>
+  <si>
+    <t>Bankier</t>
   </si>
 </sst>
 </file>
@@ -5840,7 +6002,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5931,6 +6093,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -15939,7 +16107,9 @@
         <v>1884</v>
       </c>
       <c r="F263" s="9"/>
-      <c r="G263" s="12"/>
+      <c r="G263" s="29">
+        <v>0.0</v>
+      </c>
       <c r="H263" s="5"/>
       <c r="I263" s="5" t="s">
         <v>1885</v>
@@ -15954,7 +16124,9 @@
         <v>1887</v>
       </c>
       <c r="F264" s="9"/>
-      <c r="G264" s="12"/>
+      <c r="G264" s="29">
+        <v>1.0</v>
+      </c>
       <c r="H264" s="5"/>
       <c r="I264" s="5" t="s">
         <v>104</v>
@@ -15969,7 +16141,9 @@
         <v>1889</v>
       </c>
       <c r="F265" s="9"/>
-      <c r="G265" s="12"/>
+      <c r="G265" s="29">
+        <v>5.0</v>
+      </c>
       <c r="H265" s="5"/>
       <c r="I265" s="5" t="s">
         <v>1890</v>
@@ -15984,7 +16158,9 @@
         <v>1891</v>
       </c>
       <c r="F266" s="9"/>
-      <c r="G266" s="12"/>
+      <c r="G266" s="29">
+        <v>0.0</v>
+      </c>
       <c r="H266" s="5"/>
       <c r="I266" s="5" t="s">
         <v>881</v>
@@ -15999,7 +16175,9 @@
         <v>1893</v>
       </c>
       <c r="F267" s="9"/>
-      <c r="G267" s="12"/>
+      <c r="G267" s="29">
+        <v>1.0</v>
+      </c>
       <c r="H267" s="5"/>
       <c r="I267" s="5" t="s">
         <v>881</v>
@@ -16014,7 +16192,9 @@
         <v>1895</v>
       </c>
       <c r="F268" s="9"/>
-      <c r="G268" s="12"/>
+      <c r="G268" s="29">
+        <v>1.0</v>
+      </c>
       <c r="H268" s="5"/>
       <c r="I268" s="5" t="s">
         <v>208</v>
@@ -16029,7 +16209,9 @@
         <v>1897</v>
       </c>
       <c r="F269" s="9"/>
-      <c r="G269" s="12"/>
+      <c r="G269" s="29">
+        <v>8.0</v>
+      </c>
       <c r="H269" s="5"/>
       <c r="I269" s="5" t="s">
         <v>881</v>
@@ -16037,14 +16219,16 @@
       <c r="L269" s="1"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="31" t="s">
+      <c r="A270" s="32" t="s">
         <v>1898</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>1899</v>
       </c>
       <c r="F270" s="9"/>
-      <c r="G270" s="12"/>
+      <c r="G270" s="29">
+        <v>0.0</v>
+      </c>
       <c r="H270" s="5"/>
       <c r="I270" s="5" t="s">
         <v>881</v>
@@ -16052,14 +16236,16 @@
       <c r="L270" s="1"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="31" t="s">
+      <c r="A271" s="32" t="s">
         <v>1900</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>1901</v>
       </c>
       <c r="F271" s="9"/>
-      <c r="G271" s="12"/>
+      <c r="G271" s="29">
+        <v>0.0</v>
+      </c>
       <c r="H271" s="5"/>
       <c r="I271" s="5" t="s">
         <v>881</v>
@@ -16067,138 +16253,382 @@
       <c r="L271" s="1"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
+      <c r="A272" s="32" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>1903</v>
+      </c>
       <c r="F272" s="9"/>
-      <c r="G272" s="12"/>
+      <c r="G272" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>1904</v>
+      </c>
       <c r="L272" s="1"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
+      <c r="A273" s="32" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>1906</v>
+      </c>
       <c r="F273" s="9"/>
-      <c r="G273" s="10"/>
+      <c r="G273" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="I273" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L273" s="1"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
+      <c r="A274" s="32" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>1197</v>
+      </c>
       <c r="F274" s="9"/>
       <c r="G274" s="10"/>
+      <c r="I274" s="30" t="s">
+        <v>141</v>
+      </c>
       <c r="L274" s="1"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
+      <c r="A275" s="32" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>1909</v>
+      </c>
       <c r="F275" s="9"/>
       <c r="G275" s="10"/>
+      <c r="I275" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="L275" s="1"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
+      <c r="A276" s="32" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>1911</v>
+      </c>
       <c r="F276" s="9"/>
       <c r="G276" s="10"/>
+      <c r="I276" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="L276" s="1"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
+      <c r="A277" s="32" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>1913</v>
+      </c>
       <c r="F277" s="9"/>
       <c r="G277" s="10"/>
+      <c r="I277" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L277" s="1"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
+      <c r="A278" s="32" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>1915</v>
+      </c>
       <c r="F278" s="9"/>
       <c r="G278" s="10"/>
+      <c r="I278" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="L278" s="1"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
+      <c r="A279" s="32" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>1917</v>
+      </c>
       <c r="F279" s="9"/>
       <c r="G279" s="10"/>
+      <c r="I279" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L279" s="1"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
+      <c r="A280" s="32" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="F280" s="9"/>
       <c r="G280" s="10"/>
+      <c r="I280" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="L280" s="1"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
+      <c r="A281" s="32" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>1920</v>
+      </c>
       <c r="F281" s="9"/>
       <c r="G281" s="10"/>
       <c r="L281" s="1"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
+      <c r="A282" s="32" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>1922</v>
+      </c>
       <c r="F282" s="9"/>
       <c r="G282" s="10"/>
+      <c r="I282" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="L282" s="1"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
+      <c r="A283" s="32" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>1924</v>
+      </c>
       <c r="F283" s="9"/>
       <c r="G283" s="10"/>
+      <c r="I283" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="L283" s="1"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
+      <c r="A284" s="32" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>1926</v>
+      </c>
       <c r="F284" s="9"/>
       <c r="G284" s="10"/>
+      <c r="I284" s="5" t="s">
+        <v>1927</v>
+      </c>
       <c r="L284" s="1"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
+      <c r="A285" s="32" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>1929</v>
+      </c>
       <c r="F285" s="9"/>
       <c r="G285" s="10"/>
+      <c r="I285" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L285" s="1"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
+      <c r="A286" s="32" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>1931</v>
+      </c>
       <c r="F286" s="9"/>
       <c r="G286" s="10"/>
+      <c r="I286" s="5" t="s">
+        <v>1010</v>
+      </c>
       <c r="L286" s="1"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
+      <c r="A287" s="32" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>1933</v>
+      </c>
       <c r="F287" s="9"/>
       <c r="G287" s="10"/>
+      <c r="I287" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="L287" s="1"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
+      <c r="A288" s="32" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>1935</v>
+      </c>
       <c r="F288" s="9"/>
       <c r="G288" s="10"/>
+      <c r="I288" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L288" s="1"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
+      <c r="A289" s="32" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>1937</v>
+      </c>
       <c r="F289" s="9"/>
       <c r="G289" s="10"/>
+      <c r="I289" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L289" s="1"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
+      <c r="A290" s="32" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>1939</v>
+      </c>
       <c r="F290" s="9"/>
       <c r="G290" s="10"/>
+      <c r="I290" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L290" s="1"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
+      <c r="A291" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B291" s="33" t="s">
+        <v>1941</v>
+      </c>
       <c r="F291" s="9"/>
       <c r="G291" s="10"/>
+      <c r="I291" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L291" s="1"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
+      <c r="A292" s="32" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>1943</v>
+      </c>
       <c r="F292" s="9"/>
       <c r="G292" s="10"/>
+      <c r="I292" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="L292" s="1"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
+      <c r="A293" s="32" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>1945</v>
+      </c>
       <c r="F293" s="9"/>
       <c r="G293" s="10"/>
+      <c r="I293" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="L293" s="1"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
+      <c r="A294" s="32" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>1947</v>
+      </c>
       <c r="F294" s="9"/>
       <c r="G294" s="10"/>
+      <c r="I294" s="5" t="s">
+        <v>1948</v>
+      </c>
       <c r="L294" s="1"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
+      <c r="A295" s="32" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>1517</v>
+      </c>
       <c r="F295" s="9"/>
       <c r="G295" s="10"/>
+      <c r="I295" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L295" s="1"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
+      <c r="A296" s="32" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>1951</v>
+      </c>
       <c r="F296" s="9"/>
       <c r="G296" s="10"/>
+      <c r="I296" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="L296" s="1"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
+      <c r="A297" s="32" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>1953</v>
+      </c>
       <c r="F297" s="9"/>
       <c r="G297" s="10"/>
+      <c r="I297" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="L297" s="1"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
+      <c r="A298" s="32" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>1954</v>
+      </c>
       <c r="F298" s="9"/>
       <c r="G298" s="10"/>
+      <c r="I298" s="5" t="s">
+        <v>1955</v>
+      </c>
       <c r="L298" s="1"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
@@ -19695,11 +20125,6 @@
       <c r="F997" s="9"/>
       <c r="G997" s="10"/>
       <c r="L997" s="1"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="F998" s="9"/>
-      <c r="G998" s="10"/>
-      <c r="L998" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/polid_data/instrumental_variable_est.xlsx
+++ b/data/polid_data/instrumental_variable_est.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="1902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="1956">
   <si>
     <t>polid</t>
   </si>
@@ -5758,6 +5758,168 @@
   <si>
     <t>van Stapele</t>
   </si>
+  <si>
+    <t>00154</t>
+  </si>
+  <si>
+    <t>Bomans</t>
+  </si>
+  <si>
+    <t>Journalist</t>
+  </si>
+  <si>
+    <t>00341</t>
+  </si>
+  <si>
+    <t>Dresselhuys</t>
+  </si>
+  <si>
+    <t>00968</t>
+  </si>
+  <si>
+    <t>01334</t>
+  </si>
+  <si>
+    <t>Van Sypesteyn</t>
+  </si>
+  <si>
+    <t>00009</t>
+  </si>
+  <si>
+    <t>Taets van Amerongen</t>
+  </si>
+  <si>
+    <t>01092</t>
+  </si>
+  <si>
+    <t>Van Reenen</t>
+  </si>
+  <si>
+    <t>01065</t>
+  </si>
+  <si>
+    <t>Pyls</t>
+  </si>
+  <si>
+    <t>01316</t>
+  </si>
+  <si>
+    <t>Storm van 's-Gravezande</t>
+  </si>
+  <si>
+    <t>00437</t>
+  </si>
+  <si>
+    <t>00538</t>
+  </si>
+  <si>
+    <t>Heemskerk Az.</t>
+  </si>
+  <si>
+    <t>00573</t>
+  </si>
+  <si>
+    <t>van den Heuvel</t>
+  </si>
+  <si>
+    <t>01281</t>
+  </si>
+  <si>
+    <t>Smitz</t>
+  </si>
+  <si>
+    <t>00674</t>
+  </si>
+  <si>
+    <t>Kappeyne van de Coppello</t>
+  </si>
+  <si>
+    <t>Rector</t>
+  </si>
+  <si>
+    <t>00857</t>
+  </si>
+  <si>
+    <t>Van Lynden van Sandenburg</t>
+  </si>
+  <si>
+    <t>00765</t>
+  </si>
+  <si>
+    <t>Van Kuyk</t>
+  </si>
+  <si>
+    <t>00322</t>
+  </si>
+  <si>
+    <t>van der Does de Willebois</t>
+  </si>
+  <si>
+    <t>00870</t>
+  </si>
+  <si>
+    <t>van der Maesen de Sombreff</t>
+  </si>
+  <si>
+    <t>01603</t>
+  </si>
+  <si>
+    <t>van Zuylen van Nyevelt</t>
+  </si>
+  <si>
+    <t>00350</t>
+  </si>
+  <si>
+    <t>Dumbar</t>
+  </si>
+  <si>
+    <t>00631</t>
+  </si>
+  <si>
+    <t>s Jacob</t>
+  </si>
+  <si>
+    <t>00130</t>
+  </si>
+  <si>
+    <t>Blom</t>
+  </si>
+  <si>
+    <t>01123</t>
+  </si>
+  <si>
+    <t>de Roo van Alderwerelt</t>
+  </si>
+  <si>
+    <t>00878</t>
+  </si>
+  <si>
+    <t>du Marchie van Voorthuysen</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>01272</t>
+  </si>
+  <si>
+    <t>00784</t>
+  </si>
+  <si>
+    <t>de Lange</t>
+  </si>
+  <si>
+    <t>00828</t>
+  </si>
+  <si>
+    <t>van der Linden</t>
+  </si>
+  <si>
+    <t>Heemskerk Bz.</t>
+  </si>
+  <si>
+    <t>Bankier</t>
+  </si>
 </sst>
 </file>
 
@@ -5768,7 +5930,7 @@
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -5824,7 +5986,6 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -5840,7 +6001,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5924,13 +6085,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -15542,7 +15700,7 @@
       <c r="F253" s="19" t="s">
         <v>1814</v>
       </c>
-      <c r="G253" s="29">
+      <c r="G253" s="12">
         <v>4.0</v>
       </c>
       <c r="H253" s="5"/>
@@ -15587,7 +15745,7 @@
       <c r="F254" s="18" t="s">
         <v>1822</v>
       </c>
-      <c r="G254" s="29">
+      <c r="G254" s="12">
         <v>2.0</v>
       </c>
       <c r="H254" s="5"/>
@@ -15638,10 +15796,10 @@
       <c r="F255" s="19" t="s">
         <v>1832</v>
       </c>
-      <c r="G255" s="29">
+      <c r="G255" s="12">
         <v>5.0</v>
       </c>
-      <c r="H255" s="30" t="s">
+      <c r="H255" s="5" t="s">
         <v>941</v>
       </c>
       <c r="I255" s="5" t="s">
@@ -15708,7 +15866,7 @@
       <c r="F257" s="19" t="s">
         <v>1844</v>
       </c>
-      <c r="G257" s="29">
+      <c r="G257" s="12">
         <v>0.0</v>
       </c>
       <c r="H257" s="5"/>
@@ -15785,7 +15943,7 @@
       <c r="F259" s="18">
         <v>3484.0</v>
       </c>
-      <c r="G259" s="29">
+      <c r="G259" s="12">
         <v>0.0</v>
       </c>
       <c r="H259" s="5"/>
@@ -15850,10 +16008,10 @@
       <c r="F261" s="19" t="s">
         <v>1870</v>
       </c>
-      <c r="G261" s="29">
+      <c r="G261" s="12">
         <v>10.0</v>
       </c>
-      <c r="H261" s="30" t="s">
+      <c r="H261" s="5" t="s">
         <v>1074</v>
       </c>
       <c r="I261" s="5" t="s">
@@ -15900,10 +16058,10 @@
       <c r="F262" s="19" t="s">
         <v>1878</v>
       </c>
-      <c r="G262" s="29">
+      <c r="G262" s="12">
         <v>12.0</v>
       </c>
-      <c r="H262" s="30" t="s">
+      <c r="H262" s="5" t="s">
         <v>1264</v>
       </c>
       <c r="I262" s="5" t="s">
@@ -15932,14 +16090,16 @@
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="31" t="s">
+      <c r="A263" s="29" t="s">
         <v>1883</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="F263" s="9"/>
-      <c r="G263" s="12"/>
+      <c r="G263" s="12">
+        <v>0.0</v>
+      </c>
       <c r="H263" s="5"/>
       <c r="I263" s="5" t="s">
         <v>1885</v>
@@ -15947,14 +16107,16 @@
       <c r="L263" s="1"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="31" t="s">
+      <c r="A264" s="29" t="s">
         <v>1886</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>1887</v>
       </c>
       <c r="F264" s="9"/>
-      <c r="G264" s="12"/>
+      <c r="G264" s="12">
+        <v>1.0</v>
+      </c>
       <c r="H264" s="5"/>
       <c r="I264" s="5" t="s">
         <v>104</v>
@@ -15962,14 +16124,16 @@
       <c r="L264" s="1"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="31" t="s">
+      <c r="A265" s="29" t="s">
         <v>1888</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>1889</v>
       </c>
       <c r="F265" s="9"/>
-      <c r="G265" s="12"/>
+      <c r="G265" s="12">
+        <v>5.0</v>
+      </c>
       <c r="H265" s="5"/>
       <c r="I265" s="5" t="s">
         <v>1890</v>
@@ -15977,14 +16141,16 @@
       <c r="L265" s="1"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="31" t="s">
+      <c r="A266" s="29" t="s">
         <v>1241</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>1891</v>
       </c>
       <c r="F266" s="9"/>
-      <c r="G266" s="12"/>
+      <c r="G266" s="12">
+        <v>0.0</v>
+      </c>
       <c r="H266" s="5"/>
       <c r="I266" s="5" t="s">
         <v>881</v>
@@ -15992,14 +16158,16 @@
       <c r="L266" s="1"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="31" t="s">
+      <c r="A267" s="29" t="s">
         <v>1892</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>1893</v>
       </c>
       <c r="F267" s="9"/>
-      <c r="G267" s="12"/>
+      <c r="G267" s="12">
+        <v>1.0</v>
+      </c>
       <c r="H267" s="5"/>
       <c r="I267" s="5" t="s">
         <v>881</v>
@@ -16007,14 +16175,16 @@
       <c r="L267" s="1"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="31" t="s">
+      <c r="A268" s="29" t="s">
         <v>1894</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="F268" s="9"/>
-      <c r="G268" s="12"/>
+      <c r="G268" s="12">
+        <v>1.0</v>
+      </c>
       <c r="H268" s="5"/>
       <c r="I268" s="5" t="s">
         <v>208</v>
@@ -16022,14 +16192,16 @@
       <c r="L268" s="1"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="31" t="s">
+      <c r="A269" s="29" t="s">
         <v>1896</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>1897</v>
       </c>
       <c r="F269" s="9"/>
-      <c r="G269" s="12"/>
+      <c r="G269" s="12">
+        <v>8.0</v>
+      </c>
       <c r="H269" s="5"/>
       <c r="I269" s="5" t="s">
         <v>881</v>
@@ -16037,14 +16209,16 @@
       <c r="L269" s="1"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="31" t="s">
+      <c r="A270" s="29" t="s">
         <v>1898</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>1899</v>
       </c>
       <c r="F270" s="9"/>
-      <c r="G270" s="12"/>
+      <c r="G270" s="12">
+        <v>0.0</v>
+      </c>
       <c r="H270" s="5"/>
       <c r="I270" s="5" t="s">
         <v>881</v>
@@ -16052,14 +16226,16 @@
       <c r="L270" s="1"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="31" t="s">
+      <c r="A271" s="29" t="s">
         <v>1900</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>1901</v>
       </c>
       <c r="F271" s="9"/>
-      <c r="G271" s="12"/>
+      <c r="G271" s="12">
+        <v>0.0</v>
+      </c>
       <c r="H271" s="5"/>
       <c r="I271" s="5" t="s">
         <v>881</v>
@@ -16067,138 +16243,382 @@
       <c r="L271" s="1"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
+      <c r="A272" s="29" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>1903</v>
+      </c>
       <c r="F272" s="9"/>
-      <c r="G272" s="12"/>
+      <c r="G272" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>1904</v>
+      </c>
       <c r="L272" s="1"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
+      <c r="A273" s="29" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>1906</v>
+      </c>
       <c r="F273" s="9"/>
-      <c r="G273" s="10"/>
+      <c r="G273" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="I273" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L273" s="1"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
+      <c r="A274" s="29" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>1197</v>
+      </c>
       <c r="F274" s="9"/>
       <c r="G274" s="10"/>
+      <c r="I274" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="L274" s="1"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
+      <c r="A275" s="29" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>1909</v>
+      </c>
       <c r="F275" s="9"/>
       <c r="G275" s="10"/>
+      <c r="I275" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="L275" s="1"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
+      <c r="A276" s="29" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>1911</v>
+      </c>
       <c r="F276" s="9"/>
       <c r="G276" s="10"/>
+      <c r="I276" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="L276" s="1"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
+      <c r="A277" s="29" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>1913</v>
+      </c>
       <c r="F277" s="9"/>
       <c r="G277" s="10"/>
+      <c r="I277" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L277" s="1"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
+      <c r="A278" s="29" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>1915</v>
+      </c>
       <c r="F278" s="9"/>
       <c r="G278" s="10"/>
+      <c r="I278" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="L278" s="1"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
+      <c r="A279" s="29" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>1917</v>
+      </c>
       <c r="F279" s="9"/>
       <c r="G279" s="10"/>
+      <c r="I279" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L279" s="1"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
+      <c r="A280" s="29" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="F280" s="9"/>
       <c r="G280" s="10"/>
+      <c r="I280" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="L280" s="1"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
+      <c r="A281" s="29" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>1920</v>
+      </c>
       <c r="F281" s="9"/>
       <c r="G281" s="10"/>
       <c r="L281" s="1"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
+      <c r="A282" s="29" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>1922</v>
+      </c>
       <c r="F282" s="9"/>
       <c r="G282" s="10"/>
+      <c r="I282" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="L282" s="1"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
+      <c r="A283" s="29" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>1924</v>
+      </c>
       <c r="F283" s="9"/>
       <c r="G283" s="10"/>
+      <c r="I283" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="L283" s="1"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
+      <c r="A284" s="29" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>1926</v>
+      </c>
       <c r="F284" s="9"/>
       <c r="G284" s="10"/>
+      <c r="I284" s="5" t="s">
+        <v>1927</v>
+      </c>
       <c r="L284" s="1"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
+      <c r="A285" s="29" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>1929</v>
+      </c>
       <c r="F285" s="9"/>
       <c r="G285" s="10"/>
+      <c r="I285" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L285" s="1"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
+      <c r="A286" s="29" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>1931</v>
+      </c>
       <c r="F286" s="9"/>
       <c r="G286" s="10"/>
+      <c r="I286" s="5" t="s">
+        <v>1010</v>
+      </c>
       <c r="L286" s="1"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
+      <c r="A287" s="29" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>1933</v>
+      </c>
       <c r="F287" s="9"/>
       <c r="G287" s="10"/>
+      <c r="I287" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="L287" s="1"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
+      <c r="A288" s="29" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>1935</v>
+      </c>
       <c r="F288" s="9"/>
       <c r="G288" s="10"/>
+      <c r="I288" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L288" s="1"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
+      <c r="A289" s="29" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>1937</v>
+      </c>
       <c r="F289" s="9"/>
       <c r="G289" s="10"/>
+      <c r="I289" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L289" s="1"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
+      <c r="A290" s="29" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>1939</v>
+      </c>
       <c r="F290" s="9"/>
       <c r="G290" s="10"/>
+      <c r="I290" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L290" s="1"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
+      <c r="A291" s="29" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B291" s="30" t="s">
+        <v>1941</v>
+      </c>
       <c r="F291" s="9"/>
       <c r="G291" s="10"/>
+      <c r="I291" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L291" s="1"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
+      <c r="A292" s="29" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>1943</v>
+      </c>
       <c r="F292" s="9"/>
       <c r="G292" s="10"/>
+      <c r="I292" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="L292" s="1"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
+      <c r="A293" s="29" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>1945</v>
+      </c>
       <c r="F293" s="9"/>
       <c r="G293" s="10"/>
+      <c r="I293" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="L293" s="1"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
+      <c r="A294" s="29" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>1947</v>
+      </c>
       <c r="F294" s="9"/>
       <c r="G294" s="10"/>
+      <c r="I294" s="5" t="s">
+        <v>1948</v>
+      </c>
       <c r="L294" s="1"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
+      <c r="A295" s="29" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>1517</v>
+      </c>
       <c r="F295" s="9"/>
       <c r="G295" s="10"/>
+      <c r="I295" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L295" s="1"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
+      <c r="A296" s="29" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>1951</v>
+      </c>
       <c r="F296" s="9"/>
       <c r="G296" s="10"/>
+      <c r="I296" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="L296" s="1"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
+      <c r="A297" s="29" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>1953</v>
+      </c>
       <c r="F297" s="9"/>
       <c r="G297" s="10"/>
+      <c r="I297" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="L297" s="1"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
+      <c r="A298" s="29" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>1954</v>
+      </c>
       <c r="F298" s="9"/>
       <c r="G298" s="10"/>
+      <c r="I298" s="5" t="s">
+        <v>1955</v>
+      </c>
       <c r="L298" s="1"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
@@ -19695,11 +20115,6 @@
       <c r="F997" s="9"/>
       <c r="G997" s="10"/>
       <c r="L997" s="1"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="F998" s="9"/>
-      <c r="G998" s="10"/>
-      <c r="L998" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
